--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/9. XXI-КПМ-30-1-500-9 (Штоф)/Штофф от 18.11.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/9. XXI-КПМ-30-1-500-9 (Штоф)/Штофф от 18.11.2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="144">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -471,6 +471,9 @@
   <si>
     <t>Полная высота 61,2 мм</t>
   </si>
+  <si>
+    <t>54 / 33</t>
+  </si>
 </sst>
 </file>
 
@@ -483,7 +486,7 @@
     <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
     <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="58" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3547,6 +3550,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3591,11 +3600,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3614,10 +3622,77 @@
     <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3628,60 +3703,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3691,23 +3712,77 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3759,76 +3834,73 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3852,75 +3924,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3947,6 +3950,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3957,25 +3963,22 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6203,7 +6206,7 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
@@ -6211,75 +6214,75 @@
     <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A1" s="487" t="s">
+    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="489" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="491"/>
-      <c r="C1" s="491"/>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
+      <c r="B1" s="493"/>
+      <c r="C1" s="493"/>
+      <c r="D1" s="493"/>
+      <c r="E1" s="493"/>
       <c r="G1" s="371" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1">
-      <c r="A2" s="488" t="s">
+    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="490" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="489"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="490"/>
+      <c r="B2" s="491"/>
+      <c r="C2" s="491"/>
+      <c r="D2" s="491"/>
+      <c r="E2" s="492"/>
       <c r="G2" s="370" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8" thickTop="1">
+    <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="G3" s="370" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A4" s="492" t="s">
+    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="494" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="493"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="493"/>
-      <c r="E4" s="493"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A5" s="494" t="s">
+      <c r="B4" s="495"/>
+      <c r="C4" s="495"/>
+      <c r="D4" s="495"/>
+      <c r="E4" s="495"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="496" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="495"/>
-      <c r="C5" s="495"/>
-      <c r="D5" s="495"/>
-      <c r="E5" s="496"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.8" thickTop="1"/>
-    <row r="7" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A7" s="487" t="s">
+      <c r="B5" s="497"/>
+      <c r="C5" s="497"/>
+      <c r="D5" s="497"/>
+      <c r="E5" s="498"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="489" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="491"/>
-      <c r="C7" s="491"/>
-      <c r="D7" s="491"/>
-      <c r="E7" s="491"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A8" s="497"/>
-      <c r="B8" s="498"/>
-      <c r="C8" s="498"/>
-      <c r="D8" s="498"/>
-      <c r="E8" s="499"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1">
-      <c r="A10" s="487" t="s">
+      <c r="B7" s="493"/>
+      <c r="C7" s="493"/>
+      <c r="D7" s="493"/>
+      <c r="E7" s="493"/>
+    </row>
+    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="499"/>
+      <c r="B8" s="500"/>
+      <c r="C8" s="500"/>
+      <c r="D8" s="500"/>
+      <c r="E8" s="501"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="489" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="487"/>
+      <c r="B10" s="489"/>
       <c r="C10" s="372"/>
       <c r="D10" s="380" t="s">
         <v>93</v>
@@ -6289,36 +6292,36 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1">
-      <c r="A11" s="485"/>
-      <c r="B11" s="486"/>
+    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="487"/>
+      <c r="B11" s="488"/>
       <c r="D11" s="379">
         <v>43787</v>
       </c>
-      <c r="F11" s="500" t="s">
+      <c r="F11" s="484" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="500"/>
-      <c r="H11" s="500"/>
-      <c r="I11" s="500"/>
-      <c r="J11" s="501" t="s">
+      <c r="G11" s="484"/>
+      <c r="H11" s="484"/>
+      <c r="I11" s="484"/>
+      <c r="J11" s="485" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="501"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="F12" s="500" t="s">
+      <c r="K11" s="485"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="484" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="500"/>
-      <c r="H12" s="500"/>
-      <c r="I12" s="500"/>
-      <c r="J12" s="501" t="s">
+      <c r="G12" s="484"/>
+      <c r="H12" s="484"/>
+      <c r="I12" s="484"/>
+      <c r="J12" s="485" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="501"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12" s="485"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="373" t="s">
         <v>88</v>
       </c>
@@ -6328,18 +6331,18 @@
       <c r="C13" s="384" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="500" t="s">
+      <c r="F13" s="484" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="500"/>
-      <c r="H13" s="500"/>
-      <c r="I13" s="500"/>
-      <c r="J13" s="501" t="s">
+      <c r="G13" s="484"/>
+      <c r="H13" s="484"/>
+      <c r="I13" s="484"/>
+      <c r="J13" s="485" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="501"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13" s="485"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="375" t="s">
         <v>43</v>
       </c>
@@ -6350,7 +6353,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="375" t="s">
         <v>44</v>
       </c>
@@ -6361,7 +6364,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="375" t="s">
         <v>38</v>
       </c>
@@ -6372,7 +6375,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="375" t="s">
         <v>23</v>
       </c>
@@ -6383,7 +6386,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="375" t="s">
         <v>47</v>
       </c>
@@ -6394,7 +6397,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="375" t="s">
         <v>90</v>
       </c>
@@ -6405,7 +6408,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="375" t="s">
         <v>51</v>
       </c>
@@ -6416,7 +6419,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="375" t="s">
         <v>53</v>
       </c>
@@ -6427,7 +6430,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="375" t="s">
         <v>91</v>
       </c>
@@ -6436,7 +6439,7 @@
       </c>
       <c r="C22" s="382"/>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="375" t="s">
         <v>56</v>
       </c>
@@ -6447,7 +6450,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="375" t="s">
         <v>70</v>
       </c>
@@ -6458,14 +6461,14 @@
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="375" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="382"/>
       <c r="C25" s="382"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="377" t="s">
         <v>55</v>
       </c>
@@ -6476,7 +6479,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="377" t="s">
         <v>105</v>
       </c>
@@ -6485,29 +6488,23 @@
       </c>
       <c r="C27" s="385"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="381"/>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="484" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="486" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="484"/>
-      <c r="C29" s="484"/>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="B29" s="486"/>
+      <c r="C29" s="486"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="371" t="s">
         <v>137</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -6517,6 +6514,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6534,7 +6537,7 @@
       <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="169" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="169" customWidth="1"/>
@@ -6547,7 +6550,7 @@
     <col min="20" max="16384" width="9.109375" style="169"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="165"/>
       <c r="B1" s="166"/>
       <c r="C1" s="167"/>
@@ -6568,26 +6571,26 @@
       <c r="R1" s="167"/>
       <c r="S1" s="168"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="170"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
@@ -6596,21 +6599,21 @@
       <c r="R2" s="174"/>
       <c r="S2" s="175"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="170"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -6619,11 +6622,11 @@
       <c r="R3" s="178"/>
       <c r="S3" s="175"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="170"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6640,24 +6643,24 @@
       <c r="R4" s="178"/>
       <c r="S4" s="175"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="170"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
       <c r="O5" s="177"/>
@@ -6666,24 +6669,24 @@
       <c r="R5" s="178"/>
       <c r="S5" s="175"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="170"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
       <c r="O6" s="177"/>
@@ -6692,29 +6695,29 @@
       <c r="R6" s="178"/>
       <c r="S6" s="175"/>
     </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="170"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="179"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
@@ -6723,7 +6726,7 @@
       <c r="R7" s="178"/>
       <c r="S7" s="175"/>
     </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="180"/>
       <c r="B8" s="181"/>
       <c r="C8" s="182"/>
@@ -6744,7 +6747,7 @@
       <c r="R8" s="185"/>
       <c r="S8" s="186"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="187"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -6777,7 +6780,7 @@
       <c r="R9" s="346"/>
       <c r="S9" s="202"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="180"/>
       <c r="B10" s="189" t="s">
         <v>25</v>
@@ -6812,7 +6815,7 @@
       <c r="R10" s="348"/>
       <c r="S10" s="186"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="180"/>
       <c r="B11" s="191" t="s">
         <v>26</v>
@@ -6845,7 +6848,7 @@
       <c r="R11" s="350"/>
       <c r="S11" s="186"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="180"/>
       <c r="B12" s="191" t="s">
         <v>2</v>
@@ -6878,7 +6881,7 @@
       <c r="R12" s="350"/>
       <c r="S12" s="186"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="180"/>
       <c r="B13" s="191" t="s">
         <v>3</v>
@@ -6911,7 +6914,7 @@
       <c r="R13" s="350"/>
       <c r="S13" s="186"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="180"/>
       <c r="B14" s="191" t="s">
         <v>27</v>
@@ -6944,7 +6947,7 @@
       <c r="R14" s="350"/>
       <c r="S14" s="186"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="180"/>
       <c r="B15" s="191" t="s">
         <v>28</v>
@@ -6977,7 +6980,7 @@
       <c r="R15" s="350"/>
       <c r="S15" s="186"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="180"/>
       <c r="B16" s="191" t="s">
         <v>4</v>
@@ -7010,7 +7013,7 @@
       <c r="R16" s="350"/>
       <c r="S16" s="186"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6">
+    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A17" s="180"/>
       <c r="B17" s="191" t="s">
         <v>9</v>
@@ -7043,7 +7046,7 @@
       <c r="R17" s="350"/>
       <c r="S17" s="186"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="180"/>
       <c r="B18" s="191" t="s">
         <v>5</v>
@@ -7076,7 +7079,7 @@
       <c r="R18" s="350"/>
       <c r="S18" s="186"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="193"/>
       <c r="B19" s="194"/>
       <c r="C19" s="194"/>
@@ -7097,9 +7100,20 @@
       <c r="R19" s="194"/>
       <c r="S19" s="196"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
+    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7107,17 +7121,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7147,7 +7150,7 @@
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="208" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="208" customWidth="1"/>
@@ -7160,7 +7163,7 @@
     <col min="20" max="16384" width="9.109375" style="208"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="204"/>
       <c r="B1" s="205"/>
       <c r="C1" s="206"/>
@@ -7181,49 +7184,49 @@
       <c r="R1" s="206"/>
       <c r="S1" s="207"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="209"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="626"/>
-      <c r="Q2" s="626"/>
+      <c r="P2" s="623"/>
+      <c r="Q2" s="623"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="209"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -7232,11 +7235,11 @@
       <c r="R3" s="217"/>
       <c r="S3" s="214"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="209"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7253,24 +7256,24 @@
       <c r="R4" s="217"/>
       <c r="S4" s="214"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="209"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -7279,24 +7282,24 @@
       <c r="R5" s="217"/>
       <c r="S5" s="214"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="209"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -7305,29 +7308,29 @@
       <c r="R6" s="217"/>
       <c r="S6" s="214"/>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="209"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -7336,7 +7339,7 @@
       <c r="R7" s="217"/>
       <c r="S7" s="214"/>
     </row>
-    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="219"/>
       <c r="B8" s="220"/>
       <c r="C8" s="221"/>
@@ -7357,7 +7360,7 @@
       <c r="R8" s="224"/>
       <c r="S8" s="225"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="226"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -7390,7 +7393,7 @@
       <c r="R9" s="228"/>
       <c r="S9" s="229"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="219"/>
       <c r="B10" s="230" t="s">
         <v>25</v>
@@ -7423,7 +7426,7 @@
       <c r="R10" s="234"/>
       <c r="S10" s="225"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="219"/>
       <c r="B11" s="235" t="s">
         <v>26</v>
@@ -7456,7 +7459,7 @@
       <c r="R11" s="239"/>
       <c r="S11" s="225"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="219"/>
       <c r="B12" s="235" t="s">
         <v>2</v>
@@ -7489,7 +7492,7 @@
       <c r="R12" s="239"/>
       <c r="S12" s="225"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="219"/>
       <c r="B13" s="235" t="s">
         <v>3</v>
@@ -7522,7 +7525,7 @@
       <c r="R13" s="239"/>
       <c r="S13" s="225"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="219"/>
       <c r="B14" s="235" t="s">
         <v>27</v>
@@ -7555,7 +7558,7 @@
       <c r="R14" s="239"/>
       <c r="S14" s="225"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="219"/>
       <c r="B15" s="235" t="s">
         <v>28</v>
@@ -7588,7 +7591,7 @@
       <c r="R15" s="239"/>
       <c r="S15" s="225"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="219"/>
       <c r="B16" s="235" t="s">
         <v>9</v>
@@ -7621,7 +7624,7 @@
       <c r="R16" s="239"/>
       <c r="S16" s="225"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="219"/>
       <c r="B17" s="235" t="s">
         <v>5</v>
@@ -7654,14 +7657,14 @@
       <c r="R17" s="239"/>
       <c r="S17" s="225"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="219"/>
-      <c r="B18" s="623" t="s">
+      <c r="B18" s="624" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="624"/>
-      <c r="D18" s="624"/>
-      <c r="E18" s="625"/>
+      <c r="C18" s="625"/>
+      <c r="D18" s="625"/>
+      <c r="E18" s="626"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -7681,7 +7684,7 @@
       <c r="R18" s="243"/>
       <c r="S18" s="225"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="244"/>
       <c r="B19" s="245"/>
       <c r="C19" s="245"/>
@@ -7702,17 +7705,9 @@
       <c r="R19" s="245"/>
       <c r="S19" s="247"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1"/>
+    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -7724,6 +7719,14 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7770,10 +7773,10 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10:C16"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
@@ -7786,7 +7789,7 @@
     <col min="20" max="16384" width="9.109375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -7807,26 +7810,26 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="133"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
@@ -7835,21 +7838,21 @@
       <c r="R2" s="137"/>
       <c r="S2" s="138"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="133"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -7858,11 +7861,11 @@
       <c r="R3" s="141"/>
       <c r="S3" s="138"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="133"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7879,24 +7882,24 @@
       <c r="R4" s="141"/>
       <c r="S4" s="138"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="133"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -7905,24 +7908,24 @@
       <c r="R5" s="141"/>
       <c r="S5" s="138"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="133"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -7931,29 +7934,29 @@
       <c r="R6" s="141"/>
       <c r="S6" s="138"/>
     </row>
-    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="133"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -7962,7 +7965,7 @@
       <c r="R7" s="141"/>
       <c r="S7" s="138"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78"/>
       <c r="B8" s="143"/>
       <c r="C8" s="144"/>
@@ -7983,7 +7986,7 @@
       <c r="R8" s="147"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="148"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -8016,7 +8019,7 @@
       <c r="R9" s="151"/>
       <c r="S9" s="152"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="153"/>
       <c r="B10" s="154" t="s">
         <v>25</v>
@@ -8049,7 +8052,7 @@
       <c r="R10" s="156"/>
       <c r="S10" s="157"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="153"/>
       <c r="B11" s="154" t="s">
         <v>26</v>
@@ -8082,7 +8085,7 @@
       <c r="R11" s="156"/>
       <c r="S11" s="157"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="153"/>
       <c r="B12" s="154" t="s">
         <v>2</v>
@@ -8115,7 +8118,7 @@
       <c r="R12" s="156"/>
       <c r="S12" s="157"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="153"/>
       <c r="B13" s="154" t="s">
         <v>3</v>
@@ -8148,7 +8151,7 @@
       <c r="R13" s="156"/>
       <c r="S13" s="157"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="153"/>
       <c r="B14" s="154" t="s">
         <v>27</v>
@@ -8181,7 +8184,7 @@
       <c r="R14" s="156"/>
       <c r="S14" s="157"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="153"/>
       <c r="B15" s="154" t="s">
         <v>28</v>
@@ -8214,7 +8217,7 @@
       <c r="R15" s="156"/>
       <c r="S15" s="157"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="153"/>
       <c r="B16" s="154" t="s">
         <v>4</v>
@@ -8247,7 +8250,7 @@
       <c r="R16" s="156"/>
       <c r="S16" s="157"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="78"/>
       <c r="B17" s="97"/>
       <c r="C17" s="98"/>
@@ -8268,7 +8271,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78"/>
       <c r="B18" s="97"/>
       <c r="C18" s="98"/>
@@ -8289,7 +8292,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78"/>
       <c r="B19" s="104"/>
       <c r="C19" s="105"/>
@@ -8310,7 +8313,7 @@
       <c r="R19" s="109"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="110"/>
       <c r="B20" s="111"/>
       <c r="C20" s="111"/>
@@ -8331,9 +8334,20 @@
       <c r="R20" s="113"/>
       <c r="S20" s="114"/>
     </row>
-    <row r="21" spans="1:19" ht="13.8" thickTop="1"/>
+    <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8341,17 +8355,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -8381,7 +8384,7 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="265" customWidth="1"/>
     <col min="2" max="2" width="5" style="265" customWidth="1"/>
@@ -8394,7 +8397,7 @@
     <col min="20" max="16384" width="9.109375" style="265"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="261"/>
       <c r="B1" s="262"/>
       <c r="C1" s="263"/>
@@ -8415,49 +8418,49 @@
       <c r="R1" s="263"/>
       <c r="S1" s="264"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="266"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="629">
+      <c r="J2" s="600"/>
+      <c r="K2" s="628">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="L2" s="630"/>
+      <c r="L2" s="629"/>
       <c r="M2" s="267"/>
       <c r="N2" s="268"/>
       <c r="O2" s="269"/>
-      <c r="P2" s="628"/>
-      <c r="Q2" s="628"/>
+      <c r="P2" s="632"/>
+      <c r="Q2" s="632"/>
       <c r="R2" s="270"/>
       <c r="S2" s="271"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="266"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="630"/>
+      <c r="L3" s="631"/>
       <c r="M3" s="272"/>
       <c r="N3" s="273"/>
       <c r="O3" s="273"/>
@@ -8466,11 +8469,11 @@
       <c r="R3" s="274"/>
       <c r="S3" s="271"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="266"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8487,24 +8490,24 @@
       <c r="R4" s="274"/>
       <c r="S4" s="271"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="266"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -8513,24 +8516,24 @@
       <c r="R5" s="274"/>
       <c r="S5" s="271"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="266"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -8539,29 +8542,29 @@
       <c r="R6" s="274"/>
       <c r="S6" s="271"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="266"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -8570,7 +8573,7 @@
       <c r="R7" s="274"/>
       <c r="S7" s="271"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="276"/>
       <c r="B8" s="277"/>
       <c r="C8" s="278"/>
@@ -8591,7 +8594,7 @@
       <c r="R8" s="281"/>
       <c r="S8" s="282"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="283"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -8624,7 +8627,7 @@
       <c r="R9" s="352"/>
       <c r="S9" s="285"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="276"/>
       <c r="B10" s="286" t="s">
         <v>25</v>
@@ -8657,7 +8660,7 @@
       <c r="R10" s="354"/>
       <c r="S10" s="282"/>
     </row>
-    <row r="11" spans="1:19" ht="30.6">
+    <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A11" s="276"/>
       <c r="B11" s="290" t="s">
         <v>26</v>
@@ -8690,7 +8693,7 @@
       <c r="R11" s="355"/>
       <c r="S11" s="282"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="276"/>
       <c r="B12" s="290" t="s">
         <v>2</v>
@@ -8723,7 +8726,7 @@
       <c r="R12" s="357"/>
       <c r="S12" s="282"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="276"/>
       <c r="B13" s="290" t="s">
         <v>28</v>
@@ -8756,7 +8759,7 @@
       <c r="R13" s="357"/>
       <c r="S13" s="282"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="276"/>
       <c r="B14" s="290" t="s">
         <v>4</v>
@@ -8789,7 +8792,7 @@
       <c r="R14" s="357"/>
       <c r="S14" s="282"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="276"/>
       <c r="B15" s="296"/>
       <c r="C15" s="297"/>
@@ -8810,7 +8813,7 @@
       <c r="R15" s="339"/>
       <c r="S15" s="282"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="299"/>
       <c r="B16" s="300"/>
       <c r="C16" s="300"/>
@@ -8831,14 +8834,9 @@
       <c r="R16" s="300"/>
       <c r="S16" s="302"/>
     </row>
-    <row r="17" ht="13.8" thickTop="1"/>
+    <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -8852,6 +8850,11 @@
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -8881,10 +8884,10 @@
   <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.109375" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
@@ -8900,7 +8903,7 @@
     <col min="12" max="12" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999">
+    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="390"/>
       <c r="B1" s="483" t="s">
         <v>109</v>
@@ -8919,7 +8922,7 @@
       <c r="K1" s="390"/>
       <c r="L1" s="390"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="390"/>
       <c r="B2" s="390" t="s">
         <v>136</v>
@@ -8935,23 +8938,23 @@
       <c r="K2" s="391"/>
       <c r="L2" s="391"/>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="504" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="507" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="504"/>
-      <c r="C3" s="504"/>
-      <c r="D3" s="504"/>
-      <c r="E3" s="504"/>
-      <c r="F3" s="504"/>
-      <c r="G3" s="504"/>
-      <c r="H3" s="504"/>
-      <c r="I3" s="504"/>
+      <c r="B3" s="507"/>
+      <c r="C3" s="507"/>
+      <c r="D3" s="507"/>
+      <c r="E3" s="507"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="507"/>
+      <c r="H3" s="507"/>
+      <c r="I3" s="507"/>
       <c r="K3" s="392"/>
       <c r="L3" s="392"/>
       <c r="M3" s="393"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1">
+    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="393"/>
       <c r="B4" s="394"/>
       <c r="C4" s="394"/>
@@ -8963,7 +8966,7 @@
       <c r="K4" s="392"/>
       <c r="M4" s="372"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1">
+    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="397" t="s">
         <v>111</v>
       </c>
@@ -8993,7 +8996,7 @@
       <c r="K5" s="401"/>
       <c r="L5" s="401"/>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="402">
         <v>1</v>
       </c>
@@ -9023,7 +9026,7 @@
       <c r="K6" s="393"/>
       <c r="L6" s="407"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="408">
         <f>A6+1</f>
         <v>2</v>
@@ -9054,7 +9057,7 @@
       <c r="K7" s="393"/>
       <c r="L7" s="407"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="408">
         <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
@@ -9085,7 +9088,7 @@
       <c r="K8" s="393"/>
       <c r="L8" s="407"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="408">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -9116,7 +9119,7 @@
       <c r="K9" s="393"/>
       <c r="L9" s="407"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="408">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -9147,7 +9150,7 @@
       <c r="K10" s="413"/>
       <c r="L10" s="407"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="408">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -9178,7 +9181,7 @@
       <c r="K11" s="393"/>
       <c r="L11" s="407"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="408">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -9210,7 +9213,7 @@
       <c r="L12" s="407"/>
       <c r="M12" s="415"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="408">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -9242,7 +9245,7 @@
       <c r="L13" s="407"/>
       <c r="M13" s="415"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="408">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -9275,7 +9278,7 @@
       <c r="K14" s="413"/>
       <c r="L14" s="407"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="408">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -9306,7 +9309,7 @@
       <c r="K15" s="413"/>
       <c r="L15" s="407"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="408">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -9337,7 +9340,7 @@
       <c r="K16" s="413"/>
       <c r="L16" s="407"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1">
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="417">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -9368,7 +9371,7 @@
       <c r="K17" s="413"/>
       <c r="L17" s="407"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="424"/>
       <c r="B18" s="425"/>
       <c r="C18" s="393"/>
@@ -9380,7 +9383,7 @@
       <c r="I18" s="393"/>
       <c r="J18" s="393"/>
     </row>
-    <row r="19" spans="1:12" ht="16.2" thickBot="1">
+    <row r="19" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="393"/>
       <c r="B19" s="427" t="s">
         <v>118</v>
@@ -9396,7 +9399,7 @@
       <c r="K19" s="428"/>
       <c r="L19" s="428"/>
     </row>
-    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1">
+    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="397" t="s">
         <v>119</v>
       </c>
@@ -9428,7 +9431,7 @@
       <c r="K20" s="401"/>
       <c r="L20" s="401"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="432">
         <f>D6*700000</f>
         <v>15400000</v>
@@ -9464,7 +9467,7 @@
       <c r="K21" s="413"/>
       <c r="L21" s="413"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="440"/>
       <c r="B22" s="441"/>
       <c r="C22" s="441"/>
@@ -9487,7 +9490,7 @@
       <c r="K22" s="393"/>
       <c r="L22" s="393"/>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1">
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="445"/>
       <c r="B23" s="446"/>
       <c r="C23" s="446"/>
@@ -9501,7 +9504,7 @@
       <c r="K23" s="413"/>
       <c r="L23" s="413"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="445"/>
       <c r="B24" s="385"/>
       <c r="C24" s="385"/>
@@ -9515,7 +9518,7 @@
       <c r="K24" s="439"/>
       <c r="L24" s="393"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="445"/>
       <c r="B25" s="446"/>
       <c r="C25" s="446"/>
@@ -9529,7 +9532,7 @@
       <c r="K25" s="453"/>
       <c r="L25" s="393"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="445"/>
       <c r="B26" s="446"/>
       <c r="C26" s="446"/>
@@ -9543,7 +9546,7 @@
       <c r="K26" s="439"/>
       <c r="L26" s="393"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="445"/>
       <c r="B27" s="446"/>
       <c r="C27" s="446"/>
@@ -9557,7 +9560,7 @@
       <c r="K27" s="439"/>
       <c r="L27" s="393"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="445"/>
       <c r="B28" s="446"/>
       <c r="C28" s="446"/>
@@ -9571,7 +9574,7 @@
       <c r="K28" s="439"/>
       <c r="L28" s="393"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="445"/>
       <c r="B29" s="446"/>
       <c r="C29" s="446"/>
@@ -9585,7 +9588,7 @@
       <c r="K29" s="439"/>
       <c r="L29" s="393"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="445"/>
       <c r="B30" s="446"/>
       <c r="C30" s="446"/>
@@ -9599,7 +9602,7 @@
       <c r="K30" s="439"/>
       <c r="L30" s="393"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1">
+    <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="456"/>
       <c r="B31" s="457"/>
       <c r="C31" s="457"/>
@@ -9613,7 +9616,7 @@
       <c r="K31" s="393"/>
       <c r="L31" s="393"/>
     </row>
-    <row r="32" spans="1:12" ht="13.8" thickBot="1">
+    <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="463" t="s">
         <v>128</v>
       </c>
@@ -9644,7 +9647,7 @@
       <c r="K32" s="471"/>
       <c r="L32" s="471"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="393"/>
       <c r="B35" s="393"/>
       <c r="C35" s="393"/>
@@ -9656,13 +9659,13 @@
       <c r="I35" s="393"/>
       <c r="J35" s="393"/>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A36" s="505" t="s">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="508" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="505"/>
-      <c r="C36" s="505"/>
-      <c r="D36" s="505"/>
+      <c r="B36" s="508"/>
+      <c r="C36" s="508"/>
+      <c r="D36" s="508"/>
       <c r="E36" s="393"/>
       <c r="F36" s="393"/>
       <c r="G36" s="393"/>
@@ -9670,11 +9673,11 @@
       <c r="I36" s="393"/>
       <c r="J36" s="393"/>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="506" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="509" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="506"/>
+      <c r="B37" s="509"/>
       <c r="C37" s="472" t="s">
         <v>131</v>
       </c>
@@ -9688,12 +9691,12 @@
       <c r="I37" s="393"/>
       <c r="J37" s="393"/>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="507">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="510">
         <f>A21-F32</f>
         <v>14368085</v>
       </c>
-      <c r="B38" s="508"/>
+      <c r="B38" s="511"/>
       <c r="C38" s="473">
         <f>1-G32</f>
         <v>0.93299253246753244</v>
@@ -9711,7 +9714,7 @@
       <c r="I38" s="475"/>
       <c r="J38" s="475"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="393"/>
       <c r="B39" s="393"/>
       <c r="C39" s="393"/>
@@ -9719,7 +9722,7 @@
       <c r="E39" s="393"/>
       <c r="F39" s="393"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="393"/>
       <c r="B40" s="393"/>
       <c r="C40" s="393"/>
@@ -9734,7 +9737,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6">
+    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="393"/>
       <c r="B41" s="476"/>
       <c r="C41" s="476"/>
@@ -9746,7 +9749,7 @@
       <c r="I41" s="393"/>
       <c r="J41" s="393"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="477"/>
       <c r="B42" s="477"/>
       <c r="C42" s="477"/>
@@ -9755,10 +9758,10 @@
       <c r="F42" s="477"/>
       <c r="G42" s="477"/>
       <c r="H42" s="477"/>
-      <c r="I42" s="509"/>
-      <c r="J42" s="510"/>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="I42" s="502"/>
+      <c r="J42" s="503"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="478"/>
       <c r="B43" s="479"/>
       <c r="C43" s="479"/>
@@ -9768,7 +9771,7 @@
       <c r="G43" s="423"/>
       <c r="H43" s="479"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="478"/>
       <c r="B44" s="479"/>
       <c r="C44" s="479"/>
@@ -9778,7 +9781,7 @@
       <c r="G44" s="423"/>
       <c r="H44" s="479"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="478"/>
       <c r="B45" s="479"/>
       <c r="C45" s="479"/>
@@ -9788,7 +9791,7 @@
       <c r="G45" s="423"/>
       <c r="H45" s="479"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="478"/>
       <c r="B46" s="479"/>
       <c r="C46" s="479"/>
@@ -9798,7 +9801,7 @@
       <c r="G46" s="423"/>
       <c r="H46" s="479"/>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="478"/>
       <c r="B47" s="479"/>
       <c r="C47" s="479"/>
@@ -9808,7 +9811,7 @@
       <c r="G47" s="423"/>
       <c r="H47" s="479"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="478"/>
       <c r="B48" s="479"/>
       <c r="C48" s="413"/>
@@ -9818,7 +9821,7 @@
       <c r="G48" s="413"/>
       <c r="H48" s="413"/>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="478"/>
       <c r="B49" s="479"/>
       <c r="C49" s="479"/>
@@ -9828,7 +9831,7 @@
       <c r="G49" s="423"/>
       <c r="H49" s="479"/>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="478"/>
       <c r="B50" s="479"/>
       <c r="C50" s="479"/>
@@ -9838,7 +9841,7 @@
       <c r="G50" s="423"/>
       <c r="H50" s="479"/>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="478"/>
       <c r="B51" s="479"/>
       <c r="C51" s="479"/>
@@ -9848,11 +9851,11 @@
       <c r="G51" s="423"/>
       <c r="H51" s="479"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6">
+    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="393"/>
-      <c r="B52" s="502"/>
-      <c r="C52" s="502"/>
-      <c r="D52" s="503"/>
+      <c r="B52" s="505"/>
+      <c r="C52" s="505"/>
+      <c r="D52" s="506"/>
       <c r="E52" s="475"/>
       <c r="F52" s="393"/>
       <c r="G52" s="393"/>
@@ -9860,7 +9863,7 @@
       <c r="I52" s="393"/>
       <c r="J52" s="393"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="477"/>
       <c r="B53" s="477"/>
       <c r="C53" s="477"/>
@@ -9869,10 +9872,10 @@
       <c r="F53" s="477"/>
       <c r="G53" s="477"/>
       <c r="H53" s="477"/>
-      <c r="I53" s="509"/>
-      <c r="J53" s="510"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="I53" s="502"/>
+      <c r="J53" s="503"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="478"/>
       <c r="B54" s="393"/>
       <c r="C54" s="393"/>
@@ -9881,10 +9884,10 @@
       <c r="F54" s="423"/>
       <c r="G54" s="423"/>
       <c r="H54" s="479"/>
-      <c r="I54" s="511"/>
-      <c r="J54" s="511"/>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="I54" s="504"/>
+      <c r="J54" s="504"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="478"/>
       <c r="B55" s="393"/>
       <c r="C55" s="393"/>
@@ -9893,10 +9896,10 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="511"/>
-      <c r="J55" s="511"/>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="I55" s="504"/>
+      <c r="J55" s="504"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="393"/>
       <c r="B56" s="393"/>
       <c r="C56" s="393"/>
@@ -9906,27 +9909,27 @@
       <c r="G56" s="393"/>
       <c r="H56" s="393"/>
     </row>
-    <row r="61" spans="1:10">
-      <c r="B61" s="509"/>
-      <c r="C61" s="510"/>
-    </row>
-    <row r="68" spans="2:3">
-      <c r="B68" s="509"/>
-      <c r="C68" s="510"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B61" s="502"/>
+      <c r="C61" s="503"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="502"/>
+      <c r="C68" s="503"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9941,22 +9944,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A31" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="9.109375" style="307"/>
     <col min="4" max="4" width="8" style="307" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="307"/>
+    <col min="5" max="5" width="9.109375" style="307"/>
+    <col min="6" max="6" width="9.77734375" style="307" customWidth="1"/>
     <col min="7" max="7" width="9.109375" style="307" customWidth="1"/>
     <col min="8" max="8" width="16.5546875" style="307" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" style="307" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.109375" style="307"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="367" customFormat="1" ht="17.399999999999999">
+    <row r="2" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="G2" s="316" t="s">
         <v>58</v>
       </c>
@@ -9965,7 +9969,7 @@
       <c r="J2" s="317"/>
       <c r="K2" s="317"/>
     </row>
-    <row r="3" spans="1:11" s="367" customFormat="1" ht="17.399999999999999">
+    <row r="3" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="G3" s="316" t="s">
         <v>101</v>
       </c>
@@ -9974,7 +9978,7 @@
       <c r="J3" s="317"/>
       <c r="K3" s="317"/>
     </row>
-    <row r="4" spans="1:11" s="367" customFormat="1" ht="17.399999999999999">
+    <row r="4" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="G4" s="316" t="s">
         <v>104</v>
       </c>
@@ -9983,8 +9987,8 @@
       <c r="J4" s="317"/>
       <c r="K4" s="317"/>
     </row>
-    <row r="5" spans="1:11" s="367" customFormat="1"/>
-    <row r="6" spans="1:11" s="367" customFormat="1" ht="17.399999999999999">
+    <row r="5" spans="1:11" s="367" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="G6" s="368"/>
       <c r="H6" s="316" t="s">
         <v>102</v>
@@ -9992,12 +9996,12 @@
       <c r="I6" s="317"/>
       <c r="J6" s="317"/>
     </row>
-    <row r="7" spans="1:11" s="367" customFormat="1" ht="17.399999999999999">
+    <row r="7" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="H7" s="317"/>
       <c r="I7" s="317"/>
       <c r="J7" s="317"/>
     </row>
-    <row r="8" spans="1:11" s="367" customFormat="1" ht="18">
+    <row r="8" spans="1:11" s="367" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="G8" s="310" t="s">
         <v>59</v>
       </c>
@@ -10007,50 +10011,50 @@
       </c>
       <c r="J8" s="317"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="513" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="537" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="513"/>
-      <c r="C11" s="513"/>
-      <c r="D11" s="513"/>
-      <c r="E11" s="513"/>
-      <c r="F11" s="513"/>
-      <c r="G11" s="513"/>
-      <c r="H11" s="513"/>
-      <c r="I11" s="513"/>
-      <c r="J11" s="513"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="512" t="s">
+      <c r="B11" s="537"/>
+      <c r="C11" s="537"/>
+      <c r="D11" s="537"/>
+      <c r="E11" s="537"/>
+      <c r="F11" s="537"/>
+      <c r="G11" s="537"/>
+      <c r="H11" s="537"/>
+      <c r="I11" s="537"/>
+      <c r="J11" s="537"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="536" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="512"/>
-      <c r="C12" s="512"/>
-      <c r="D12" s="512"/>
-      <c r="E12" s="512"/>
-      <c r="F12" s="512"/>
-      <c r="G12" s="512"/>
-      <c r="H12" s="512"/>
-      <c r="I12" s="512"/>
-      <c r="J12" s="512"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1">
-      <c r="A13" s="514" t="str">
+      <c r="B12" s="536"/>
+      <c r="C12" s="536"/>
+      <c r="D12" s="536"/>
+      <c r="E12" s="536"/>
+      <c r="F12" s="536"/>
+      <c r="G12" s="536"/>
+      <c r="H12" s="536"/>
+      <c r="I12" s="536"/>
+      <c r="J12" s="536"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="538" t="str">
         <f>Данные!A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="B13" s="513"/>
-      <c r="C13" s="513"/>
-      <c r="D13" s="513"/>
-      <c r="E13" s="513"/>
-      <c r="F13" s="513"/>
-      <c r="G13" s="513"/>
-      <c r="H13" s="513"/>
-      <c r="I13" s="513"/>
-      <c r="J13" s="513"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6">
+      <c r="B13" s="537"/>
+      <c r="C13" s="537"/>
+      <c r="D13" s="537"/>
+      <c r="E13" s="537"/>
+      <c r="F13" s="537"/>
+      <c r="G13" s="537"/>
+      <c r="H13" s="537"/>
+      <c r="I13" s="537"/>
+      <c r="J13" s="537"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="311" t="s">
         <v>60</v>
       </c>
@@ -10067,7 +10071,7 @@
       <c r="I15" s="311"/>
       <c r="J15" s="312"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6">
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="311" t="s">
         <v>95</v>
       </c>
@@ -10081,7 +10085,7 @@
       <c r="I16" s="311"/>
       <c r="J16" s="312"/>
     </row>
-    <row r="17" spans="1:10" s="369" customFormat="1" ht="15.6">
+    <row r="17" spans="1:10" s="369" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="319" t="s">
         <v>61</v>
       </c>
@@ -10102,7 +10106,7 @@
       </c>
       <c r="J17" s="312"/>
     </row>
-    <row r="18" spans="1:10" s="369" customFormat="1" ht="15.6">
+    <row r="18" spans="1:10" s="369" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="319" t="s">
         <v>61</v>
       </c>
@@ -10123,7 +10127,7 @@
       </c>
       <c r="J18" s="312"/>
     </row>
-    <row r="19" spans="1:10" s="369" customFormat="1" ht="15.6">
+    <row r="19" spans="1:10" s="369" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="320"/>
       <c r="B19" s="320"/>
       <c r="C19" s="320"/>
@@ -10141,7 +10145,7 @@
       </c>
       <c r="J19" s="312"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6">
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="311" t="s">
         <v>75</v>
       </c>
@@ -10158,7 +10162,7 @@
       </c>
       <c r="J20" s="312"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6">
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="311" t="s">
         <v>76</v>
       </c>
@@ -10172,485 +10176,485 @@
       <c r="I21" s="311"/>
       <c r="J21" s="312"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="518" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="534" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="518" t="s">
+      <c r="B22" s="534" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="518"/>
-      <c r="D22" s="518"/>
-      <c r="E22" s="518" t="s">
+      <c r="C22" s="534"/>
+      <c r="D22" s="534"/>
+      <c r="E22" s="534" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="518"/>
-      <c r="G22" s="536" t="s">
+      <c r="F22" s="534"/>
+      <c r="G22" s="535" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="518" t="s">
+      <c r="H22" s="534" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="518"/>
-      <c r="J22" s="518"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="518"/>
-      <c r="B23" s="518"/>
-      <c r="C23" s="518"/>
-      <c r="D23" s="518"/>
-      <c r="E23" s="518"/>
-      <c r="F23" s="518"/>
-      <c r="G23" s="536"/>
-      <c r="H23" s="518"/>
-      <c r="I23" s="518"/>
-      <c r="J23" s="518"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="519">
+      <c r="I22" s="534"/>
+      <c r="J22" s="534"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="534"/>
+      <c r="B23" s="534"/>
+      <c r="C23" s="534"/>
+      <c r="D23" s="534"/>
+      <c r="E23" s="534"/>
+      <c r="F23" s="534"/>
+      <c r="G23" s="535"/>
+      <c r="H23" s="534"/>
+      <c r="I23" s="534"/>
+      <c r="J23" s="534"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="512">
         <v>1</v>
       </c>
-      <c r="B24" s="533" t="s">
+      <c r="B24" s="539" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="534"/>
-      <c r="D24" s="535"/>
-      <c r="E24" s="521" t="str">
+      <c r="C24" s="540"/>
+      <c r="D24" s="541"/>
+      <c r="E24" s="517" t="str">
         <f>Данные!C14</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F24" s="522"/>
-      <c r="G24" s="525">
+      <c r="F24" s="518"/>
+      <c r="G24" s="521">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="H24" s="527"/>
-      <c r="I24" s="528"/>
-      <c r="J24" s="529"/>
-    </row>
-    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A25" s="520"/>
-      <c r="B25" s="515" t="str">
+      <c r="H24" s="523"/>
+      <c r="I24" s="524"/>
+      <c r="J24" s="525"/>
+    </row>
+    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="532"/>
+      <c r="B25" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C25" s="516"/>
-      <c r="D25" s="517"/>
-      <c r="E25" s="523"/>
-      <c r="F25" s="524"/>
-      <c r="G25" s="526"/>
-      <c r="H25" s="530"/>
-      <c r="I25" s="531"/>
-      <c r="J25" s="532"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="519">
+      <c r="C25" s="530"/>
+      <c r="D25" s="531"/>
+      <c r="E25" s="533"/>
+      <c r="F25" s="520"/>
+      <c r="G25" s="522"/>
+      <c r="H25" s="526"/>
+      <c r="I25" s="527"/>
+      <c r="J25" s="528"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="512">
         <v>1</v>
       </c>
-      <c r="B26" s="537" t="s">
+      <c r="B26" s="514" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="538"/>
-      <c r="D26" s="539"/>
-      <c r="E26" s="521" t="str">
+      <c r="C26" s="515"/>
+      <c r="D26" s="516"/>
+      <c r="E26" s="517" t="str">
         <f>Данные!C15</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F26" s="522"/>
-      <c r="G26" s="525">
+      <c r="F26" s="518"/>
+      <c r="G26" s="521">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="H26" s="527"/>
-      <c r="I26" s="528"/>
-      <c r="J26" s="529"/>
-    </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A27" s="520"/>
-      <c r="B27" s="515" t="str">
+      <c r="H26" s="523"/>
+      <c r="I26" s="524"/>
+      <c r="J26" s="525"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="532"/>
+      <c r="B27" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C27" s="516"/>
-      <c r="D27" s="517"/>
-      <c r="E27" s="523"/>
-      <c r="F27" s="524"/>
-      <c r="G27" s="526"/>
-      <c r="H27" s="530"/>
-      <c r="I27" s="531"/>
-      <c r="J27" s="532"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="519">
+      <c r="C27" s="530"/>
+      <c r="D27" s="531"/>
+      <c r="E27" s="533"/>
+      <c r="F27" s="520"/>
+      <c r="G27" s="522"/>
+      <c r="H27" s="526"/>
+      <c r="I27" s="527"/>
+      <c r="J27" s="528"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="512">
         <v>1</v>
       </c>
-      <c r="B28" s="537" t="s">
+      <c r="B28" s="514" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="538"/>
-      <c r="D28" s="539"/>
-      <c r="E28" s="521" t="str">
+      <c r="C28" s="515"/>
+      <c r="D28" s="516"/>
+      <c r="E28" s="517" t="str">
         <f>Данные!C16</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F28" s="522"/>
-      <c r="G28" s="525">
+      <c r="F28" s="518"/>
+      <c r="G28" s="521">
         <f>Данные!B16</f>
         <v>24</v>
       </c>
-      <c r="H28" s="527"/>
-      <c r="I28" s="528"/>
-      <c r="J28" s="529"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A29" s="520"/>
-      <c r="B29" s="515" t="str">
+      <c r="H28" s="523"/>
+      <c r="I28" s="524"/>
+      <c r="J28" s="525"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="532"/>
+      <c r="B29" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C29" s="516"/>
-      <c r="D29" s="517"/>
-      <c r="E29" s="523"/>
-      <c r="F29" s="524"/>
-      <c r="G29" s="526"/>
-      <c r="H29" s="530"/>
-      <c r="I29" s="531"/>
-      <c r="J29" s="532"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A30" s="519">
+      <c r="C29" s="530"/>
+      <c r="D29" s="531"/>
+      <c r="E29" s="533"/>
+      <c r="F29" s="520"/>
+      <c r="G29" s="522"/>
+      <c r="H29" s="526"/>
+      <c r="I29" s="527"/>
+      <c r="J29" s="528"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="512">
         <v>1</v>
       </c>
-      <c r="B30" s="537" t="s">
+      <c r="B30" s="514" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="538"/>
-      <c r="D30" s="539"/>
-      <c r="E30" s="521" t="str">
+      <c r="C30" s="515"/>
+      <c r="D30" s="516"/>
+      <c r="E30" s="517" t="str">
         <f>Данные!C17</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F30" s="522"/>
-      <c r="G30" s="525">
+      <c r="F30" s="518"/>
+      <c r="G30" s="521">
         <f>Данные!B17</f>
         <v>24</v>
       </c>
-      <c r="H30" s="527"/>
-      <c r="I30" s="528"/>
-      <c r="J30" s="529"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A31" s="540"/>
-      <c r="B31" s="515" t="str">
+      <c r="H30" s="523"/>
+      <c r="I30" s="524"/>
+      <c r="J30" s="525"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="513"/>
+      <c r="B31" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C31" s="516"/>
-      <c r="D31" s="517"/>
-      <c r="E31" s="541"/>
-      <c r="F31" s="524"/>
-      <c r="G31" s="526"/>
-      <c r="H31" s="530"/>
-      <c r="I31" s="531"/>
-      <c r="J31" s="532"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A32" s="519">
+      <c r="C31" s="530"/>
+      <c r="D31" s="531"/>
+      <c r="E31" s="519"/>
+      <c r="F31" s="520"/>
+      <c r="G31" s="522"/>
+      <c r="H31" s="526"/>
+      <c r="I31" s="527"/>
+      <c r="J31" s="528"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="512">
         <v>1</v>
       </c>
-      <c r="B32" s="537" t="s">
+      <c r="B32" s="514" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="538"/>
-      <c r="D32" s="539"/>
-      <c r="E32" s="521" t="str">
+      <c r="C32" s="515"/>
+      <c r="D32" s="516"/>
+      <c r="E32" s="517" t="str">
         <f>Данные!C18</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F32" s="522"/>
-      <c r="G32" s="525">
+      <c r="F32" s="518"/>
+      <c r="G32" s="521">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="H32" s="527"/>
-      <c r="I32" s="528"/>
-      <c r="J32" s="529"/>
-    </row>
-    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A33" s="540"/>
-      <c r="B33" s="515" t="str">
+      <c r="H32" s="523"/>
+      <c r="I32" s="524"/>
+      <c r="J32" s="525"/>
+    </row>
+    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="513"/>
+      <c r="B33" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C33" s="516"/>
-      <c r="D33" s="517"/>
-      <c r="E33" s="541"/>
-      <c r="F33" s="524"/>
-      <c r="G33" s="526"/>
-      <c r="H33" s="530"/>
-      <c r="I33" s="531"/>
-      <c r="J33" s="532"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A34" s="519">
+      <c r="C33" s="530"/>
+      <c r="D33" s="531"/>
+      <c r="E33" s="519"/>
+      <c r="F33" s="520"/>
+      <c r="G33" s="522"/>
+      <c r="H33" s="526"/>
+      <c r="I33" s="527"/>
+      <c r="J33" s="528"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="512">
         <v>1</v>
       </c>
-      <c r="B34" s="537" t="s">
+      <c r="B34" s="514" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="538"/>
-      <c r="D34" s="539"/>
-      <c r="E34" s="521" t="str">
+      <c r="C34" s="515"/>
+      <c r="D34" s="516"/>
+      <c r="E34" s="517" t="str">
         <f>Данные!C19</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F34" s="522"/>
-      <c r="G34" s="525">
+      <c r="F34" s="518"/>
+      <c r="G34" s="521">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="H34" s="527"/>
-      <c r="I34" s="528"/>
-      <c r="J34" s="529"/>
-    </row>
-    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A35" s="540"/>
-      <c r="B35" s="515" t="str">
+      <c r="H34" s="523"/>
+      <c r="I34" s="524"/>
+      <c r="J34" s="525"/>
+    </row>
+    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="513"/>
+      <c r="B35" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C35" s="516"/>
-      <c r="D35" s="517"/>
-      <c r="E35" s="541"/>
-      <c r="F35" s="524"/>
-      <c r="G35" s="526"/>
-      <c r="H35" s="530"/>
-      <c r="I35" s="531"/>
-      <c r="J35" s="532"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A36" s="519">
+      <c r="C35" s="530"/>
+      <c r="D35" s="531"/>
+      <c r="E35" s="519"/>
+      <c r="F35" s="520"/>
+      <c r="G35" s="522"/>
+      <c r="H35" s="526"/>
+      <c r="I35" s="527"/>
+      <c r="J35" s="528"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="512">
         <v>1</v>
       </c>
-      <c r="B36" s="537" t="s">
+      <c r="B36" s="514" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="538"/>
-      <c r="D36" s="539"/>
-      <c r="E36" s="521" t="str">
+      <c r="C36" s="515"/>
+      <c r="D36" s="516"/>
+      <c r="E36" s="517" t="str">
         <f>Данные!C20</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F36" s="522"/>
-      <c r="G36" s="525">
+      <c r="F36" s="518"/>
+      <c r="G36" s="521">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="527"/>
-      <c r="I36" s="528"/>
-      <c r="J36" s="529"/>
-    </row>
-    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A37" s="540"/>
-      <c r="B37" s="515" t="str">
+      <c r="H36" s="523"/>
+      <c r="I36" s="524"/>
+      <c r="J36" s="525"/>
+    </row>
+    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="513"/>
+      <c r="B37" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C37" s="516"/>
-      <c r="D37" s="517"/>
-      <c r="E37" s="541"/>
-      <c r="F37" s="524"/>
-      <c r="G37" s="526"/>
-      <c r="H37" s="530"/>
-      <c r="I37" s="531"/>
-      <c r="J37" s="532"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A38" s="519">
+      <c r="C37" s="530"/>
+      <c r="D37" s="531"/>
+      <c r="E37" s="519"/>
+      <c r="F37" s="520"/>
+      <c r="G37" s="522"/>
+      <c r="H37" s="526"/>
+      <c r="I37" s="527"/>
+      <c r="J37" s="528"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="512">
         <v>1</v>
       </c>
-      <c r="B38" s="537" t="s">
+      <c r="B38" s="514" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="538"/>
-      <c r="D38" s="539"/>
-      <c r="E38" s="521" t="str">
+      <c r="C38" s="515"/>
+      <c r="D38" s="516"/>
+      <c r="E38" s="517" t="str">
         <f>Данные!C21</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F38" s="522"/>
-      <c r="G38" s="525">
+      <c r="F38" s="518"/>
+      <c r="G38" s="521">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="527"/>
-      <c r="I38" s="528"/>
-      <c r="J38" s="529"/>
-    </row>
-    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A39" s="540"/>
-      <c r="B39" s="515" t="str">
+      <c r="H38" s="523"/>
+      <c r="I38" s="524"/>
+      <c r="J38" s="525"/>
+    </row>
+    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="513"/>
+      <c r="B39" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C39" s="516"/>
-      <c r="D39" s="517"/>
-      <c r="E39" s="541"/>
-      <c r="F39" s="524"/>
-      <c r="G39" s="526"/>
-      <c r="H39" s="530"/>
-      <c r="I39" s="531"/>
-      <c r="J39" s="532"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A40" s="519">
+      <c r="C39" s="530"/>
+      <c r="D39" s="531"/>
+      <c r="E39" s="519"/>
+      <c r="F39" s="520"/>
+      <c r="G39" s="522"/>
+      <c r="H39" s="526"/>
+      <c r="I39" s="527"/>
+      <c r="J39" s="528"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="512">
         <v>1</v>
       </c>
-      <c r="B40" s="537" t="s">
+      <c r="B40" s="514" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="538"/>
-      <c r="D40" s="539"/>
-      <c r="E40" s="521" t="str">
+      <c r="C40" s="515"/>
+      <c r="D40" s="516"/>
+      <c r="E40" s="517" t="str">
         <f>Данные!C23</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F40" s="522"/>
-      <c r="G40" s="525">
+      <c r="F40" s="518"/>
+      <c r="G40" s="521">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H40" s="527"/>
-      <c r="I40" s="528"/>
-      <c r="J40" s="529"/>
-    </row>
-    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A41" s="540"/>
-      <c r="B41" s="515" t="str">
+      <c r="H40" s="523"/>
+      <c r="I40" s="524"/>
+      <c r="J40" s="525"/>
+    </row>
+    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="513"/>
+      <c r="B41" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C41" s="516"/>
-      <c r="D41" s="517"/>
-      <c r="E41" s="541"/>
-      <c r="F41" s="524"/>
-      <c r="G41" s="526"/>
-      <c r="H41" s="530"/>
-      <c r="I41" s="531"/>
-      <c r="J41" s="532"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A42" s="519">
+      <c r="C41" s="530"/>
+      <c r="D41" s="531"/>
+      <c r="E41" s="519"/>
+      <c r="F41" s="520"/>
+      <c r="G41" s="522"/>
+      <c r="H41" s="526"/>
+      <c r="I41" s="527"/>
+      <c r="J41" s="528"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="512">
         <v>1</v>
       </c>
-      <c r="B42" s="537" t="s">
+      <c r="B42" s="514" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="538"/>
-      <c r="D42" s="539"/>
-      <c r="E42" s="521" t="str">
+      <c r="C42" s="515"/>
+      <c r="D42" s="516"/>
+      <c r="E42" s="517" t="str">
         <f>Данные!C26</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F42" s="522"/>
-      <c r="G42" s="525">
+      <c r="F42" s="518"/>
+      <c r="G42" s="521">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H42" s="527"/>
-      <c r="I42" s="528"/>
-      <c r="J42" s="529"/>
-    </row>
-    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A43" s="540"/>
-      <c r="B43" s="515" t="str">
+      <c r="H42" s="523"/>
+      <c r="I42" s="524"/>
+      <c r="J42" s="525"/>
+    </row>
+    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="513"/>
+      <c r="B43" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C43" s="516"/>
-      <c r="D43" s="517"/>
-      <c r="E43" s="541"/>
-      <c r="F43" s="524"/>
-      <c r="G43" s="526"/>
-      <c r="H43" s="530"/>
-      <c r="I43" s="531"/>
-      <c r="J43" s="532"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A44" s="519">
+      <c r="C43" s="530"/>
+      <c r="D43" s="531"/>
+      <c r="E43" s="519"/>
+      <c r="F43" s="520"/>
+      <c r="G43" s="522"/>
+      <c r="H43" s="526"/>
+      <c r="I43" s="527"/>
+      <c r="J43" s="528"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="512">
         <v>1</v>
       </c>
-      <c r="B44" s="537" t="s">
+      <c r="B44" s="514" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="538"/>
-      <c r="D44" s="539"/>
-      <c r="E44" s="521">
+      <c r="C44" s="515"/>
+      <c r="D44" s="516"/>
+      <c r="E44" s="517">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="522"/>
-      <c r="G44" s="525">
+      <c r="F44" s="518"/>
+      <c r="G44" s="521">
         <f>Данные!B27</f>
         <v>18</v>
       </c>
-      <c r="H44" s="527"/>
-      <c r="I44" s="528"/>
-      <c r="J44" s="529"/>
-    </row>
-    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A45" s="540"/>
-      <c r="B45" s="515" t="str">
+      <c r="H44" s="523"/>
+      <c r="I44" s="524"/>
+      <c r="J44" s="525"/>
+    </row>
+    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="513"/>
+      <c r="B45" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C45" s="516"/>
-      <c r="D45" s="517"/>
-      <c r="E45" s="541"/>
-      <c r="F45" s="524"/>
-      <c r="G45" s="526"/>
-      <c r="H45" s="530"/>
-      <c r="I45" s="531"/>
-      <c r="J45" s="532"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.4" customHeight="1">
-      <c r="A46" s="519">
+      <c r="C45" s="530"/>
+      <c r="D45" s="531"/>
+      <c r="E45" s="519"/>
+      <c r="F45" s="520"/>
+      <c r="G45" s="522"/>
+      <c r="H45" s="526"/>
+      <c r="I45" s="527"/>
+      <c r="J45" s="528"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="512">
         <v>1</v>
       </c>
-      <c r="B46" s="537" t="s">
+      <c r="B46" s="514" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="538"/>
-      <c r="D46" s="539"/>
-      <c r="E46" s="521" t="str">
+      <c r="C46" s="515"/>
+      <c r="D46" s="516"/>
+      <c r="E46" s="517" t="str">
         <f>Данные!C24</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F46" s="522"/>
-      <c r="G46" s="525">
+      <c r="F46" s="518"/>
+      <c r="G46" s="521">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="527"/>
-      <c r="I46" s="528"/>
-      <c r="J46" s="529"/>
-    </row>
-    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1">
-      <c r="A47" s="540"/>
-      <c r="B47" s="515" t="str">
+      <c r="H46" s="523"/>
+      <c r="I46" s="524"/>
+      <c r="J46" s="525"/>
+    </row>
+    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="513"/>
+      <c r="B47" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C47" s="516"/>
-      <c r="D47" s="517"/>
-      <c r="E47" s="541"/>
-      <c r="F47" s="524"/>
-      <c r="G47" s="526"/>
-      <c r="H47" s="530"/>
-      <c r="I47" s="531"/>
-      <c r="J47" s="532"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.6">
+      <c r="C47" s="530"/>
+      <c r="D47" s="531"/>
+      <c r="E47" s="519"/>
+      <c r="F47" s="520"/>
+      <c r="G47" s="522"/>
+      <c r="H47" s="526"/>
+      <c r="I47" s="527"/>
+      <c r="J47" s="528"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="311"/>
       <c r="B48" s="311"/>
       <c r="C48" s="311"/>
@@ -10662,7 +10666,7 @@
       <c r="I48" s="311"/>
       <c r="J48" s="312"/>
     </row>
-    <row r="49" spans="1:10" ht="15.6">
+    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="311" t="s">
         <v>71</v>
       </c>
@@ -10676,7 +10680,7 @@
       <c r="I49" s="311"/>
       <c r="J49" s="312"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6">
+    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="311"/>
       <c r="B50" s="311"/>
       <c r="C50" s="311"/>
@@ -10688,7 +10692,7 @@
       <c r="I50" s="311"/>
       <c r="J50" s="312"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6">
+    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="311"/>
       <c r="B51" s="314" t="s">
         <v>72</v>
@@ -10704,7 +10708,7 @@
       <c r="I51" s="311"/>
       <c r="J51" s="312"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6">
+    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="311"/>
       <c r="B52" s="311"/>
       <c r="C52" s="311"/>
@@ -10716,7 +10720,7 @@
       <c r="I52" s="311"/>
       <c r="J52" s="312"/>
     </row>
-    <row r="53" spans="1:10" ht="15.6">
+    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="311"/>
       <c r="B53" s="311"/>
       <c r="C53" s="311"/>
@@ -10730,7 +10734,7 @@
       </c>
       <c r="J53" s="311"/>
     </row>
-    <row r="54" spans="1:10" ht="15.6">
+    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="311"/>
       <c r="B54" s="311"/>
       <c r="C54" s="311"/>
@@ -10741,7 +10745,7 @@
       <c r="I54" s="311"/>
       <c r="J54" s="311"/>
     </row>
-    <row r="55" spans="1:10" ht="15.6">
+    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="311"/>
       <c r="B55" s="311"/>
       <c r="C55" s="311"/>
@@ -10754,14 +10758,14 @@
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17.399999999999999">
+    <row r="56" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A56" s="308"/>
       <c r="B56" s="308"/>
       <c r="C56" s="308"/>
       <c r="D56" s="308"/>
       <c r="E56" s="308"/>
     </row>
-    <row r="57" spans="1:10" ht="17.399999999999999">
+    <row r="57" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="308"/>
       <c r="B57" s="308"/>
       <c r="C57" s="308"/>
@@ -10777,70 +10781,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -10857,6 +10797,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10868,14 +10872,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+    <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="7" ySplit="8" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
       <selection pane="bottomRight" activeCell="C10" sqref="C10:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
     <col min="2" max="2" width="5" style="64" customWidth="1"/>
@@ -10888,7 +10892,7 @@
     <col min="20" max="16384" width="9.109375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -10909,49 +10913,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8">
+    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="542"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="551" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="558" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="559"/>
+      <c r="K2" s="562">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="563"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="554"/>
+      <c r="Q2" s="554"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1">
+    <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="545"/>
+      <c r="C3" s="546"/>
+      <c r="D3" s="547"/>
+      <c r="E3" s="555" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="556"/>
+      <c r="G3" s="556"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="560"/>
+      <c r="J3" s="561"/>
+      <c r="K3" s="564"/>
+      <c r="L3" s="565"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10960,11 +10964,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1">
+    <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="548"/>
+      <c r="C4" s="549"/>
+      <c r="D4" s="550"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10981,24 +10985,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="546"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="570"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="547"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="495"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="571"/>
+      <c r="J5" s="572"/>
+      <c r="K5" s="497"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11007,24 +11011,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="549"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="547"/>
-      <c r="J6" s="548"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="571"/>
+      <c r="J6" s="572"/>
+      <c r="K6" s="497"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11033,29 +11037,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="553"/>
-      <c r="D7" s="497">
+      <c r="C7" s="577"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="552" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="556"/>
-      <c r="K7" s="485">
+      <c r="J7" s="580"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11064,7 +11068,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11085,7 +11089,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -11118,7 +11122,7 @@
       <c r="R9" s="325"/>
       <c r="S9" s="197"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -11151,7 +11155,7 @@
       <c r="R10" s="327"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>26</v>
@@ -11184,7 +11188,7 @@
       <c r="R11" s="329"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>2</v>
@@ -11217,7 +11221,7 @@
       <c r="R12" s="329"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>3</v>
@@ -11250,7 +11254,7 @@
       <c r="R13" s="329"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -11283,7 +11287,7 @@
       <c r="R14" s="329"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>9</v>
@@ -11316,7 +11320,7 @@
       <c r="R15" s="329"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>5</v>
@@ -11349,7 +11353,7 @@
       <c r="R16" s="329"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1">
+    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="78"/>
       <c r="B17" s="97" t="s">
         <v>30</v>
@@ -11382,7 +11386,7 @@
       <c r="R17" s="329"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6">
+    <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A18" s="78"/>
       <c r="B18" s="104" t="s">
         <v>32</v>
@@ -11415,7 +11419,7 @@
       <c r="R18" s="331"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
       <c r="B19" s="104" t="s">
         <v>33</v>
@@ -11448,7 +11452,7 @@
       <c r="R19" s="331"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="23.25" customHeight="1">
+    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="104" t="s">
         <v>35</v>
@@ -11481,7 +11485,7 @@
       <c r="R20" s="331"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="32.4" customHeight="1">
+    <row r="21" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78"/>
       <c r="B21" s="104" t="s">
         <v>40</v>
@@ -11514,7 +11518,7 @@
       <c r="R21" s="331"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="28.2" customHeight="1">
+    <row r="22" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="78"/>
       <c r="B22" s="104" t="s">
         <v>41</v>
@@ -11547,14 +11551,14 @@
       <c r="R22" s="331"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="14.4">
+    <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="557" t="s">
+      <c r="B23" s="581" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="558"/>
-      <c r="D23" s="558"/>
-      <c r="E23" s="559"/>
+      <c r="C23" s="582"/>
+      <c r="D23" s="582"/>
+      <c r="E23" s="583"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
@@ -11574,14 +11578,14 @@
       <c r="R23" s="331"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1">
+    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="542" t="s">
+      <c r="B24" s="566" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="543"/>
-      <c r="D24" s="543"/>
-      <c r="E24" s="544"/>
+      <c r="C24" s="567"/>
+      <c r="D24" s="567"/>
+      <c r="E24" s="568"/>
       <c r="F24" s="116" t="s">
         <v>16</v>
       </c>
@@ -11601,7 +11605,7 @@
       <c r="R24" s="333"/>
       <c r="S24" s="86"/>
     </row>
-    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="110"/>
       <c r="B25" s="111"/>
       <c r="C25" s="111"/>
@@ -11622,15 +11626,9 @@
       <c r="R25" s="113"/>
       <c r="S25" s="114"/>
     </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1"/>
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11645,6 +11643,12 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11674,7 +11678,7 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
     <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
@@ -11687,7 +11691,7 @@
     <col min="20" max="16384" width="9.109375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11708,52 +11712,52 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="591">
+      <c r="B2" s="584">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="554"/>
+      <c r="Q2" s="554"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11762,11 +11766,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -11783,24 +11787,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11809,24 +11813,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11835,29 +11839,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -11866,7 +11870,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11887,7 +11891,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -11920,7 +11924,7 @@
       <c r="R9" s="325"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6">
+    <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -11953,7 +11957,7 @@
       <c r="R10" s="327"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>28</v>
@@ -11986,7 +11990,7 @@
       <c r="R11" s="329"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>4</v>
@@ -12019,7 +12023,7 @@
       <c r="R12" s="329"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>5</v>
@@ -12052,15 +12056,15 @@
       <c r="R13" s="329"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="557" t="s">
+      <c r="B14" s="581" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="558"/>
-      <c r="D14" s="558"/>
-      <c r="E14" s="558"/>
-      <c r="F14" s="590"/>
+      <c r="C14" s="582"/>
+      <c r="D14" s="582"/>
+      <c r="E14" s="582"/>
+      <c r="F14" s="613"/>
       <c r="G14" s="56" t="s">
         <v>77</v>
       </c>
@@ -12077,14 +12081,14 @@
       <c r="R14" s="331"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="542" t="s">
+      <c r="B15" s="566" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="543"/>
-      <c r="D15" s="543"/>
-      <c r="E15" s="544"/>
+      <c r="C15" s="567"/>
+      <c r="D15" s="567"/>
+      <c r="E15" s="568"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -12104,7 +12108,7 @@
       <c r="R15" s="333"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="110"/>
       <c r="B16" s="111"/>
       <c r="C16" s="111"/>
@@ -12125,22 +12129,16 @@
       <c r="R16" s="113"/>
       <c r="S16" s="114"/>
     </row>
-    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1">
+    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B17" s="123"/>
       <c r="P17" s="124"/>
     </row>
-    <row r="18" spans="2:16" ht="12.75" customHeight="1">
+    <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="123"/>
       <c r="P18" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12155,6 +12153,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12186,13 +12190,13 @@
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15:C20"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="0.88671875" style="64" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
@@ -12205,7 +12209,7 @@
     <col min="20" max="16384" width="9.109375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12226,49 +12230,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:24" ht="21.75" customHeight="1">
+    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="542"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="551" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="558" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="559"/>
+      <c r="K2" s="562">
         <f>Данные!B16</f>
         <v>24</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="563"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="554"/>
+      <c r="Q2" s="554"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="545"/>
+      <c r="C3" s="546"/>
+      <c r="D3" s="547"/>
+      <c r="E3" s="555" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="556"/>
+      <c r="G3" s="556"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="560"/>
+      <c r="J3" s="561"/>
+      <c r="K3" s="564"/>
+      <c r="L3" s="565"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12277,11 +12281,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1">
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="548"/>
+      <c r="C4" s="549"/>
+      <c r="D4" s="550"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12298,24 +12302,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="546"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="570"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="547"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="495"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="571"/>
+      <c r="J5" s="572"/>
+      <c r="K5" s="497"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12324,24 +12328,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="549"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="547"/>
-      <c r="J6" s="548"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="571"/>
+      <c r="J6" s="572"/>
+      <c r="K6" s="497"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12350,29 +12354,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="553"/>
-      <c r="D7" s="497">
+      <c r="C7" s="577"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="552" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="556"/>
-      <c r="K7" s="485">
+      <c r="J7" s="580"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12381,7 +12385,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12402,7 +12406,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:24" ht="31.2" thickBot="1">
+    <row r="9" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12438,7 +12442,7 @@
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
     </row>
-    <row r="10" spans="1:24" ht="24.75" customHeight="1">
+    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12474,7 +12478,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="91"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>3</v>
@@ -12510,7 +12514,7 @@
       <c r="W11" s="101"/>
       <c r="X11" s="91"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1">
+    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>27</v>
@@ -12546,7 +12550,7 @@
       <c r="W12" s="102"/>
       <c r="X12" s="91"/>
     </row>
-    <row r="13" spans="1:24" ht="24.75" customHeight="1">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>4</v>
@@ -12582,7 +12586,7 @@
       <c r="W13" s="102"/>
       <c r="X13" s="91"/>
     </row>
-    <row r="14" spans="1:24" ht="24.75" customHeight="1">
+    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>5</v>
@@ -12618,7 +12622,7 @@
       <c r="W14" s="102"/>
       <c r="X14" s="91"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>30</v>
@@ -12654,7 +12658,7 @@
       <c r="W15" s="101"/>
       <c r="X15" s="91"/>
     </row>
-    <row r="16" spans="1:24" ht="24.75" customHeight="1">
+    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>31</v>
@@ -12690,7 +12694,7 @@
       <c r="W16" s="102"/>
       <c r="X16" s="91"/>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1">
+    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="78"/>
       <c r="B17" s="104" t="s">
         <v>32</v>
@@ -12726,12 +12730,14 @@
       <c r="W17" s="101"/>
       <c r="X17" s="91"/>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1">
+    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78"/>
       <c r="B18" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="105"/>
+      <c r="C18" s="105" t="s">
+        <v>143</v>
+      </c>
       <c r="D18" s="105">
         <v>0.05</v>
       </c>
@@ -12760,7 +12766,7 @@
       <c r="W18" s="101"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="30.6">
+    <row r="19" spans="1:24" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
       <c r="B19" s="104" t="s">
         <v>34</v>
@@ -12796,7 +12802,7 @@
       <c r="W19" s="101"/>
       <c r="X19" s="91"/>
     </row>
-    <row r="20" spans="1:24" ht="31.2" thickBot="1">
+    <row r="20" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
       <c r="B20" s="104" t="s">
         <v>35</v>
@@ -12829,7 +12835,7 @@
       <c r="R20" s="333"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:24" ht="13.8" thickBot="1">
+    <row r="21" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="110"/>
       <c r="B21" s="111"/>
       <c r="C21" s="111"/>
@@ -12850,9 +12856,11 @@
       <c r="R21" s="113"/>
       <c r="S21" s="114"/>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1"/>
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -12869,8 +12877,6 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -12899,10 +12905,10 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10:C15"/>
+      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
@@ -12915,7 +12921,7 @@
     <col min="20" max="16384" width="9.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -12936,26 +12942,26 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="542"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="551" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="558" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="559"/>
+      <c r="K2" s="562">
         <f>Данные!B17</f>
         <v>24</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="563"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -12964,21 +12970,21 @@
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="545"/>
+      <c r="C3" s="546"/>
+      <c r="D3" s="547"/>
+      <c r="E3" s="555" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="556"/>
+      <c r="G3" s="556"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="560"/>
+      <c r="J3" s="561"/>
+      <c r="K3" s="564"/>
+      <c r="L3" s="565"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -12987,11 +12993,11 @@
       <c r="R3" s="15"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="548"/>
+      <c r="C4" s="549"/>
+      <c r="D4" s="550"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13008,24 +13014,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="546"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="570"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="547"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="495"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="571"/>
+      <c r="J5" s="572"/>
+      <c r="K5" s="497"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13034,24 +13040,24 @@
       <c r="R5" s="15"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="549"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="547"/>
-      <c r="J6" s="548"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="571"/>
+      <c r="J6" s="572"/>
+      <c r="K6" s="497"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13060,29 +13066,29 @@
       <c r="R6" s="15"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="553"/>
-      <c r="D7" s="497">
+      <c r="C7" s="577"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="552" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="556"/>
-      <c r="K7" s="485">
+      <c r="J7" s="580"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13091,7 +13097,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -13112,7 +13118,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -13145,7 +13151,7 @@
       <c r="R9" s="335"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="31.2" thickBot="1">
+    <row r="10" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24"/>
       <c r="B10" s="50" t="s">
         <v>6</v>
@@ -13178,7 +13184,7 @@
       <c r="R10" s="337"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="50" t="s">
         <v>2</v>
@@ -13211,7 +13217,7 @@
       <c r="R11" s="337"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="50" t="s">
         <v>3</v>
@@ -13244,7 +13250,7 @@
       <c r="R12" s="337"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="50" t="s">
         <v>7</v>
@@ -13277,7 +13283,7 @@
       <c r="R13" s="337"/>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="50" t="s">
         <v>8</v>
@@ -13310,7 +13316,7 @@
       <c r="R14" s="337"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
       <c r="B15" s="57" t="s">
         <v>4</v>
@@ -13343,7 +13349,7 @@
       <c r="R15" s="339"/>
       <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -13364,20 +13370,9 @@
       <c r="R16" s="46"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1" thickTop="1"/>
+    <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13385,6 +13380,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13414,13 +13420,13 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="8" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
@@ -13433,7 +13439,7 @@
     <col min="20" max="16384" width="9.109375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -13454,26 +13460,26 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="615"/>
       <c r="N2" s="616"/>
       <c r="O2" s="616"/>
@@ -13482,21 +13488,21 @@
       <c r="R2" s="617"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="618"/>
       <c r="N3" s="619"/>
       <c r="O3" s="619"/>
@@ -13505,11 +13511,11 @@
       <c r="R3" s="620"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -13526,24 +13532,24 @@
       <c r="R4" s="620"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="618"/>
       <c r="N5" s="619"/>
       <c r="O5" s="619"/>
@@ -13552,24 +13558,24 @@
       <c r="R5" s="620"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="618"/>
       <c r="N6" s="619"/>
       <c r="O6" s="619"/>
@@ -13578,29 +13584,29 @@
       <c r="R6" s="620"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="618"/>
       <c r="N7" s="619"/>
       <c r="O7" s="619"/>
@@ -13609,7 +13615,7 @@
       <c r="R7" s="620"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -13630,7 +13636,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -13663,7 +13669,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="24.15" customHeight="1">
+    <row r="10" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -13696,7 +13702,7 @@
       <c r="R10" s="96"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.15" customHeight="1">
+    <row r="11" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78"/>
       <c r="B11" s="200" t="s">
         <v>26</v>
@@ -13729,7 +13735,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.15" customHeight="1">
+    <row r="12" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78"/>
       <c r="B12" s="200" t="s">
         <v>2</v>
@@ -13762,7 +13768,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.15" customHeight="1">
+    <row r="13" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78"/>
       <c r="B13" s="200" t="s">
         <v>3</v>
@@ -13795,7 +13801,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.15" customHeight="1">
+    <row r="14" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -13828,7 +13834,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.15" customHeight="1">
+    <row r="15" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>28</v>
@@ -13861,7 +13867,7 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.15" customHeight="1">
+    <row r="16" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>9</v>
@@ -13894,7 +13900,7 @@
       <c r="R16" s="100"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="24.15" customHeight="1">
+    <row r="17" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="78"/>
       <c r="B17" s="97" t="s">
         <v>29</v>
@@ -13927,7 +13933,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.15" customHeight="1">
+    <row r="18" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78"/>
       <c r="B18" s="97" t="s">
         <v>30</v>
@@ -13960,7 +13966,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.15" customHeight="1">
+    <row r="19" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
       <c r="B19" s="97" t="s">
         <v>35</v>
@@ -13977,7 +13983,7 @@
       <c r="F19" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="56" t="s">
         <v>22</v>
       </c>
       <c r="H19" s="99"/>
@@ -13993,14 +13999,14 @@
       <c r="R19" s="100"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="31.2" thickBot="1">
+    <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
-      <c r="B20" s="542" t="s">
+      <c r="B20" s="566" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="543"/>
-      <c r="D20" s="543"/>
-      <c r="E20" s="544"/>
+      <c r="C20" s="567"/>
+      <c r="D20" s="567"/>
+      <c r="E20" s="568"/>
       <c r="F20" s="116" t="s">
         <v>16</v>
       </c>
@@ -14020,7 +14026,7 @@
       <c r="R20" s="109"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1">
+    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="110"/>
       <c r="B21" s="111"/>
       <c r="C21" s="111"/>
@@ -14041,11 +14047,18 @@
       <c r="R21" s="113"/>
       <c r="S21" s="114"/>
     </row>
-    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
+    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B22" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14058,13 +14071,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14091,10 +14097,10 @@
       <pane xSplit="7" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10:C15"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
@@ -14106,7 +14112,7 @@
     <col min="20" max="16384" width="9.109375" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -14127,26 +14133,26 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -14155,21 +14161,21 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14178,11 +14184,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -14199,24 +14205,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14225,24 +14231,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14251,29 +14257,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14282,7 +14288,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14303,7 +14309,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1">
+    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -14336,7 +14342,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="40.799999999999997">
+    <row r="10" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.25">
       <c r="A10" s="78"/>
       <c r="B10" s="129" t="s">
         <v>26</v>
@@ -14369,7 +14375,7 @@
       <c r="R10" s="100"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="78"/>
       <c r="B11" s="129" t="s">
         <v>2</v>
@@ -14402,7 +14408,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="78"/>
       <c r="B12" s="129" t="s">
         <v>3</v>
@@ -14435,7 +14441,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="78"/>
       <c r="B13" s="129" t="s">
         <v>27</v>
@@ -14468,7 +14474,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
       <c r="B14" s="129" t="s">
         <v>9</v>
@@ -14501,7 +14507,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
       <c r="B15" s="129" t="s">
         <v>5</v>
@@ -14534,14 +14540,14 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1">
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="542" t="s">
+      <c r="B16" s="566" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="543"/>
-      <c r="D16" s="543"/>
-      <c r="E16" s="544"/>
+      <c r="C16" s="567"/>
+      <c r="D16" s="567"/>
+      <c r="E16" s="568"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -14561,7 +14567,7 @@
       <c r="R16" s="122"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="110"/>
       <c r="B17" s="128"/>
       <c r="C17" s="127"/>
@@ -14582,11 +14588,20 @@
       <c r="R17" s="113"/>
       <c r="S17" s="114"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -14597,15 +14612,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/9. XXI-КПМ-30-1-500-9 (Штоф)/Штофф от 18.11.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/9. XXI-КПМ-30-1-500-9 (Штоф)/Штофф от 18.11.2019.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -3550,12 +3550,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3600,189 +3594,123 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3834,73 +3762,76 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3924,6 +3855,75 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3950,22 +3950,25 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="75" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3976,9 +3979,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6215,25 +6215,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="489" t="s">
+      <c r="A1" s="487" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="493"/>
-      <c r="C1" s="493"/>
-      <c r="D1" s="493"/>
-      <c r="E1" s="493"/>
+      <c r="B1" s="491"/>
+      <c r="C1" s="491"/>
+      <c r="D1" s="491"/>
+      <c r="E1" s="491"/>
       <c r="G1" s="371" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="490" t="s">
+      <c r="A2" s="488" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="491"/>
-      <c r="C2" s="491"/>
-      <c r="D2" s="491"/>
-      <c r="E2" s="492"/>
+      <c r="B2" s="489"/>
+      <c r="C2" s="489"/>
+      <c r="D2" s="489"/>
+      <c r="E2" s="490"/>
       <c r="G2" s="370" t="s">
         <v>79</v>
       </c>
@@ -6244,45 +6244,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="494" t="s">
+      <c r="A4" s="492" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="495"/>
-      <c r="C4" s="495"/>
-      <c r="D4" s="495"/>
-      <c r="E4" s="495"/>
+      <c r="B4" s="493"/>
+      <c r="C4" s="493"/>
+      <c r="D4" s="493"/>
+      <c r="E4" s="493"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="496" t="s">
+      <c r="A5" s="494" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="497"/>
-      <c r="C5" s="497"/>
-      <c r="D5" s="497"/>
-      <c r="E5" s="498"/>
+      <c r="B5" s="495"/>
+      <c r="C5" s="495"/>
+      <c r="D5" s="495"/>
+      <c r="E5" s="496"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="489" t="s">
+      <c r="A7" s="487" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="493"/>
-      <c r="C7" s="493"/>
-      <c r="D7" s="493"/>
-      <c r="E7" s="493"/>
+      <c r="B7" s="491"/>
+      <c r="C7" s="491"/>
+      <c r="D7" s="491"/>
+      <c r="E7" s="491"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="499"/>
-      <c r="B8" s="500"/>
-      <c r="C8" s="500"/>
-      <c r="D8" s="500"/>
-      <c r="E8" s="501"/>
+      <c r="A8" s="497"/>
+      <c r="B8" s="498"/>
+      <c r="C8" s="498"/>
+      <c r="D8" s="498"/>
+      <c r="E8" s="499"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="489" t="s">
+      <c r="A10" s="487" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="489"/>
+      <c r="B10" s="487"/>
       <c r="C10" s="372"/>
       <c r="D10" s="380" t="s">
         <v>93</v>
@@ -6293,33 +6293,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="487"/>
-      <c r="B11" s="488"/>
+      <c r="A11" s="485"/>
+      <c r="B11" s="486"/>
       <c r="D11" s="379">
         <v>43787</v>
       </c>
-      <c r="F11" s="484" t="s">
+      <c r="F11" s="500" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="484"/>
-      <c r="H11" s="484"/>
-      <c r="I11" s="484"/>
-      <c r="J11" s="485" t="s">
+      <c r="G11" s="500"/>
+      <c r="H11" s="500"/>
+      <c r="I11" s="500"/>
+      <c r="J11" s="501" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="485"/>
+      <c r="K11" s="501"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="484" t="s">
+      <c r="F12" s="500" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="484"/>
-      <c r="H12" s="484"/>
-      <c r="I12" s="484"/>
-      <c r="J12" s="485" t="s">
+      <c r="G12" s="500"/>
+      <c r="H12" s="500"/>
+      <c r="I12" s="500"/>
+      <c r="J12" s="501" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="485"/>
+      <c r="K12" s="501"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="373" t="s">
@@ -6331,16 +6331,16 @@
       <c r="C13" s="384" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="484" t="s">
+      <c r="F13" s="500" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="484"/>
-      <c r="H13" s="484"/>
-      <c r="I13" s="484"/>
-      <c r="J13" s="485" t="s">
+      <c r="G13" s="500"/>
+      <c r="H13" s="500"/>
+      <c r="I13" s="500"/>
+      <c r="J13" s="501" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="485"/>
+      <c r="K13" s="501"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="375" t="s">
@@ -6492,11 +6492,11 @@
       <c r="A28" s="381"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="486" t="s">
+      <c r="A29" s="484" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="486"/>
-      <c r="C29" s="486"/>
+      <c r="B29" s="484"/>
+      <c r="C29" s="484"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="371" t="s">
@@ -6505,6 +6505,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -6514,12 +6520,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6573,24 +6573,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="170"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
@@ -6601,19 +6601,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="170"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -6624,9 +6624,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="170"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6645,22 +6645,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="170"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
       <c r="O5" s="177"/>
@@ -6671,22 +6671,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="170"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
       <c r="O6" s="177"/>
@@ -6697,27 +6697,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="170"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="588"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="179"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
@@ -7103,17 +7103,6 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7121,6 +7110,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7186,47 +7186,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="209"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="623"/>
-      <c r="Q2" s="623"/>
+      <c r="P2" s="626"/>
+      <c r="Q2" s="626"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="209"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -7237,9 +7237,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="209"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7258,22 +7258,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="209"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -7284,22 +7284,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="209"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -7310,27 +7310,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="209"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="588"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -7659,12 +7659,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="219"/>
-      <c r="B18" s="624" t="s">
+      <c r="B18" s="623" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="625"/>
-      <c r="D18" s="625"/>
-      <c r="E18" s="626"/>
+      <c r="C18" s="624"/>
+      <c r="D18" s="624"/>
+      <c r="E18" s="625"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -7708,6 +7708,14 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -7719,14 +7727,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7812,24 +7812,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="133"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
@@ -7840,19 +7840,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="133"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -7863,9 +7863,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="133"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7884,22 +7884,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="133"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -7910,22 +7910,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="133"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -7936,27 +7936,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="133"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="588"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -8337,17 +8337,6 @@
     <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8355,6 +8344,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -8420,47 +8420,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="266"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="628">
+      <c r="J2" s="607"/>
+      <c r="K2" s="629">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="L2" s="629"/>
+      <c r="L2" s="630"/>
       <c r="M2" s="267"/>
       <c r="N2" s="268"/>
       <c r="O2" s="269"/>
-      <c r="P2" s="632"/>
-      <c r="Q2" s="632"/>
+      <c r="P2" s="628"/>
+      <c r="Q2" s="628"/>
       <c r="R2" s="270"/>
       <c r="S2" s="271"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="266"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="630"/>
-      <c r="L3" s="631"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="631"/>
+      <c r="L3" s="632"/>
       <c r="M3" s="272"/>
       <c r="N3" s="273"/>
       <c r="O3" s="273"/>
@@ -8471,9 +8471,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="266"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8492,22 +8492,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="266"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -8518,22 +8518,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="266"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -8544,27 +8544,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="266"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="588"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -8837,6 +8837,8 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -8853,8 +8855,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -8883,8 +8883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8939,17 +8939,17 @@
       <c r="L2" s="391"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="507" t="s">
+      <c r="A3" s="504" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="507"/>
-      <c r="C3" s="507"/>
-      <c r="D3" s="507"/>
-      <c r="E3" s="507"/>
-      <c r="F3" s="507"/>
-      <c r="G3" s="507"/>
-      <c r="H3" s="507"/>
-      <c r="I3" s="507"/>
+      <c r="B3" s="504"/>
+      <c r="C3" s="504"/>
+      <c r="D3" s="504"/>
+      <c r="E3" s="504"/>
+      <c r="F3" s="504"/>
+      <c r="G3" s="504"/>
+      <c r="H3" s="504"/>
+      <c r="I3" s="504"/>
       <c r="K3" s="392"/>
       <c r="L3" s="392"/>
       <c r="M3" s="393"/>
@@ -9437,31 +9437,31 @@
         <v>15400000</v>
       </c>
       <c r="B21" s="433">
-        <v>43759</v>
+        <v>43788</v>
       </c>
       <c r="C21" s="434">
-        <v>43765</v>
+        <v>43790</v>
       </c>
       <c r="D21" s="433">
-        <v>43769</v>
+        <v>43795</v>
       </c>
       <c r="E21" s="435">
-        <v>948096</v>
+        <v>387072</v>
       </c>
       <c r="F21" s="435">
-        <v>1031915</v>
+        <v>432806</v>
       </c>
       <c r="G21" s="436">
         <f>F21/A$21</f>
-        <v>6.700746753246753E-2</v>
+        <v>2.8104285714285714E-2</v>
       </c>
       <c r="H21" s="437">
         <f>A21-F21</f>
-        <v>14368085</v>
+        <v>14967194</v>
       </c>
       <c r="I21" s="438">
         <f>1-G21</f>
-        <v>0.93299253246753244</v>
+        <v>0.97189571428571431</v>
       </c>
       <c r="J21" s="439"/>
       <c r="K21" s="413"/>
@@ -9480,11 +9480,11 @@
       </c>
       <c r="H22" s="443">
         <f>H21-F22</f>
-        <v>14368085</v>
+        <v>14967194</v>
       </c>
       <c r="I22" s="444">
         <f>I21-G22</f>
-        <v>0.93299253246753244</v>
+        <v>0.97189571428571431</v>
       </c>
       <c r="J22" s="393"/>
       <c r="K22" s="393"/>
@@ -9625,23 +9625,23 @@
       <c r="D32" s="465"/>
       <c r="E32" s="466">
         <f>SUM(E21:E31)</f>
-        <v>948096</v>
+        <v>387072</v>
       </c>
       <c r="F32" s="467">
         <f>SUM(F21:F31)</f>
-        <v>1031915</v>
+        <v>432806</v>
       </c>
       <c r="G32" s="468">
         <f>SUM(G21:G31)</f>
-        <v>6.700746753246753E-2</v>
+        <v>2.8104285714285714E-2</v>
       </c>
       <c r="H32" s="469">
         <f>A21-F32</f>
-        <v>14368085</v>
+        <v>14967194</v>
       </c>
       <c r="I32" s="470">
         <f>1-G32</f>
-        <v>0.93299253246753244</v>
+        <v>0.97189571428571431</v>
       </c>
       <c r="J32" s="471"/>
       <c r="K32" s="471"/>
@@ -9660,12 +9660,12 @@
       <c r="J35" s="393"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="508" t="s">
+      <c r="A36" s="505" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="508"/>
-      <c r="C36" s="508"/>
-      <c r="D36" s="508"/>
+      <c r="B36" s="505"/>
+      <c r="C36" s="505"/>
+      <c r="D36" s="505"/>
       <c r="E36" s="393"/>
       <c r="F36" s="393"/>
       <c r="G36" s="393"/>
@@ -9674,10 +9674,10 @@
       <c r="J36" s="393"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="509" t="s">
+      <c r="A37" s="506" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="509"/>
+      <c r="B37" s="506"/>
       <c r="C37" s="472" t="s">
         <v>131</v>
       </c>
@@ -9692,18 +9692,18 @@
       <c r="J37" s="393"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="510">
+      <c r="A38" s="507">
         <f>A21-F32</f>
-        <v>14368085</v>
-      </c>
-      <c r="B38" s="511"/>
+        <v>14967194</v>
+      </c>
+      <c r="B38" s="508"/>
       <c r="C38" s="473">
         <f>1-G32</f>
-        <v>0.93299253246753244</v>
+        <v>0.97189571428571431</v>
       </c>
       <c r="D38" s="474">
         <f>(C38/0.8)*100</f>
-        <v>116.62406655844156</v>
+        <v>121.48696428571428</v>
       </c>
       <c r="E38" s="475" t="s">
         <v>133</v>
@@ -9758,8 +9758,8 @@
       <c r="F42" s="477"/>
       <c r="G42" s="477"/>
       <c r="H42" s="477"/>
-      <c r="I42" s="502"/>
-      <c r="J42" s="503"/>
+      <c r="I42" s="509"/>
+      <c r="J42" s="510"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="478"/>
@@ -9853,9 +9853,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="393"/>
-      <c r="B52" s="505"/>
-      <c r="C52" s="505"/>
-      <c r="D52" s="506"/>
+      <c r="B52" s="502"/>
+      <c r="C52" s="502"/>
+      <c r="D52" s="503"/>
       <c r="E52" s="475"/>
       <c r="F52" s="393"/>
       <c r="G52" s="393"/>
@@ -9872,8 +9872,8 @@
       <c r="F53" s="477"/>
       <c r="G53" s="477"/>
       <c r="H53" s="477"/>
-      <c r="I53" s="502"/>
-      <c r="J53" s="503"/>
+      <c r="I53" s="509"/>
+      <c r="J53" s="510"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="478"/>
@@ -9884,8 +9884,8 @@
       <c r="F54" s="423"/>
       <c r="G54" s="423"/>
       <c r="H54" s="479"/>
-      <c r="I54" s="504"/>
-      <c r="J54" s="504"/>
+      <c r="I54" s="511"/>
+      <c r="J54" s="511"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="478"/>
@@ -9896,8 +9896,8 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="504"/>
-      <c r="J55" s="504"/>
+      <c r="I55" s="511"/>
+      <c r="J55" s="511"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="393"/>
@@ -9910,26 +9910,26 @@
       <c r="H56" s="393"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="502"/>
-      <c r="C61" s="503"/>
+      <c r="B61" s="509"/>
+      <c r="C61" s="510"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="502"/>
-      <c r="C68" s="503"/>
+      <c r="B68" s="509"/>
+      <c r="C68" s="510"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9944,7 +9944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31:D31"/>
     </sheetView>
   </sheetViews>
@@ -10012,47 +10012,47 @@
       <c r="J8" s="317"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="537" t="s">
+      <c r="A11" s="513" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="537"/>
-      <c r="C11" s="537"/>
-      <c r="D11" s="537"/>
-      <c r="E11" s="537"/>
-      <c r="F11" s="537"/>
-      <c r="G11" s="537"/>
-      <c r="H11" s="537"/>
-      <c r="I11" s="537"/>
-      <c r="J11" s="537"/>
+      <c r="B11" s="513"/>
+      <c r="C11" s="513"/>
+      <c r="D11" s="513"/>
+      <c r="E11" s="513"/>
+      <c r="F11" s="513"/>
+      <c r="G11" s="513"/>
+      <c r="H11" s="513"/>
+      <c r="I11" s="513"/>
+      <c r="J11" s="513"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="536" t="s">
+      <c r="A12" s="512" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="536"/>
-      <c r="C12" s="536"/>
-      <c r="D12" s="536"/>
-      <c r="E12" s="536"/>
-      <c r="F12" s="536"/>
-      <c r="G12" s="536"/>
-      <c r="H12" s="536"/>
-      <c r="I12" s="536"/>
-      <c r="J12" s="536"/>
+      <c r="B12" s="512"/>
+      <c r="C12" s="512"/>
+      <c r="D12" s="512"/>
+      <c r="E12" s="512"/>
+      <c r="F12" s="512"/>
+      <c r="G12" s="512"/>
+      <c r="H12" s="512"/>
+      <c r="I12" s="512"/>
+      <c r="J12" s="512"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="538" t="str">
+      <c r="A13" s="514" t="str">
         <f>Данные!A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="B13" s="537"/>
-      <c r="C13" s="537"/>
-      <c r="D13" s="537"/>
-      <c r="E13" s="537"/>
-      <c r="F13" s="537"/>
-      <c r="G13" s="537"/>
-      <c r="H13" s="537"/>
-      <c r="I13" s="537"/>
-      <c r="J13" s="537"/>
+      <c r="B13" s="513"/>
+      <c r="C13" s="513"/>
+      <c r="D13" s="513"/>
+      <c r="E13" s="513"/>
+      <c r="F13" s="513"/>
+      <c r="G13" s="513"/>
+      <c r="H13" s="513"/>
+      <c r="I13" s="513"/>
+      <c r="J13" s="513"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="311" t="s">
@@ -10177,482 +10177,482 @@
       <c r="J21" s="312"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="534" t="s">
+      <c r="A22" s="518" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="534" t="s">
+      <c r="B22" s="518" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="534"/>
-      <c r="D22" s="534"/>
-      <c r="E22" s="534" t="s">
+      <c r="C22" s="518"/>
+      <c r="D22" s="518"/>
+      <c r="E22" s="518" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="534"/>
-      <c r="G22" s="535" t="s">
+      <c r="F22" s="518"/>
+      <c r="G22" s="536" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="534" t="s">
+      <c r="H22" s="518" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="534"/>
-      <c r="J22" s="534"/>
+      <c r="I22" s="518"/>
+      <c r="J22" s="518"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="534"/>
-      <c r="B23" s="534"/>
-      <c r="C23" s="534"/>
-      <c r="D23" s="534"/>
-      <c r="E23" s="534"/>
-      <c r="F23" s="534"/>
-      <c r="G23" s="535"/>
-      <c r="H23" s="534"/>
-      <c r="I23" s="534"/>
-      <c r="J23" s="534"/>
+      <c r="A23" s="518"/>
+      <c r="B23" s="518"/>
+      <c r="C23" s="518"/>
+      <c r="D23" s="518"/>
+      <c r="E23" s="518"/>
+      <c r="F23" s="518"/>
+      <c r="G23" s="536"/>
+      <c r="H23" s="518"/>
+      <c r="I23" s="518"/>
+      <c r="J23" s="518"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="512">
+      <c r="A24" s="519">
         <v>1</v>
       </c>
-      <c r="B24" s="539" t="s">
+      <c r="B24" s="533" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="540"/>
-      <c r="D24" s="541"/>
-      <c r="E24" s="517" t="str">
+      <c r="C24" s="534"/>
+      <c r="D24" s="535"/>
+      <c r="E24" s="521" t="str">
         <f>Данные!C14</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F24" s="518"/>
-      <c r="G24" s="521">
+      <c r="F24" s="522"/>
+      <c r="G24" s="525">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="H24" s="523"/>
-      <c r="I24" s="524"/>
-      <c r="J24" s="525"/>
+      <c r="H24" s="527"/>
+      <c r="I24" s="528"/>
+      <c r="J24" s="529"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="532"/>
-      <c r="B25" s="529" t="str">
+      <c r="A25" s="520"/>
+      <c r="B25" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C25" s="530"/>
-      <c r="D25" s="531"/>
-      <c r="E25" s="533"/>
-      <c r="F25" s="520"/>
-      <c r="G25" s="522"/>
-      <c r="H25" s="526"/>
-      <c r="I25" s="527"/>
-      <c r="J25" s="528"/>
+      <c r="C25" s="516"/>
+      <c r="D25" s="517"/>
+      <c r="E25" s="523"/>
+      <c r="F25" s="524"/>
+      <c r="G25" s="526"/>
+      <c r="H25" s="530"/>
+      <c r="I25" s="531"/>
+      <c r="J25" s="532"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="512">
+      <c r="A26" s="519">
         <v>1</v>
       </c>
-      <c r="B26" s="514" t="s">
+      <c r="B26" s="537" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="515"/>
-      <c r="D26" s="516"/>
-      <c r="E26" s="517" t="str">
+      <c r="C26" s="538"/>
+      <c r="D26" s="539"/>
+      <c r="E26" s="521" t="str">
         <f>Данные!C15</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F26" s="518"/>
-      <c r="G26" s="521">
+      <c r="F26" s="522"/>
+      <c r="G26" s="525">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="H26" s="523"/>
-      <c r="I26" s="524"/>
-      <c r="J26" s="525"/>
+      <c r="H26" s="527"/>
+      <c r="I26" s="528"/>
+      <c r="J26" s="529"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="532"/>
-      <c r="B27" s="529" t="str">
+      <c r="A27" s="520"/>
+      <c r="B27" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C27" s="530"/>
-      <c r="D27" s="531"/>
-      <c r="E27" s="533"/>
-      <c r="F27" s="520"/>
-      <c r="G27" s="522"/>
-      <c r="H27" s="526"/>
-      <c r="I27" s="527"/>
-      <c r="J27" s="528"/>
+      <c r="C27" s="516"/>
+      <c r="D27" s="517"/>
+      <c r="E27" s="523"/>
+      <c r="F27" s="524"/>
+      <c r="G27" s="526"/>
+      <c r="H27" s="530"/>
+      <c r="I27" s="531"/>
+      <c r="J27" s="532"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="512">
+      <c r="A28" s="519">
         <v>1</v>
       </c>
-      <c r="B28" s="514" t="s">
+      <c r="B28" s="537" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="515"/>
-      <c r="D28" s="516"/>
-      <c r="E28" s="517" t="str">
+      <c r="C28" s="538"/>
+      <c r="D28" s="539"/>
+      <c r="E28" s="521" t="str">
         <f>Данные!C16</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F28" s="518"/>
-      <c r="G28" s="521">
+      <c r="F28" s="522"/>
+      <c r="G28" s="525">
         <f>Данные!B16</f>
         <v>24</v>
       </c>
-      <c r="H28" s="523"/>
-      <c r="I28" s="524"/>
-      <c r="J28" s="525"/>
+      <c r="H28" s="527"/>
+      <c r="I28" s="528"/>
+      <c r="J28" s="529"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="532"/>
-      <c r="B29" s="529" t="str">
+      <c r="A29" s="520"/>
+      <c r="B29" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C29" s="530"/>
-      <c r="D29" s="531"/>
-      <c r="E29" s="533"/>
-      <c r="F29" s="520"/>
-      <c r="G29" s="522"/>
-      <c r="H29" s="526"/>
-      <c r="I29" s="527"/>
-      <c r="J29" s="528"/>
+      <c r="C29" s="516"/>
+      <c r="D29" s="517"/>
+      <c r="E29" s="523"/>
+      <c r="F29" s="524"/>
+      <c r="G29" s="526"/>
+      <c r="H29" s="530"/>
+      <c r="I29" s="531"/>
+      <c r="J29" s="532"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="512">
+      <c r="A30" s="519">
         <v>1</v>
       </c>
-      <c r="B30" s="514" t="s">
+      <c r="B30" s="537" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="515"/>
-      <c r="D30" s="516"/>
-      <c r="E30" s="517" t="str">
+      <c r="C30" s="538"/>
+      <c r="D30" s="539"/>
+      <c r="E30" s="521" t="str">
         <f>Данные!C17</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F30" s="518"/>
-      <c r="G30" s="521">
+      <c r="F30" s="522"/>
+      <c r="G30" s="525">
         <f>Данные!B17</f>
         <v>24</v>
       </c>
-      <c r="H30" s="523"/>
-      <c r="I30" s="524"/>
-      <c r="J30" s="525"/>
+      <c r="H30" s="527"/>
+      <c r="I30" s="528"/>
+      <c r="J30" s="529"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="513"/>
-      <c r="B31" s="529" t="str">
+      <c r="A31" s="540"/>
+      <c r="B31" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C31" s="530"/>
-      <c r="D31" s="531"/>
-      <c r="E31" s="519"/>
-      <c r="F31" s="520"/>
-      <c r="G31" s="522"/>
-      <c r="H31" s="526"/>
-      <c r="I31" s="527"/>
-      <c r="J31" s="528"/>
+      <c r="C31" s="516"/>
+      <c r="D31" s="517"/>
+      <c r="E31" s="541"/>
+      <c r="F31" s="524"/>
+      <c r="G31" s="526"/>
+      <c r="H31" s="530"/>
+      <c r="I31" s="531"/>
+      <c r="J31" s="532"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="512">
+      <c r="A32" s="519">
         <v>1</v>
       </c>
-      <c r="B32" s="514" t="s">
+      <c r="B32" s="537" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="515"/>
-      <c r="D32" s="516"/>
-      <c r="E32" s="517" t="str">
+      <c r="C32" s="538"/>
+      <c r="D32" s="539"/>
+      <c r="E32" s="521" t="str">
         <f>Данные!C18</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F32" s="518"/>
-      <c r="G32" s="521">
+      <c r="F32" s="522"/>
+      <c r="G32" s="525">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="H32" s="523"/>
-      <c r="I32" s="524"/>
-      <c r="J32" s="525"/>
+      <c r="H32" s="527"/>
+      <c r="I32" s="528"/>
+      <c r="J32" s="529"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="513"/>
-      <c r="B33" s="529" t="str">
+      <c r="A33" s="540"/>
+      <c r="B33" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C33" s="530"/>
-      <c r="D33" s="531"/>
-      <c r="E33" s="519"/>
-      <c r="F33" s="520"/>
-      <c r="G33" s="522"/>
-      <c r="H33" s="526"/>
-      <c r="I33" s="527"/>
-      <c r="J33" s="528"/>
+      <c r="C33" s="516"/>
+      <c r="D33" s="517"/>
+      <c r="E33" s="541"/>
+      <c r="F33" s="524"/>
+      <c r="G33" s="526"/>
+      <c r="H33" s="530"/>
+      <c r="I33" s="531"/>
+      <c r="J33" s="532"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="512">
+      <c r="A34" s="519">
         <v>1</v>
       </c>
-      <c r="B34" s="514" t="s">
+      <c r="B34" s="537" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="515"/>
-      <c r="D34" s="516"/>
-      <c r="E34" s="517" t="str">
+      <c r="C34" s="538"/>
+      <c r="D34" s="539"/>
+      <c r="E34" s="521" t="str">
         <f>Данные!C19</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F34" s="518"/>
-      <c r="G34" s="521">
+      <c r="F34" s="522"/>
+      <c r="G34" s="525">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="H34" s="523"/>
-      <c r="I34" s="524"/>
-      <c r="J34" s="525"/>
+      <c r="H34" s="527"/>
+      <c r="I34" s="528"/>
+      <c r="J34" s="529"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="513"/>
-      <c r="B35" s="529" t="str">
+      <c r="A35" s="540"/>
+      <c r="B35" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C35" s="530"/>
-      <c r="D35" s="531"/>
-      <c r="E35" s="519"/>
-      <c r="F35" s="520"/>
-      <c r="G35" s="522"/>
-      <c r="H35" s="526"/>
-      <c r="I35" s="527"/>
-      <c r="J35" s="528"/>
+      <c r="C35" s="516"/>
+      <c r="D35" s="517"/>
+      <c r="E35" s="541"/>
+      <c r="F35" s="524"/>
+      <c r="G35" s="526"/>
+      <c r="H35" s="530"/>
+      <c r="I35" s="531"/>
+      <c r="J35" s="532"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="512">
+      <c r="A36" s="519">
         <v>1</v>
       </c>
-      <c r="B36" s="514" t="s">
+      <c r="B36" s="537" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="515"/>
-      <c r="D36" s="516"/>
-      <c r="E36" s="517" t="str">
+      <c r="C36" s="538"/>
+      <c r="D36" s="539"/>
+      <c r="E36" s="521" t="str">
         <f>Данные!C20</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F36" s="518"/>
-      <c r="G36" s="521">
+      <c r="F36" s="522"/>
+      <c r="G36" s="525">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="523"/>
-      <c r="I36" s="524"/>
-      <c r="J36" s="525"/>
+      <c r="H36" s="527"/>
+      <c r="I36" s="528"/>
+      <c r="J36" s="529"/>
     </row>
     <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="513"/>
-      <c r="B37" s="529" t="str">
+      <c r="A37" s="540"/>
+      <c r="B37" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C37" s="530"/>
-      <c r="D37" s="531"/>
-      <c r="E37" s="519"/>
-      <c r="F37" s="520"/>
-      <c r="G37" s="522"/>
-      <c r="H37" s="526"/>
-      <c r="I37" s="527"/>
-      <c r="J37" s="528"/>
+      <c r="C37" s="516"/>
+      <c r="D37" s="517"/>
+      <c r="E37" s="541"/>
+      <c r="F37" s="524"/>
+      <c r="G37" s="526"/>
+      <c r="H37" s="530"/>
+      <c r="I37" s="531"/>
+      <c r="J37" s="532"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="512">
+      <c r="A38" s="519">
         <v>1</v>
       </c>
-      <c r="B38" s="514" t="s">
+      <c r="B38" s="537" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="515"/>
-      <c r="D38" s="516"/>
-      <c r="E38" s="517" t="str">
+      <c r="C38" s="538"/>
+      <c r="D38" s="539"/>
+      <c r="E38" s="521" t="str">
         <f>Данные!C21</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F38" s="518"/>
-      <c r="G38" s="521">
+      <c r="F38" s="522"/>
+      <c r="G38" s="525">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="523"/>
-      <c r="I38" s="524"/>
-      <c r="J38" s="525"/>
+      <c r="H38" s="527"/>
+      <c r="I38" s="528"/>
+      <c r="J38" s="529"/>
     </row>
     <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="513"/>
-      <c r="B39" s="529" t="str">
+      <c r="A39" s="540"/>
+      <c r="B39" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C39" s="530"/>
-      <c r="D39" s="531"/>
-      <c r="E39" s="519"/>
-      <c r="F39" s="520"/>
-      <c r="G39" s="522"/>
-      <c r="H39" s="526"/>
-      <c r="I39" s="527"/>
-      <c r="J39" s="528"/>
+      <c r="C39" s="516"/>
+      <c r="D39" s="517"/>
+      <c r="E39" s="541"/>
+      <c r="F39" s="524"/>
+      <c r="G39" s="526"/>
+      <c r="H39" s="530"/>
+      <c r="I39" s="531"/>
+      <c r="J39" s="532"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="512">
+      <c r="A40" s="519">
         <v>1</v>
       </c>
-      <c r="B40" s="514" t="s">
+      <c r="B40" s="537" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="515"/>
-      <c r="D40" s="516"/>
-      <c r="E40" s="517" t="str">
+      <c r="C40" s="538"/>
+      <c r="D40" s="539"/>
+      <c r="E40" s="521" t="str">
         <f>Данные!C23</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F40" s="518"/>
-      <c r="G40" s="521">
+      <c r="F40" s="522"/>
+      <c r="G40" s="525">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H40" s="523"/>
-      <c r="I40" s="524"/>
-      <c r="J40" s="525"/>
+      <c r="H40" s="527"/>
+      <c r="I40" s="528"/>
+      <c r="J40" s="529"/>
     </row>
     <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="513"/>
-      <c r="B41" s="529" t="str">
+      <c r="A41" s="540"/>
+      <c r="B41" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C41" s="530"/>
-      <c r="D41" s="531"/>
-      <c r="E41" s="519"/>
-      <c r="F41" s="520"/>
-      <c r="G41" s="522"/>
-      <c r="H41" s="526"/>
-      <c r="I41" s="527"/>
-      <c r="J41" s="528"/>
+      <c r="C41" s="516"/>
+      <c r="D41" s="517"/>
+      <c r="E41" s="541"/>
+      <c r="F41" s="524"/>
+      <c r="G41" s="526"/>
+      <c r="H41" s="530"/>
+      <c r="I41" s="531"/>
+      <c r="J41" s="532"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="512">
+      <c r="A42" s="519">
         <v>1</v>
       </c>
-      <c r="B42" s="514" t="s">
+      <c r="B42" s="537" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="515"/>
-      <c r="D42" s="516"/>
-      <c r="E42" s="517" t="str">
+      <c r="C42" s="538"/>
+      <c r="D42" s="539"/>
+      <c r="E42" s="521" t="str">
         <f>Данные!C26</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F42" s="518"/>
-      <c r="G42" s="521">
+      <c r="F42" s="522"/>
+      <c r="G42" s="525">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H42" s="523"/>
-      <c r="I42" s="524"/>
-      <c r="J42" s="525"/>
+      <c r="H42" s="527"/>
+      <c r="I42" s="528"/>
+      <c r="J42" s="529"/>
     </row>
     <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="513"/>
-      <c r="B43" s="529" t="str">
+      <c r="A43" s="540"/>
+      <c r="B43" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C43" s="530"/>
-      <c r="D43" s="531"/>
-      <c r="E43" s="519"/>
-      <c r="F43" s="520"/>
-      <c r="G43" s="522"/>
-      <c r="H43" s="526"/>
-      <c r="I43" s="527"/>
-      <c r="J43" s="528"/>
+      <c r="C43" s="516"/>
+      <c r="D43" s="517"/>
+      <c r="E43" s="541"/>
+      <c r="F43" s="524"/>
+      <c r="G43" s="526"/>
+      <c r="H43" s="530"/>
+      <c r="I43" s="531"/>
+      <c r="J43" s="532"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="512">
+      <c r="A44" s="519">
         <v>1</v>
       </c>
-      <c r="B44" s="514" t="s">
+      <c r="B44" s="537" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="515"/>
-      <c r="D44" s="516"/>
-      <c r="E44" s="517">
+      <c r="C44" s="538"/>
+      <c r="D44" s="539"/>
+      <c r="E44" s="521">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="518"/>
-      <c r="G44" s="521">
+      <c r="F44" s="522"/>
+      <c r="G44" s="525">
         <f>Данные!B27</f>
         <v>18</v>
       </c>
-      <c r="H44" s="523"/>
-      <c r="I44" s="524"/>
-      <c r="J44" s="525"/>
+      <c r="H44" s="527"/>
+      <c r="I44" s="528"/>
+      <c r="J44" s="529"/>
     </row>
     <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="513"/>
-      <c r="B45" s="529" t="str">
+      <c r="A45" s="540"/>
+      <c r="B45" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C45" s="530"/>
-      <c r="D45" s="531"/>
-      <c r="E45" s="519"/>
-      <c r="F45" s="520"/>
-      <c r="G45" s="522"/>
-      <c r="H45" s="526"/>
-      <c r="I45" s="527"/>
-      <c r="J45" s="528"/>
+      <c r="C45" s="516"/>
+      <c r="D45" s="517"/>
+      <c r="E45" s="541"/>
+      <c r="F45" s="524"/>
+      <c r="G45" s="526"/>
+      <c r="H45" s="530"/>
+      <c r="I45" s="531"/>
+      <c r="J45" s="532"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="512">
+      <c r="A46" s="519">
         <v>1</v>
       </c>
-      <c r="B46" s="514" t="s">
+      <c r="B46" s="537" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="515"/>
-      <c r="D46" s="516"/>
-      <c r="E46" s="517" t="str">
+      <c r="C46" s="538"/>
+      <c r="D46" s="539"/>
+      <c r="E46" s="521" t="str">
         <f>Данные!C24</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F46" s="518"/>
-      <c r="G46" s="521">
+      <c r="F46" s="522"/>
+      <c r="G46" s="525">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="523"/>
-      <c r="I46" s="524"/>
-      <c r="J46" s="525"/>
+      <c r="H46" s="527"/>
+      <c r="I46" s="528"/>
+      <c r="J46" s="529"/>
     </row>
     <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="513"/>
-      <c r="B47" s="529" t="str">
+      <c r="A47" s="540"/>
+      <c r="B47" s="515" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C47" s="530"/>
-      <c r="D47" s="531"/>
-      <c r="E47" s="519"/>
-      <c r="F47" s="520"/>
-      <c r="G47" s="522"/>
-      <c r="H47" s="526"/>
-      <c r="I47" s="527"/>
-      <c r="J47" s="528"/>
+      <c r="C47" s="516"/>
+      <c r="D47" s="517"/>
+      <c r="E47" s="541"/>
+      <c r="F47" s="524"/>
+      <c r="G47" s="526"/>
+      <c r="H47" s="530"/>
+      <c r="I47" s="531"/>
+      <c r="J47" s="532"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="311"/>
@@ -10781,6 +10781,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -10797,70 +10861,6 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10915,47 +10915,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="542"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="544"/>
-      <c r="E2" s="551" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="562"/>
+      <c r="E2" s="569" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="553"/>
-      <c r="I2" s="558" t="s">
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="559"/>
-      <c r="K2" s="562">
+      <c r="J2" s="577"/>
+      <c r="K2" s="580">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="L2" s="563"/>
+      <c r="L2" s="581"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="554"/>
-      <c r="Q2" s="554"/>
+      <c r="P2" s="572"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="545"/>
-      <c r="C3" s="546"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="555" t="s">
+      <c r="B3" s="563"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="573" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="556"/>
-      <c r="G3" s="556"/>
-      <c r="H3" s="557"/>
-      <c r="I3" s="560"/>
-      <c r="J3" s="561"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="565"/>
+      <c r="F3" s="574"/>
+      <c r="G3" s="574"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="579"/>
+      <c r="K3" s="582"/>
+      <c r="L3" s="583"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10966,9 +10966,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="548"/>
-      <c r="C4" s="549"/>
-      <c r="D4" s="550"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="568"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10987,22 +10987,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="546"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="571"/>
-      <c r="J5" s="572"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="547"/>
+      <c r="J5" s="548"/>
+      <c r="K5" s="495"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11013,22 +11013,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="573"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="549"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="571"/>
-      <c r="J6" s="572"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="547"/>
+      <c r="J6" s="548"/>
+      <c r="K6" s="495"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11039,27 +11039,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="577"/>
-      <c r="D7" s="499">
+      <c r="C7" s="553"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="576" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="552" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="580"/>
-      <c r="K7" s="487">
+      <c r="J7" s="556"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11553,12 +11553,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="581" t="s">
+      <c r="B23" s="557" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="582"/>
-      <c r="D23" s="582"/>
-      <c r="E23" s="583"/>
+      <c r="C23" s="558"/>
+      <c r="D23" s="558"/>
+      <c r="E23" s="559"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
@@ -11580,12 +11580,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="566" t="s">
+      <c r="B24" s="542" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="567"/>
-      <c r="D24" s="567"/>
-      <c r="E24" s="568"/>
+      <c r="C24" s="543"/>
+      <c r="D24" s="543"/>
+      <c r="E24" s="544"/>
       <c r="F24" s="116" t="s">
         <v>16</v>
       </c>
@@ -11629,6 +11629,12 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11643,12 +11649,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11714,50 +11714,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="584">
+      <c r="B2" s="591">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="554"/>
-      <c r="Q2" s="554"/>
+      <c r="P2" s="572"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11768,9 +11768,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -11789,22 +11789,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11815,22 +11815,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11841,27 +11841,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="588"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12058,13 +12058,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="581" t="s">
+      <c r="B14" s="557" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="582"/>
-      <c r="D14" s="582"/>
-      <c r="E14" s="582"/>
-      <c r="F14" s="613"/>
+      <c r="C14" s="558"/>
+      <c r="D14" s="558"/>
+      <c r="E14" s="558"/>
+      <c r="F14" s="590"/>
       <c r="G14" s="56" t="s">
         <v>77</v>
       </c>
@@ -12083,12 +12083,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="566" t="s">
+      <c r="B15" s="542" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="567"/>
-      <c r="D15" s="567"/>
-      <c r="E15" s="568"/>
+      <c r="C15" s="543"/>
+      <c r="D15" s="543"/>
+      <c r="E15" s="544"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -12139,6 +12139,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12153,12 +12159,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12232,47 +12232,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="542"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="544"/>
-      <c r="E2" s="551" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="562"/>
+      <c r="E2" s="569" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="553"/>
-      <c r="I2" s="558" t="s">
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="559"/>
-      <c r="K2" s="562">
+      <c r="J2" s="577"/>
+      <c r="K2" s="580">
         <f>Данные!B16</f>
         <v>24</v>
       </c>
-      <c r="L2" s="563"/>
+      <c r="L2" s="581"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="554"/>
-      <c r="Q2" s="554"/>
+      <c r="P2" s="572"/>
+      <c r="Q2" s="572"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="545"/>
-      <c r="C3" s="546"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="555" t="s">
+      <c r="B3" s="563"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="573" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="556"/>
-      <c r="G3" s="556"/>
-      <c r="H3" s="557"/>
-      <c r="I3" s="560"/>
-      <c r="J3" s="561"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="565"/>
+      <c r="F3" s="574"/>
+      <c r="G3" s="574"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="579"/>
+      <c r="K3" s="582"/>
+      <c r="L3" s="583"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12283,9 +12283,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="548"/>
-      <c r="C4" s="549"/>
-      <c r="D4" s="550"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="568"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12304,22 +12304,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="546"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="571"/>
-      <c r="J5" s="572"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="547"/>
+      <c r="J5" s="548"/>
+      <c r="K5" s="495"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12330,22 +12330,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="573"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="549"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="571"/>
-      <c r="J6" s="572"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="547"/>
+      <c r="J6" s="548"/>
+      <c r="K6" s="495"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12356,27 +12356,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="577"/>
-      <c r="D7" s="499">
+      <c r="C7" s="553"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="576" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="552" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="580"/>
-      <c r="K7" s="487">
+      <c r="J7" s="556"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12859,6 +12859,8 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
@@ -12875,8 +12877,6 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -12944,24 +12944,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="542"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="544"/>
-      <c r="E2" s="551" t="s">
+      <c r="B2" s="560"/>
+      <c r="C2" s="561"/>
+      <c r="D2" s="562"/>
+      <c r="E2" s="569" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="553"/>
-      <c r="I2" s="558" t="s">
+      <c r="F2" s="570"/>
+      <c r="G2" s="570"/>
+      <c r="H2" s="571"/>
+      <c r="I2" s="576" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="559"/>
-      <c r="K2" s="562">
+      <c r="J2" s="577"/>
+      <c r="K2" s="580">
         <f>Данные!B17</f>
         <v>24</v>
       </c>
-      <c r="L2" s="563"/>
+      <c r="L2" s="581"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -12972,19 +12972,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="545"/>
-      <c r="C3" s="546"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="555" t="s">
+      <c r="B3" s="563"/>
+      <c r="C3" s="564"/>
+      <c r="D3" s="565"/>
+      <c r="E3" s="573" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="556"/>
-      <c r="G3" s="556"/>
-      <c r="H3" s="557"/>
-      <c r="I3" s="560"/>
-      <c r="J3" s="561"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="565"/>
+      <c r="F3" s="574"/>
+      <c r="G3" s="574"/>
+      <c r="H3" s="575"/>
+      <c r="I3" s="578"/>
+      <c r="J3" s="579"/>
+      <c r="K3" s="582"/>
+      <c r="L3" s="583"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -12995,9 +12995,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="548"/>
-      <c r="C4" s="549"/>
-      <c r="D4" s="550"/>
+      <c r="B4" s="566"/>
+      <c r="C4" s="567"/>
+      <c r="D4" s="568"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13016,22 +13016,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="546"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="571"/>
-      <c r="J5" s="572"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="547"/>
+      <c r="J5" s="548"/>
+      <c r="K5" s="495"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13042,22 +13042,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="573"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="549"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="571"/>
-      <c r="J6" s="572"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="547"/>
+      <c r="J6" s="548"/>
+      <c r="K6" s="495"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13068,27 +13068,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="577"/>
-      <c r="D7" s="499">
+      <c r="C7" s="553"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="576" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="552" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="580"/>
-      <c r="K7" s="487">
+      <c r="J7" s="556"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13373,6 +13373,17 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13380,17 +13391,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13462,24 +13462,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="615"/>
       <c r="N2" s="616"/>
       <c r="O2" s="616"/>
@@ -13490,19 +13490,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="618"/>
       <c r="N3" s="619"/>
       <c r="O3" s="619"/>
@@ -13513,9 +13513,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -13534,22 +13534,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="618"/>
       <c r="N5" s="619"/>
       <c r="O5" s="619"/>
@@ -13560,22 +13560,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="618"/>
       <c r="N6" s="619"/>
       <c r="O6" s="619"/>
@@ -13586,27 +13586,27 @@
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="588"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="618"/>
       <c r="N7" s="619"/>
       <c r="O7" s="619"/>
@@ -14001,12 +14001,12 @@
     </row>
     <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
-      <c r="B20" s="566" t="s">
+      <c r="B20" s="542" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="567"/>
-      <c r="D20" s="567"/>
-      <c r="E20" s="568"/>
+      <c r="C20" s="543"/>
+      <c r="D20" s="543"/>
+      <c r="E20" s="544"/>
       <c r="F20" s="116" t="s">
         <v>16</v>
       </c>
@@ -14052,13 +14052,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14071,6 +14064,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14135,24 +14135,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="591"/>
+      <c r="C2" s="592"/>
+      <c r="D2" s="593"/>
+      <c r="E2" s="600" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="601"/>
+      <c r="G2" s="601"/>
+      <c r="H2" s="602"/>
+      <c r="I2" s="606" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="607"/>
+      <c r="K2" s="610">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="611"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -14163,19 +14163,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="594"/>
+      <c r="C3" s="595"/>
+      <c r="D3" s="596"/>
+      <c r="E3" s="603" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="604"/>
+      <c r="G3" s="604"/>
+      <c r="H3" s="605"/>
+      <c r="I3" s="608"/>
+      <c r="J3" s="609"/>
+      <c r="K3" s="612"/>
+      <c r="L3" s="613"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14186,9 +14186,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="597"/>
+      <c r="C4" s="598"/>
+      <c r="D4" s="599"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -14207,22 +14207,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="545" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="584"/>
+      <c r="D5" s="494" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="495"/>
+      <c r="F5" s="495"/>
+      <c r="G5" s="495"/>
+      <c r="H5" s="496"/>
+      <c r="I5" s="585"/>
+      <c r="J5" s="586"/>
+      <c r="K5" s="587"/>
+      <c r="L5" s="496"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14233,22 +14233,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="545" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="584"/>
+      <c r="D6" s="488" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="550"/>
+      <c r="F6" s="550"/>
+      <c r="G6" s="550"/>
+      <c r="H6" s="551"/>
+      <c r="I6" s="585"/>
+      <c r="J6" s="586"/>
+      <c r="K6" s="587"/>
+      <c r="L6" s="496"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14259,27 +14259,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="552" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="588"/>
+      <c r="D7" s="497">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="554"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="554"/>
+      <c r="H7" s="555"/>
+      <c r="I7" s="589" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="588"/>
+      <c r="K7" s="485">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="486"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14542,12 +14542,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="566" t="s">
+      <c r="B16" s="542" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="567"/>
-      <c r="D16" s="567"/>
-      <c r="E16" s="568"/>
+      <c r="C16" s="543"/>
+      <c r="D16" s="543"/>
+      <c r="E16" s="544"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -14593,15 +14593,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -14612,6 +14603,15 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/9. XXI-КПМ-30-1-500-9 (Штоф)/Штофф от 18.11.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/9. XXI-КПМ-30-1-500-9 (Штоф)/Штофф от 18.11.2019.xlsx
@@ -3550,6 +3550,12 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3594,11 +3600,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3617,10 +3622,77 @@
     <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3631,60 +3703,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3694,23 +3712,77 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3762,76 +3834,73 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3855,75 +3924,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3950,6 +3950,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3958,9 +3961,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6215,25 +6215,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="487" t="s">
+      <c r="A1" s="489" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="491"/>
-      <c r="C1" s="491"/>
-      <c r="D1" s="491"/>
-      <c r="E1" s="491"/>
+      <c r="B1" s="493"/>
+      <c r="C1" s="493"/>
+      <c r="D1" s="493"/>
+      <c r="E1" s="493"/>
       <c r="G1" s="371" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="488" t="s">
+      <c r="A2" s="490" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="489"/>
-      <c r="C2" s="489"/>
-      <c r="D2" s="489"/>
-      <c r="E2" s="490"/>
+      <c r="B2" s="491"/>
+      <c r="C2" s="491"/>
+      <c r="D2" s="491"/>
+      <c r="E2" s="492"/>
       <c r="G2" s="370" t="s">
         <v>79</v>
       </c>
@@ -6244,45 +6244,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="492" t="s">
+      <c r="A4" s="494" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="493"/>
-      <c r="C4" s="493"/>
-      <c r="D4" s="493"/>
-      <c r="E4" s="493"/>
+      <c r="B4" s="495"/>
+      <c r="C4" s="495"/>
+      <c r="D4" s="495"/>
+      <c r="E4" s="495"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="494" t="s">
+      <c r="A5" s="496" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="495"/>
-      <c r="C5" s="495"/>
-      <c r="D5" s="495"/>
-      <c r="E5" s="496"/>
+      <c r="B5" s="497"/>
+      <c r="C5" s="497"/>
+      <c r="D5" s="497"/>
+      <c r="E5" s="498"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="487" t="s">
+      <c r="A7" s="489" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="491"/>
-      <c r="C7" s="491"/>
-      <c r="D7" s="491"/>
-      <c r="E7" s="491"/>
+      <c r="B7" s="493"/>
+      <c r="C7" s="493"/>
+      <c r="D7" s="493"/>
+      <c r="E7" s="493"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="497"/>
-      <c r="B8" s="498"/>
-      <c r="C8" s="498"/>
-      <c r="D8" s="498"/>
-      <c r="E8" s="499"/>
+      <c r="A8" s="499"/>
+      <c r="B8" s="500"/>
+      <c r="C8" s="500"/>
+      <c r="D8" s="500"/>
+      <c r="E8" s="501"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="487" t="s">
+      <c r="A10" s="489" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="487"/>
+      <c r="B10" s="489"/>
       <c r="C10" s="372"/>
       <c r="D10" s="380" t="s">
         <v>93</v>
@@ -6293,33 +6293,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="485"/>
-      <c r="B11" s="486"/>
+      <c r="A11" s="487"/>
+      <c r="B11" s="488"/>
       <c r="D11" s="379">
         <v>43787</v>
       </c>
-      <c r="F11" s="500" t="s">
+      <c r="F11" s="484" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="500"/>
-      <c r="H11" s="500"/>
-      <c r="I11" s="500"/>
-      <c r="J11" s="501" t="s">
+      <c r="G11" s="484"/>
+      <c r="H11" s="484"/>
+      <c r="I11" s="484"/>
+      <c r="J11" s="485" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="501"/>
+      <c r="K11" s="485"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="500" t="s">
+      <c r="F12" s="484" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="500"/>
-      <c r="H12" s="500"/>
-      <c r="I12" s="500"/>
-      <c r="J12" s="501" t="s">
+      <c r="G12" s="484"/>
+      <c r="H12" s="484"/>
+      <c r="I12" s="484"/>
+      <c r="J12" s="485" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="501"/>
+      <c r="K12" s="485"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="373" t="s">
@@ -6331,16 +6331,16 @@
       <c r="C13" s="384" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="500" t="s">
+      <c r="F13" s="484" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="500"/>
-      <c r="H13" s="500"/>
-      <c r="I13" s="500"/>
-      <c r="J13" s="501" t="s">
+      <c r="G13" s="484"/>
+      <c r="H13" s="484"/>
+      <c r="I13" s="484"/>
+      <c r="J13" s="485" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="501"/>
+      <c r="K13" s="485"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="375" t="s">
@@ -6492,11 +6492,11 @@
       <c r="A28" s="381"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="484" t="s">
+      <c r="A29" s="486" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="484"/>
-      <c r="C29" s="484"/>
+      <c r="B29" s="486"/>
+      <c r="C29" s="486"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="371" t="s">
@@ -6505,12 +6505,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -6520,6 +6514,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6573,24 +6573,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="170"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
@@ -6601,19 +6601,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="170"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -6624,9 +6624,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="170"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6645,22 +6645,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="170"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
       <c r="O5" s="177"/>
@@ -6671,22 +6671,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="170"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
       <c r="O6" s="177"/>
@@ -6697,27 +6697,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="170"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="179"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
@@ -7103,6 +7103,17 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7110,17 +7121,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7186,47 +7186,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="209"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="626"/>
-      <c r="Q2" s="626"/>
+      <c r="P2" s="623"/>
+      <c r="Q2" s="623"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="209"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -7237,9 +7237,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="209"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7258,22 +7258,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="209"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -7284,22 +7284,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="209"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -7310,27 +7310,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="209"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -7659,12 +7659,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="219"/>
-      <c r="B18" s="623" t="s">
+      <c r="B18" s="624" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="624"/>
-      <c r="D18" s="624"/>
-      <c r="E18" s="625"/>
+      <c r="C18" s="625"/>
+      <c r="D18" s="625"/>
+      <c r="E18" s="626"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -7708,14 +7708,6 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -7727,6 +7719,14 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7812,24 +7812,24 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="133"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
@@ -7840,19 +7840,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="133"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -7863,9 +7863,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="133"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7884,22 +7884,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="133"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -7910,22 +7910,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="133"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -7936,27 +7936,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="133"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -8337,6 +8337,17 @@
     <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8344,17 +8355,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -8420,19 +8420,19 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="266"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
+      <c r="J2" s="600"/>
       <c r="K2" s="629">
         <f>Данные!B23</f>
         <v>18</v>
@@ -8448,17 +8448,17 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="266"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
       <c r="K3" s="631"/>
       <c r="L3" s="632"/>
       <c r="M3" s="272"/>
@@ -8471,9 +8471,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="266"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8492,22 +8492,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="266"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -8518,22 +8518,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="266"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -8544,27 +8544,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="266"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -8837,6 +8837,8 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="P2:Q2"/>
@@ -8853,8 +8855,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -8883,8 +8883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8939,17 +8939,17 @@
       <c r="L2" s="391"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="504" t="s">
+      <c r="A3" s="507" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="504"/>
-      <c r="C3" s="504"/>
-      <c r="D3" s="504"/>
-      <c r="E3" s="504"/>
-      <c r="F3" s="504"/>
-      <c r="G3" s="504"/>
-      <c r="H3" s="504"/>
-      <c r="I3" s="504"/>
+      <c r="B3" s="507"/>
+      <c r="C3" s="507"/>
+      <c r="D3" s="507"/>
+      <c r="E3" s="507"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="507"/>
+      <c r="H3" s="507"/>
+      <c r="I3" s="507"/>
       <c r="K3" s="392"/>
       <c r="L3" s="392"/>
       <c r="M3" s="393"/>
@@ -9469,22 +9469,32 @@
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="440"/>
-      <c r="B22" s="441"/>
-      <c r="C22" s="441"/>
-      <c r="D22" s="441"/>
-      <c r="E22" s="442"/>
-      <c r="F22" s="442"/>
+      <c r="B22" s="441">
+        <v>43815</v>
+      </c>
+      <c r="C22" s="441">
+        <v>43819</v>
+      </c>
+      <c r="D22" s="441">
+        <v>43833</v>
+      </c>
+      <c r="E22" s="442">
+        <v>661548</v>
+      </c>
+      <c r="F22" s="442">
+        <v>719672</v>
+      </c>
       <c r="G22" s="436">
         <f>F22/A$21</f>
-        <v>0</v>
+        <v>4.6731948051948052E-2</v>
       </c>
       <c r="H22" s="443">
         <f>H21-F22</f>
-        <v>14967194</v>
+        <v>14247522</v>
       </c>
       <c r="I22" s="444">
         <f>I21-G22</f>
-        <v>0.97189571428571431</v>
+        <v>0.92516376623376628</v>
       </c>
       <c r="J22" s="393"/>
       <c r="K22" s="393"/>
@@ -9625,23 +9635,23 @@
       <c r="D32" s="465"/>
       <c r="E32" s="466">
         <f>SUM(E21:E31)</f>
-        <v>387072</v>
+        <v>1048620</v>
       </c>
       <c r="F32" s="467">
         <f>SUM(F21:F31)</f>
-        <v>432806</v>
+        <v>1152478</v>
       </c>
       <c r="G32" s="468">
         <f>SUM(G21:G31)</f>
-        <v>2.8104285714285714E-2</v>
+        <v>7.4836233766233773E-2</v>
       </c>
       <c r="H32" s="469">
         <f>A21-F32</f>
-        <v>14967194</v>
+        <v>14247522</v>
       </c>
       <c r="I32" s="470">
         <f>1-G32</f>
-        <v>0.97189571428571431</v>
+        <v>0.92516376623376617</v>
       </c>
       <c r="J32" s="471"/>
       <c r="K32" s="471"/>
@@ -9660,12 +9670,12 @@
       <c r="J35" s="393"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="505" t="s">
+      <c r="A36" s="508" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="505"/>
-      <c r="C36" s="505"/>
-      <c r="D36" s="505"/>
+      <c r="B36" s="508"/>
+      <c r="C36" s="508"/>
+      <c r="D36" s="508"/>
       <c r="E36" s="393"/>
       <c r="F36" s="393"/>
       <c r="G36" s="393"/>
@@ -9674,10 +9684,10 @@
       <c r="J36" s="393"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="506" t="s">
+      <c r="A37" s="509" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="506"/>
+      <c r="B37" s="509"/>
       <c r="C37" s="472" t="s">
         <v>131</v>
       </c>
@@ -9692,18 +9702,18 @@
       <c r="J37" s="393"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="507">
+      <c r="A38" s="510">
         <f>A21-F32</f>
-        <v>14967194</v>
-      </c>
-      <c r="B38" s="508"/>
+        <v>14247522</v>
+      </c>
+      <c r="B38" s="511"/>
       <c r="C38" s="473">
         <f>1-G32</f>
-        <v>0.97189571428571431</v>
+        <v>0.92516376623376617</v>
       </c>
       <c r="D38" s="474">
         <f>(C38/0.8)*100</f>
-        <v>121.48696428571428</v>
+        <v>115.64547077922076</v>
       </c>
       <c r="E38" s="475" t="s">
         <v>133</v>
@@ -9758,8 +9768,8 @@
       <c r="F42" s="477"/>
       <c r="G42" s="477"/>
       <c r="H42" s="477"/>
-      <c r="I42" s="509"/>
-      <c r="J42" s="510"/>
+      <c r="I42" s="502"/>
+      <c r="J42" s="503"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="478"/>
@@ -9853,9 +9863,9 @@
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="393"/>
-      <c r="B52" s="502"/>
-      <c r="C52" s="502"/>
-      <c r="D52" s="503"/>
+      <c r="B52" s="505"/>
+      <c r="C52" s="505"/>
+      <c r="D52" s="506"/>
       <c r="E52" s="475"/>
       <c r="F52" s="393"/>
       <c r="G52" s="393"/>
@@ -9872,8 +9882,8 @@
       <c r="F53" s="477"/>
       <c r="G53" s="477"/>
       <c r="H53" s="477"/>
-      <c r="I53" s="509"/>
-      <c r="J53" s="510"/>
+      <c r="I53" s="502"/>
+      <c r="J53" s="503"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="478"/>
@@ -9884,8 +9894,8 @@
       <c r="F54" s="423"/>
       <c r="G54" s="423"/>
       <c r="H54" s="479"/>
-      <c r="I54" s="511"/>
-      <c r="J54" s="511"/>
+      <c r="I54" s="504"/>
+      <c r="J54" s="504"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="478"/>
@@ -9896,8 +9906,8 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="511"/>
-      <c r="J55" s="511"/>
+      <c r="I55" s="504"/>
+      <c r="J55" s="504"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="393"/>
@@ -9910,26 +9920,26 @@
       <c r="H56" s="393"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="509"/>
-      <c r="C61" s="510"/>
+      <c r="B61" s="502"/>
+      <c r="C61" s="503"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="509"/>
-      <c r="C68" s="510"/>
+      <c r="B68" s="502"/>
+      <c r="C68" s="503"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10012,47 +10022,47 @@
       <c r="J8" s="317"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="513" t="s">
+      <c r="A11" s="537" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="513"/>
-      <c r="C11" s="513"/>
-      <c r="D11" s="513"/>
-      <c r="E11" s="513"/>
-      <c r="F11" s="513"/>
-      <c r="G11" s="513"/>
-      <c r="H11" s="513"/>
-      <c r="I11" s="513"/>
-      <c r="J11" s="513"/>
+      <c r="B11" s="537"/>
+      <c r="C11" s="537"/>
+      <c r="D11" s="537"/>
+      <c r="E11" s="537"/>
+      <c r="F11" s="537"/>
+      <c r="G11" s="537"/>
+      <c r="H11" s="537"/>
+      <c r="I11" s="537"/>
+      <c r="J11" s="537"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="512" t="s">
+      <c r="A12" s="536" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="512"/>
-      <c r="C12" s="512"/>
-      <c r="D12" s="512"/>
-      <c r="E12" s="512"/>
-      <c r="F12" s="512"/>
-      <c r="G12" s="512"/>
-      <c r="H12" s="512"/>
-      <c r="I12" s="512"/>
-      <c r="J12" s="512"/>
+      <c r="B12" s="536"/>
+      <c r="C12" s="536"/>
+      <c r="D12" s="536"/>
+      <c r="E12" s="536"/>
+      <c r="F12" s="536"/>
+      <c r="G12" s="536"/>
+      <c r="H12" s="536"/>
+      <c r="I12" s="536"/>
+      <c r="J12" s="536"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="514" t="str">
+      <c r="A13" s="538" t="str">
         <f>Данные!A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="B13" s="513"/>
-      <c r="C13" s="513"/>
-      <c r="D13" s="513"/>
-      <c r="E13" s="513"/>
-      <c r="F13" s="513"/>
-      <c r="G13" s="513"/>
-      <c r="H13" s="513"/>
-      <c r="I13" s="513"/>
-      <c r="J13" s="513"/>
+      <c r="B13" s="537"/>
+      <c r="C13" s="537"/>
+      <c r="D13" s="537"/>
+      <c r="E13" s="537"/>
+      <c r="F13" s="537"/>
+      <c r="G13" s="537"/>
+      <c r="H13" s="537"/>
+      <c r="I13" s="537"/>
+      <c r="J13" s="537"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="311" t="s">
@@ -10177,482 +10187,482 @@
       <c r="J21" s="312"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="518" t="s">
+      <c r="A22" s="534" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="518" t="s">
+      <c r="B22" s="534" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="518"/>
-      <c r="D22" s="518"/>
-      <c r="E22" s="518" t="s">
+      <c r="C22" s="534"/>
+      <c r="D22" s="534"/>
+      <c r="E22" s="534" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="518"/>
-      <c r="G22" s="536" t="s">
+      <c r="F22" s="534"/>
+      <c r="G22" s="535" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="518" t="s">
+      <c r="H22" s="534" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="518"/>
-      <c r="J22" s="518"/>
+      <c r="I22" s="534"/>
+      <c r="J22" s="534"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="518"/>
-      <c r="B23" s="518"/>
-      <c r="C23" s="518"/>
-      <c r="D23" s="518"/>
-      <c r="E23" s="518"/>
-      <c r="F23" s="518"/>
-      <c r="G23" s="536"/>
-      <c r="H23" s="518"/>
-      <c r="I23" s="518"/>
-      <c r="J23" s="518"/>
+      <c r="A23" s="534"/>
+      <c r="B23" s="534"/>
+      <c r="C23" s="534"/>
+      <c r="D23" s="534"/>
+      <c r="E23" s="534"/>
+      <c r="F23" s="534"/>
+      <c r="G23" s="535"/>
+      <c r="H23" s="534"/>
+      <c r="I23" s="534"/>
+      <c r="J23" s="534"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="519">
+      <c r="A24" s="512">
         <v>1</v>
       </c>
-      <c r="B24" s="533" t="s">
+      <c r="B24" s="539" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="534"/>
-      <c r="D24" s="535"/>
-      <c r="E24" s="521" t="str">
+      <c r="C24" s="540"/>
+      <c r="D24" s="541"/>
+      <c r="E24" s="517" t="str">
         <f>Данные!C14</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F24" s="522"/>
-      <c r="G24" s="525">
+      <c r="F24" s="518"/>
+      <c r="G24" s="521">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="H24" s="527"/>
-      <c r="I24" s="528"/>
-      <c r="J24" s="529"/>
+      <c r="H24" s="523"/>
+      <c r="I24" s="524"/>
+      <c r="J24" s="525"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="520"/>
-      <c r="B25" s="515" t="str">
+      <c r="A25" s="532"/>
+      <c r="B25" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C25" s="516"/>
-      <c r="D25" s="517"/>
-      <c r="E25" s="523"/>
-      <c r="F25" s="524"/>
-      <c r="G25" s="526"/>
-      <c r="H25" s="530"/>
-      <c r="I25" s="531"/>
-      <c r="J25" s="532"/>
+      <c r="C25" s="530"/>
+      <c r="D25" s="531"/>
+      <c r="E25" s="533"/>
+      <c r="F25" s="520"/>
+      <c r="G25" s="522"/>
+      <c r="H25" s="526"/>
+      <c r="I25" s="527"/>
+      <c r="J25" s="528"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="519">
+      <c r="A26" s="512">
         <v>1</v>
       </c>
-      <c r="B26" s="537" t="s">
+      <c r="B26" s="514" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="538"/>
-      <c r="D26" s="539"/>
-      <c r="E26" s="521" t="str">
+      <c r="C26" s="515"/>
+      <c r="D26" s="516"/>
+      <c r="E26" s="517" t="str">
         <f>Данные!C15</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F26" s="522"/>
-      <c r="G26" s="525">
+      <c r="F26" s="518"/>
+      <c r="G26" s="521">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="H26" s="527"/>
-      <c r="I26" s="528"/>
-      <c r="J26" s="529"/>
+      <c r="H26" s="523"/>
+      <c r="I26" s="524"/>
+      <c r="J26" s="525"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="520"/>
-      <c r="B27" s="515" t="str">
+      <c r="A27" s="532"/>
+      <c r="B27" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C27" s="516"/>
-      <c r="D27" s="517"/>
-      <c r="E27" s="523"/>
-      <c r="F27" s="524"/>
-      <c r="G27" s="526"/>
-      <c r="H27" s="530"/>
-      <c r="I27" s="531"/>
-      <c r="J27" s="532"/>
+      <c r="C27" s="530"/>
+      <c r="D27" s="531"/>
+      <c r="E27" s="533"/>
+      <c r="F27" s="520"/>
+      <c r="G27" s="522"/>
+      <c r="H27" s="526"/>
+      <c r="I27" s="527"/>
+      <c r="J27" s="528"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="519">
+      <c r="A28" s="512">
         <v>1</v>
       </c>
-      <c r="B28" s="537" t="s">
+      <c r="B28" s="514" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="538"/>
-      <c r="D28" s="539"/>
-      <c r="E28" s="521" t="str">
+      <c r="C28" s="515"/>
+      <c r="D28" s="516"/>
+      <c r="E28" s="517" t="str">
         <f>Данные!C16</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F28" s="522"/>
-      <c r="G28" s="525">
+      <c r="F28" s="518"/>
+      <c r="G28" s="521">
         <f>Данные!B16</f>
         <v>24</v>
       </c>
-      <c r="H28" s="527"/>
-      <c r="I28" s="528"/>
-      <c r="J28" s="529"/>
+      <c r="H28" s="523"/>
+      <c r="I28" s="524"/>
+      <c r="J28" s="525"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="520"/>
-      <c r="B29" s="515" t="str">
+      <c r="A29" s="532"/>
+      <c r="B29" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C29" s="516"/>
-      <c r="D29" s="517"/>
-      <c r="E29" s="523"/>
-      <c r="F29" s="524"/>
-      <c r="G29" s="526"/>
-      <c r="H29" s="530"/>
-      <c r="I29" s="531"/>
-      <c r="J29" s="532"/>
+      <c r="C29" s="530"/>
+      <c r="D29" s="531"/>
+      <c r="E29" s="533"/>
+      <c r="F29" s="520"/>
+      <c r="G29" s="522"/>
+      <c r="H29" s="526"/>
+      <c r="I29" s="527"/>
+      <c r="J29" s="528"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="519">
+      <c r="A30" s="512">
         <v>1</v>
       </c>
-      <c r="B30" s="537" t="s">
+      <c r="B30" s="514" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="538"/>
-      <c r="D30" s="539"/>
-      <c r="E30" s="521" t="str">
+      <c r="C30" s="515"/>
+      <c r="D30" s="516"/>
+      <c r="E30" s="517" t="str">
         <f>Данные!C17</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F30" s="522"/>
-      <c r="G30" s="525">
+      <c r="F30" s="518"/>
+      <c r="G30" s="521">
         <f>Данные!B17</f>
         <v>24</v>
       </c>
-      <c r="H30" s="527"/>
-      <c r="I30" s="528"/>
-      <c r="J30" s="529"/>
+      <c r="H30" s="523"/>
+      <c r="I30" s="524"/>
+      <c r="J30" s="525"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="540"/>
-      <c r="B31" s="515" t="str">
+      <c r="A31" s="513"/>
+      <c r="B31" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C31" s="516"/>
-      <c r="D31" s="517"/>
-      <c r="E31" s="541"/>
-      <c r="F31" s="524"/>
-      <c r="G31" s="526"/>
-      <c r="H31" s="530"/>
-      <c r="I31" s="531"/>
-      <c r="J31" s="532"/>
+      <c r="C31" s="530"/>
+      <c r="D31" s="531"/>
+      <c r="E31" s="519"/>
+      <c r="F31" s="520"/>
+      <c r="G31" s="522"/>
+      <c r="H31" s="526"/>
+      <c r="I31" s="527"/>
+      <c r="J31" s="528"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="519">
+      <c r="A32" s="512">
         <v>1</v>
       </c>
-      <c r="B32" s="537" t="s">
+      <c r="B32" s="514" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="538"/>
-      <c r="D32" s="539"/>
-      <c r="E32" s="521" t="str">
+      <c r="C32" s="515"/>
+      <c r="D32" s="516"/>
+      <c r="E32" s="517" t="str">
         <f>Данные!C18</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F32" s="522"/>
-      <c r="G32" s="525">
+      <c r="F32" s="518"/>
+      <c r="G32" s="521">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="H32" s="527"/>
-      <c r="I32" s="528"/>
-      <c r="J32" s="529"/>
+      <c r="H32" s="523"/>
+      <c r="I32" s="524"/>
+      <c r="J32" s="525"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="540"/>
-      <c r="B33" s="515" t="str">
+      <c r="A33" s="513"/>
+      <c r="B33" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C33" s="516"/>
-      <c r="D33" s="517"/>
-      <c r="E33" s="541"/>
-      <c r="F33" s="524"/>
-      <c r="G33" s="526"/>
-      <c r="H33" s="530"/>
-      <c r="I33" s="531"/>
-      <c r="J33" s="532"/>
+      <c r="C33" s="530"/>
+      <c r="D33" s="531"/>
+      <c r="E33" s="519"/>
+      <c r="F33" s="520"/>
+      <c r="G33" s="522"/>
+      <c r="H33" s="526"/>
+      <c r="I33" s="527"/>
+      <c r="J33" s="528"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="519">
+      <c r="A34" s="512">
         <v>1</v>
       </c>
-      <c r="B34" s="537" t="s">
+      <c r="B34" s="514" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="538"/>
-      <c r="D34" s="539"/>
-      <c r="E34" s="521" t="str">
+      <c r="C34" s="515"/>
+      <c r="D34" s="516"/>
+      <c r="E34" s="517" t="str">
         <f>Данные!C19</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F34" s="522"/>
-      <c r="G34" s="525">
+      <c r="F34" s="518"/>
+      <c r="G34" s="521">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="H34" s="527"/>
-      <c r="I34" s="528"/>
-      <c r="J34" s="529"/>
+      <c r="H34" s="523"/>
+      <c r="I34" s="524"/>
+      <c r="J34" s="525"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="540"/>
-      <c r="B35" s="515" t="str">
+      <c r="A35" s="513"/>
+      <c r="B35" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C35" s="516"/>
-      <c r="D35" s="517"/>
-      <c r="E35" s="541"/>
-      <c r="F35" s="524"/>
-      <c r="G35" s="526"/>
-      <c r="H35" s="530"/>
-      <c r="I35" s="531"/>
-      <c r="J35" s="532"/>
+      <c r="C35" s="530"/>
+      <c r="D35" s="531"/>
+      <c r="E35" s="519"/>
+      <c r="F35" s="520"/>
+      <c r="G35" s="522"/>
+      <c r="H35" s="526"/>
+      <c r="I35" s="527"/>
+      <c r="J35" s="528"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="519">
+      <c r="A36" s="512">
         <v>1</v>
       </c>
-      <c r="B36" s="537" t="s">
+      <c r="B36" s="514" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="538"/>
-      <c r="D36" s="539"/>
-      <c r="E36" s="521" t="str">
+      <c r="C36" s="515"/>
+      <c r="D36" s="516"/>
+      <c r="E36" s="517" t="str">
         <f>Данные!C20</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F36" s="522"/>
-      <c r="G36" s="525">
+      <c r="F36" s="518"/>
+      <c r="G36" s="521">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="527"/>
-      <c r="I36" s="528"/>
-      <c r="J36" s="529"/>
+      <c r="H36" s="523"/>
+      <c r="I36" s="524"/>
+      <c r="J36" s="525"/>
     </row>
     <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="540"/>
-      <c r="B37" s="515" t="str">
+      <c r="A37" s="513"/>
+      <c r="B37" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C37" s="516"/>
-      <c r="D37" s="517"/>
-      <c r="E37" s="541"/>
-      <c r="F37" s="524"/>
-      <c r="G37" s="526"/>
-      <c r="H37" s="530"/>
-      <c r="I37" s="531"/>
-      <c r="J37" s="532"/>
+      <c r="C37" s="530"/>
+      <c r="D37" s="531"/>
+      <c r="E37" s="519"/>
+      <c r="F37" s="520"/>
+      <c r="G37" s="522"/>
+      <c r="H37" s="526"/>
+      <c r="I37" s="527"/>
+      <c r="J37" s="528"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="519">
+      <c r="A38" s="512">
         <v>1</v>
       </c>
-      <c r="B38" s="537" t="s">
+      <c r="B38" s="514" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="538"/>
-      <c r="D38" s="539"/>
-      <c r="E38" s="521" t="str">
+      <c r="C38" s="515"/>
+      <c r="D38" s="516"/>
+      <c r="E38" s="517" t="str">
         <f>Данные!C21</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F38" s="522"/>
-      <c r="G38" s="525">
+      <c r="F38" s="518"/>
+      <c r="G38" s="521">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="527"/>
-      <c r="I38" s="528"/>
-      <c r="J38" s="529"/>
+      <c r="H38" s="523"/>
+      <c r="I38" s="524"/>
+      <c r="J38" s="525"/>
     </row>
     <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="540"/>
-      <c r="B39" s="515" t="str">
+      <c r="A39" s="513"/>
+      <c r="B39" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C39" s="516"/>
-      <c r="D39" s="517"/>
-      <c r="E39" s="541"/>
-      <c r="F39" s="524"/>
-      <c r="G39" s="526"/>
-      <c r="H39" s="530"/>
-      <c r="I39" s="531"/>
-      <c r="J39" s="532"/>
+      <c r="C39" s="530"/>
+      <c r="D39" s="531"/>
+      <c r="E39" s="519"/>
+      <c r="F39" s="520"/>
+      <c r="G39" s="522"/>
+      <c r="H39" s="526"/>
+      <c r="I39" s="527"/>
+      <c r="J39" s="528"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="519">
+      <c r="A40" s="512">
         <v>1</v>
       </c>
-      <c r="B40" s="537" t="s">
+      <c r="B40" s="514" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="538"/>
-      <c r="D40" s="539"/>
-      <c r="E40" s="521" t="str">
+      <c r="C40" s="515"/>
+      <c r="D40" s="516"/>
+      <c r="E40" s="517" t="str">
         <f>Данные!C23</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F40" s="522"/>
-      <c r="G40" s="525">
+      <c r="F40" s="518"/>
+      <c r="G40" s="521">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H40" s="527"/>
-      <c r="I40" s="528"/>
-      <c r="J40" s="529"/>
+      <c r="H40" s="523"/>
+      <c r="I40" s="524"/>
+      <c r="J40" s="525"/>
     </row>
     <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="540"/>
-      <c r="B41" s="515" t="str">
+      <c r="A41" s="513"/>
+      <c r="B41" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C41" s="516"/>
-      <c r="D41" s="517"/>
-      <c r="E41" s="541"/>
-      <c r="F41" s="524"/>
-      <c r="G41" s="526"/>
-      <c r="H41" s="530"/>
-      <c r="I41" s="531"/>
-      <c r="J41" s="532"/>
+      <c r="C41" s="530"/>
+      <c r="D41" s="531"/>
+      <c r="E41" s="519"/>
+      <c r="F41" s="520"/>
+      <c r="G41" s="522"/>
+      <c r="H41" s="526"/>
+      <c r="I41" s="527"/>
+      <c r="J41" s="528"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="519">
+      <c r="A42" s="512">
         <v>1</v>
       </c>
-      <c r="B42" s="537" t="s">
+      <c r="B42" s="514" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="538"/>
-      <c r="D42" s="539"/>
-      <c r="E42" s="521" t="str">
+      <c r="C42" s="515"/>
+      <c r="D42" s="516"/>
+      <c r="E42" s="517" t="str">
         <f>Данные!C26</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F42" s="522"/>
-      <c r="G42" s="525">
+      <c r="F42" s="518"/>
+      <c r="G42" s="521">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H42" s="527"/>
-      <c r="I42" s="528"/>
-      <c r="J42" s="529"/>
+      <c r="H42" s="523"/>
+      <c r="I42" s="524"/>
+      <c r="J42" s="525"/>
     </row>
     <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="540"/>
-      <c r="B43" s="515" t="str">
+      <c r="A43" s="513"/>
+      <c r="B43" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C43" s="516"/>
-      <c r="D43" s="517"/>
-      <c r="E43" s="541"/>
-      <c r="F43" s="524"/>
-      <c r="G43" s="526"/>
-      <c r="H43" s="530"/>
-      <c r="I43" s="531"/>
-      <c r="J43" s="532"/>
+      <c r="C43" s="530"/>
+      <c r="D43" s="531"/>
+      <c r="E43" s="519"/>
+      <c r="F43" s="520"/>
+      <c r="G43" s="522"/>
+      <c r="H43" s="526"/>
+      <c r="I43" s="527"/>
+      <c r="J43" s="528"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="519">
+      <c r="A44" s="512">
         <v>1</v>
       </c>
-      <c r="B44" s="537" t="s">
+      <c r="B44" s="514" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="538"/>
-      <c r="D44" s="539"/>
-      <c r="E44" s="521">
+      <c r="C44" s="515"/>
+      <c r="D44" s="516"/>
+      <c r="E44" s="517">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="522"/>
-      <c r="G44" s="525">
+      <c r="F44" s="518"/>
+      <c r="G44" s="521">
         <f>Данные!B27</f>
         <v>18</v>
       </c>
-      <c r="H44" s="527"/>
-      <c r="I44" s="528"/>
-      <c r="J44" s="529"/>
+      <c r="H44" s="523"/>
+      <c r="I44" s="524"/>
+      <c r="J44" s="525"/>
     </row>
     <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="540"/>
-      <c r="B45" s="515" t="str">
+      <c r="A45" s="513"/>
+      <c r="B45" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C45" s="516"/>
-      <c r="D45" s="517"/>
-      <c r="E45" s="541"/>
-      <c r="F45" s="524"/>
-      <c r="G45" s="526"/>
-      <c r="H45" s="530"/>
-      <c r="I45" s="531"/>
-      <c r="J45" s="532"/>
+      <c r="C45" s="530"/>
+      <c r="D45" s="531"/>
+      <c r="E45" s="519"/>
+      <c r="F45" s="520"/>
+      <c r="G45" s="522"/>
+      <c r="H45" s="526"/>
+      <c r="I45" s="527"/>
+      <c r="J45" s="528"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="519">
+      <c r="A46" s="512">
         <v>1</v>
       </c>
-      <c r="B46" s="537" t="s">
+      <c r="B46" s="514" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="538"/>
-      <c r="D46" s="539"/>
-      <c r="E46" s="521" t="str">
+      <c r="C46" s="515"/>
+      <c r="D46" s="516"/>
+      <c r="E46" s="517" t="str">
         <f>Данные!C24</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F46" s="522"/>
-      <c r="G46" s="525">
+      <c r="F46" s="518"/>
+      <c r="G46" s="521">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="527"/>
-      <c r="I46" s="528"/>
-      <c r="J46" s="529"/>
+      <c r="H46" s="523"/>
+      <c r="I46" s="524"/>
+      <c r="J46" s="525"/>
     </row>
     <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="540"/>
-      <c r="B47" s="515" t="str">
+      <c r="A47" s="513"/>
+      <c r="B47" s="529" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C47" s="516"/>
-      <c r="D47" s="517"/>
-      <c r="E47" s="541"/>
-      <c r="F47" s="524"/>
-      <c r="G47" s="526"/>
-      <c r="H47" s="530"/>
-      <c r="I47" s="531"/>
-      <c r="J47" s="532"/>
+      <c r="C47" s="530"/>
+      <c r="D47" s="531"/>
+      <c r="E47" s="519"/>
+      <c r="F47" s="520"/>
+      <c r="G47" s="522"/>
+      <c r="H47" s="526"/>
+      <c r="I47" s="527"/>
+      <c r="J47" s="528"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="311"/>
@@ -10781,70 +10791,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -10861,6 +10807,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10915,47 +10925,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="542"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="551" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="558" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="559"/>
+      <c r="K2" s="562">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="563"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="554"/>
+      <c r="Q2" s="554"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="545"/>
+      <c r="C3" s="546"/>
+      <c r="D3" s="547"/>
+      <c r="E3" s="555" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="556"/>
+      <c r="G3" s="556"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="560"/>
+      <c r="J3" s="561"/>
+      <c r="K3" s="564"/>
+      <c r="L3" s="565"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10966,9 +10976,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="548"/>
+      <c r="C4" s="549"/>
+      <c r="D4" s="550"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10987,22 +10997,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="546"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="570"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="547"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="495"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="571"/>
+      <c r="J5" s="572"/>
+      <c r="K5" s="497"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11013,22 +11023,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="549"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="547"/>
-      <c r="J6" s="548"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="571"/>
+      <c r="J6" s="572"/>
+      <c r="K6" s="497"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11039,27 +11049,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="553"/>
-      <c r="D7" s="497">
+      <c r="C7" s="577"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="552" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="556"/>
-      <c r="K7" s="485">
+      <c r="J7" s="580"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11553,12 +11563,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="557" t="s">
+      <c r="B23" s="581" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="558"/>
-      <c r="D23" s="558"/>
-      <c r="E23" s="559"/>
+      <c r="C23" s="582"/>
+      <c r="D23" s="582"/>
+      <c r="E23" s="583"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
@@ -11580,12 +11590,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="542" t="s">
+      <c r="B24" s="566" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="543"/>
-      <c r="D24" s="543"/>
-      <c r="E24" s="544"/>
+      <c r="C24" s="567"/>
+      <c r="D24" s="567"/>
+      <c r="E24" s="568"/>
       <c r="F24" s="116" t="s">
         <v>16</v>
       </c>
@@ -11629,12 +11639,6 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11649,6 +11653,12 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11714,50 +11724,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="591">
+      <c r="B2" s="584">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="554"/>
+      <c r="Q2" s="554"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11768,9 +11778,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -11789,22 +11799,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11815,22 +11825,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11841,27 +11851,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12058,13 +12068,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="557" t="s">
+      <c r="B14" s="581" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="558"/>
-      <c r="D14" s="558"/>
-      <c r="E14" s="558"/>
-      <c r="F14" s="590"/>
+      <c r="C14" s="582"/>
+      <c r="D14" s="582"/>
+      <c r="E14" s="582"/>
+      <c r="F14" s="613"/>
       <c r="G14" s="56" t="s">
         <v>77</v>
       </c>
@@ -12083,12 +12093,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="542" t="s">
+      <c r="B15" s="566" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="543"/>
-      <c r="D15" s="543"/>
-      <c r="E15" s="544"/>
+      <c r="C15" s="567"/>
+      <c r="D15" s="567"/>
+      <c r="E15" s="568"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -12139,12 +12149,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12159,6 +12163,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12232,47 +12242,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="542"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="551" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="558" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="559"/>
+      <c r="K2" s="562">
         <f>Данные!B16</f>
         <v>24</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="563"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="572"/>
-      <c r="Q2" s="572"/>
+      <c r="P2" s="554"/>
+      <c r="Q2" s="554"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="545"/>
+      <c r="C3" s="546"/>
+      <c r="D3" s="547"/>
+      <c r="E3" s="555" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="556"/>
+      <c r="G3" s="556"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="560"/>
+      <c r="J3" s="561"/>
+      <c r="K3" s="564"/>
+      <c r="L3" s="565"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12283,9 +12293,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="548"/>
+      <c r="C4" s="549"/>
+      <c r="D4" s="550"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12304,22 +12314,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="546"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="570"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="547"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="495"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="571"/>
+      <c r="J5" s="572"/>
+      <c r="K5" s="497"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12330,22 +12340,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="549"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="547"/>
-      <c r="J6" s="548"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="571"/>
+      <c r="J6" s="572"/>
+      <c r="K6" s="497"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12356,27 +12366,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="553"/>
-      <c r="D7" s="497">
+      <c r="C7" s="577"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="552" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="556"/>
-      <c r="K7" s="485">
+      <c r="J7" s="580"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12859,6 +12869,8 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="P2:Q2"/>
@@ -12875,8 +12887,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I2:J3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -12944,24 +12954,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="560"/>
-      <c r="C2" s="561"/>
-      <c r="D2" s="562"/>
-      <c r="E2" s="569" t="s">
+      <c r="B2" s="542"/>
+      <c r="C2" s="543"/>
+      <c r="D2" s="544"/>
+      <c r="E2" s="551" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="570"/>
-      <c r="G2" s="570"/>
-      <c r="H2" s="571"/>
-      <c r="I2" s="576" t="s">
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="553"/>
+      <c r="I2" s="558" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="577"/>
-      <c r="K2" s="580">
+      <c r="J2" s="559"/>
+      <c r="K2" s="562">
         <f>Данные!B17</f>
         <v>24</v>
       </c>
-      <c r="L2" s="581"/>
+      <c r="L2" s="563"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -12972,19 +12982,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="563"/>
-      <c r="C3" s="564"/>
-      <c r="D3" s="565"/>
-      <c r="E3" s="573" t="s">
+      <c r="B3" s="545"/>
+      <c r="C3" s="546"/>
+      <c r="D3" s="547"/>
+      <c r="E3" s="555" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="574"/>
-      <c r="G3" s="574"/>
-      <c r="H3" s="575"/>
-      <c r="I3" s="578"/>
-      <c r="J3" s="579"/>
-      <c r="K3" s="582"/>
-      <c r="L3" s="583"/>
+      <c r="F3" s="556"/>
+      <c r="G3" s="556"/>
+      <c r="H3" s="557"/>
+      <c r="I3" s="560"/>
+      <c r="J3" s="561"/>
+      <c r="K3" s="564"/>
+      <c r="L3" s="565"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -12995,9 +13005,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="566"/>
-      <c r="C4" s="567"/>
-      <c r="D4" s="568"/>
+      <c r="B4" s="548"/>
+      <c r="C4" s="549"/>
+      <c r="D4" s="550"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13016,22 +13026,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="546"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="570"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="547"/>
-      <c r="J5" s="548"/>
-      <c r="K5" s="495"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="571"/>
+      <c r="J5" s="572"/>
+      <c r="K5" s="497"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13042,22 +13052,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="549"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="573"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="547"/>
-      <c r="J6" s="548"/>
-      <c r="K6" s="495"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="571"/>
+      <c r="J6" s="572"/>
+      <c r="K6" s="497"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13068,27 +13078,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="553"/>
-      <c r="D7" s="497">
+      <c r="C7" s="577"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="552" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="576" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="556"/>
-      <c r="K7" s="485">
+      <c r="J7" s="580"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13373,17 +13383,6 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13391,6 +13390,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13462,24 +13472,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="615"/>
       <c r="N2" s="616"/>
       <c r="O2" s="616"/>
@@ -13490,19 +13500,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="618"/>
       <c r="N3" s="619"/>
       <c r="O3" s="619"/>
@@ -13513,9 +13523,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -13534,22 +13544,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="618"/>
       <c r="N5" s="619"/>
       <c r="O5" s="619"/>
@@ -13560,22 +13570,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="618"/>
       <c r="N6" s="619"/>
       <c r="O6" s="619"/>
@@ -13586,27 +13596,27 @@
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="618"/>
       <c r="N7" s="619"/>
       <c r="O7" s="619"/>
@@ -14001,12 +14011,12 @@
     </row>
     <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
-      <c r="B20" s="542" t="s">
+      <c r="B20" s="566" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="543"/>
-      <c r="D20" s="543"/>
-      <c r="E20" s="544"/>
+      <c r="C20" s="567"/>
+      <c r="D20" s="567"/>
+      <c r="E20" s="568"/>
       <c r="F20" s="116" t="s">
         <v>16</v>
       </c>
@@ -14052,6 +14062,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14064,13 +14081,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14135,24 +14145,24 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="591"/>
-      <c r="C2" s="592"/>
-      <c r="D2" s="593"/>
-      <c r="E2" s="600" t="s">
+      <c r="B2" s="584"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="586"/>
+      <c r="E2" s="593" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="601"/>
-      <c r="G2" s="601"/>
-      <c r="H2" s="602"/>
-      <c r="I2" s="606" t="s">
+      <c r="F2" s="594"/>
+      <c r="G2" s="594"/>
+      <c r="H2" s="595"/>
+      <c r="I2" s="599" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="607"/>
-      <c r="K2" s="610">
+      <c r="J2" s="600"/>
+      <c r="K2" s="603">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="L2" s="611"/>
+      <c r="L2" s="604"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -14163,19 +14173,19 @@
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="594"/>
-      <c r="C3" s="595"/>
-      <c r="D3" s="596"/>
-      <c r="E3" s="603" t="s">
+      <c r="B3" s="587"/>
+      <c r="C3" s="588"/>
+      <c r="D3" s="589"/>
+      <c r="E3" s="596" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="604"/>
-      <c r="G3" s="604"/>
-      <c r="H3" s="605"/>
-      <c r="I3" s="608"/>
-      <c r="J3" s="609"/>
-      <c r="K3" s="612"/>
-      <c r="L3" s="613"/>
+      <c r="F3" s="597"/>
+      <c r="G3" s="597"/>
+      <c r="H3" s="598"/>
+      <c r="I3" s="601"/>
+      <c r="J3" s="602"/>
+      <c r="K3" s="605"/>
+      <c r="L3" s="606"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14186,9 +14196,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="597"/>
-      <c r="C4" s="598"/>
-      <c r="D4" s="599"/>
+      <c r="B4" s="590"/>
+      <c r="C4" s="591"/>
+      <c r="D4" s="592"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -14207,22 +14217,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="545" t="s">
+      <c r="B5" s="569" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="584"/>
-      <c r="D5" s="494" t="str">
+      <c r="C5" s="607"/>
+      <c r="D5" s="496" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="495"/>
-      <c r="F5" s="495"/>
-      <c r="G5" s="495"/>
-      <c r="H5" s="496"/>
-      <c r="I5" s="585"/>
-      <c r="J5" s="586"/>
-      <c r="K5" s="587"/>
-      <c r="L5" s="496"/>
+      <c r="E5" s="497"/>
+      <c r="F5" s="497"/>
+      <c r="G5" s="497"/>
+      <c r="H5" s="498"/>
+      <c r="I5" s="608"/>
+      <c r="J5" s="609"/>
+      <c r="K5" s="610"/>
+      <c r="L5" s="498"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14233,22 +14243,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="545" t="s">
+      <c r="B6" s="569" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="584"/>
-      <c r="D6" s="488" t="str">
+      <c r="C6" s="607"/>
+      <c r="D6" s="490" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="550"/>
-      <c r="F6" s="550"/>
-      <c r="G6" s="550"/>
-      <c r="H6" s="551"/>
-      <c r="I6" s="585"/>
-      <c r="J6" s="586"/>
-      <c r="K6" s="587"/>
-      <c r="L6" s="496"/>
+      <c r="E6" s="574"/>
+      <c r="F6" s="574"/>
+      <c r="G6" s="574"/>
+      <c r="H6" s="575"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="K6" s="610"/>
+      <c r="L6" s="498"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14259,27 +14269,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="552" t="s">
+      <c r="B7" s="576" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="588"/>
-      <c r="D7" s="497">
+      <c r="C7" s="611"/>
+      <c r="D7" s="499">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="554"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="554"/>
-      <c r="H7" s="555"/>
-      <c r="I7" s="589" t="s">
+      <c r="E7" s="578"/>
+      <c r="F7" s="578"/>
+      <c r="G7" s="578"/>
+      <c r="H7" s="579"/>
+      <c r="I7" s="612" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="588"/>
-      <c r="K7" s="485">
+      <c r="J7" s="611"/>
+      <c r="K7" s="487">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="486"/>
+      <c r="L7" s="488"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14542,12 +14552,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="542" t="s">
+      <c r="B16" s="566" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="543"/>
-      <c r="D16" s="543"/>
-      <c r="E16" s="544"/>
+      <c r="C16" s="567"/>
+      <c r="D16" s="567"/>
+      <c r="E16" s="568"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -14593,6 +14603,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -14603,15 +14622,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/9. XXI-КПМ-30-1-500-9 (Штоф)/Штофф от 18.11.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/9. XXI-КПМ-30-1-500-9 (Штоф)/Штофф от 18.11.2019.xlsx
@@ -29,7 +29,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Акт приемки'!$A$1:$J$57</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Горл. кольцо'!$A$1:$S$21</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$I$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Паспорт!$A$1:$J$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">Плунжер!$A$1:$S$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Черн. поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Черн. форма'!$A$1:$R$21</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="145">
   <si>
     <t>+ Tol.</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>54 / 33</t>
+  </si>
+  <si>
+    <t>Вес, гр. (ном. 465 гр.)</t>
   </si>
 </sst>
 </file>
@@ -2164,7 +2167,7 @@
     <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="633">
+  <cellXfs count="637">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" shrinkToFit="1"/>
@@ -3432,56 +3435,33 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3491,27 +3471,18 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3551,9 +3522,69 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="59" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="21" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="55" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="61" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="65" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="11" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3600,189 +3631,123 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3834,73 +3799,76 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3924,6 +3892,75 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3950,9 +3987,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3961,6 +3995,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6215,25 +6252,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="489" t="s">
+      <c r="A1" s="491" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="493"/>
-      <c r="C1" s="493"/>
-      <c r="D1" s="493"/>
-      <c r="E1" s="493"/>
+      <c r="B1" s="495"/>
+      <c r="C1" s="495"/>
+      <c r="D1" s="495"/>
+      <c r="E1" s="495"/>
       <c r="G1" s="371" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="490" t="s">
+      <c r="A2" s="492" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="491"/>
-      <c r="C2" s="491"/>
-      <c r="D2" s="491"/>
-      <c r="E2" s="492"/>
+      <c r="B2" s="493"/>
+      <c r="C2" s="493"/>
+      <c r="D2" s="493"/>
+      <c r="E2" s="494"/>
       <c r="G2" s="370" t="s">
         <v>79</v>
       </c>
@@ -6244,45 +6281,45 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="494" t="s">
+      <c r="A4" s="496" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="495"/>
-      <c r="C4" s="495"/>
-      <c r="D4" s="495"/>
-      <c r="E4" s="495"/>
+      <c r="B4" s="497"/>
+      <c r="C4" s="497"/>
+      <c r="D4" s="497"/>
+      <c r="E4" s="497"/>
     </row>
     <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="496" t="s">
+      <c r="A5" s="498" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="497"/>
-      <c r="C5" s="497"/>
-      <c r="D5" s="497"/>
-      <c r="E5" s="498"/>
+      <c r="B5" s="499"/>
+      <c r="C5" s="499"/>
+      <c r="D5" s="499"/>
+      <c r="E5" s="500"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="489" t="s">
+      <c r="A7" s="491" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="493"/>
-      <c r="C7" s="493"/>
-      <c r="D7" s="493"/>
-      <c r="E7" s="493"/>
+      <c r="B7" s="495"/>
+      <c r="C7" s="495"/>
+      <c r="D7" s="495"/>
+      <c r="E7" s="495"/>
     </row>
     <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="499"/>
-      <c r="B8" s="500"/>
-      <c r="C8" s="500"/>
-      <c r="D8" s="500"/>
-      <c r="E8" s="501"/>
+      <c r="A8" s="501"/>
+      <c r="B8" s="502"/>
+      <c r="C8" s="502"/>
+      <c r="D8" s="502"/>
+      <c r="E8" s="503"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="489" t="s">
+      <c r="A10" s="491" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="489"/>
+      <c r="B10" s="491"/>
       <c r="C10" s="372"/>
       <c r="D10" s="380" t="s">
         <v>93</v>
@@ -6293,33 +6330,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="487"/>
-      <c r="B11" s="488"/>
+      <c r="A11" s="489"/>
+      <c r="B11" s="490"/>
       <c r="D11" s="379">
         <v>43787</v>
       </c>
-      <c r="F11" s="484" t="s">
+      <c r="F11" s="504" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="484"/>
-      <c r="H11" s="484"/>
-      <c r="I11" s="484"/>
-      <c r="J11" s="485" t="s">
+      <c r="G11" s="504"/>
+      <c r="H11" s="504"/>
+      <c r="I11" s="504"/>
+      <c r="J11" s="505" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="485"/>
+      <c r="K11" s="505"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="484" t="s">
+      <c r="F12" s="504" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="484"/>
-      <c r="H12" s="484"/>
-      <c r="I12" s="484"/>
-      <c r="J12" s="485" t="s">
+      <c r="G12" s="504"/>
+      <c r="H12" s="504"/>
+      <c r="I12" s="504"/>
+      <c r="J12" s="505" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="485"/>
+      <c r="K12" s="505"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="373" t="s">
@@ -6331,16 +6368,16 @@
       <c r="C13" s="384" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="484" t="s">
+      <c r="F13" s="504" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="484"/>
-      <c r="H13" s="484"/>
-      <c r="I13" s="484"/>
-      <c r="J13" s="485" t="s">
+      <c r="G13" s="504"/>
+      <c r="H13" s="504"/>
+      <c r="I13" s="504"/>
+      <c r="J13" s="505" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="485"/>
+      <c r="K13" s="505"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="375" t="s">
@@ -6492,11 +6529,11 @@
       <c r="A28" s="381"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="486" t="s">
+      <c r="A29" s="488" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="486"/>
-      <c r="C29" s="486"/>
+      <c r="B29" s="488"/>
+      <c r="C29" s="488"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="371" t="s">
@@ -6505,6 +6542,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -6514,12 +6557,6 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6573,47 +6610,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="170"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
-      <c r="P2" s="622"/>
-      <c r="Q2" s="622"/>
+      <c r="P2" s="626"/>
+      <c r="Q2" s="626"/>
       <c r="R2" s="174"/>
       <c r="S2" s="175"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="170"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -6624,9 +6661,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="170"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6645,22 +6682,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="170"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="549" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
       <c r="O5" s="177"/>
@@ -6671,22 +6708,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="170"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="549" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="554"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="591"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
       <c r="O6" s="177"/>
@@ -6697,27 +6734,27 @@
     </row>
     <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="170"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="592"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="592"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="179"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
@@ -7103,17 +7140,6 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7121,6 +7147,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7186,47 +7223,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="209"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="623"/>
-      <c r="Q2" s="623"/>
+      <c r="P2" s="630"/>
+      <c r="Q2" s="630"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="209"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -7237,9 +7274,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="209"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7258,22 +7295,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="209"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="549" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -7284,22 +7321,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="209"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="549" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="554"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="591"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -7310,27 +7347,27 @@
     </row>
     <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="209"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="592"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="592"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -7659,12 +7696,12 @@
     </row>
     <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="219"/>
-      <c r="B18" s="624" t="s">
+      <c r="B18" s="627" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="625"/>
-      <c r="D18" s="625"/>
-      <c r="E18" s="626"/>
+      <c r="C18" s="628"/>
+      <c r="D18" s="628"/>
+      <c r="E18" s="629"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -7708,6 +7745,14 @@
     <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -7719,14 +7764,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7812,47 +7849,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="133"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
-      <c r="P2" s="627"/>
-      <c r="Q2" s="627"/>
+      <c r="P2" s="631"/>
+      <c r="Q2" s="631"/>
       <c r="R2" s="137"/>
       <c r="S2" s="138"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="133"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -7863,9 +7900,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="133"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7884,22 +7921,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="133"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="549" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -7910,22 +7947,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="133"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="549" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="554"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="591"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -7936,27 +7973,27 @@
     </row>
     <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="133"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="592"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="592"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -8337,17 +8374,6 @@
     <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8355,6 +8381,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -8420,47 +8457,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="266"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="629">
+      <c r="J2" s="611"/>
+      <c r="K2" s="633">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="L2" s="630"/>
+      <c r="L2" s="634"/>
       <c r="M2" s="267"/>
       <c r="N2" s="268"/>
       <c r="O2" s="269"/>
-      <c r="P2" s="628"/>
-      <c r="Q2" s="628"/>
+      <c r="P2" s="632"/>
+      <c r="Q2" s="632"/>
       <c r="R2" s="270"/>
       <c r="S2" s="271"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="266"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="631"/>
-      <c r="L3" s="632"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="635"/>
+      <c r="L3" s="636"/>
       <c r="M3" s="272"/>
       <c r="N3" s="273"/>
       <c r="O3" s="273"/>
@@ -8471,9 +8508,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="266"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8492,22 +8529,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="266"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="549" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -8518,22 +8555,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="266"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="549" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="554"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="591"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -8544,27 +8581,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="266"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="592"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="592"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -8837,7 +8874,6 @@
     <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="B2:D4"/>
@@ -8855,6 +8891,7 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
+    <mergeCell ref="D5:H5"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -8881,10 +8918,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8905,11 +8945,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="390"/>
-      <c r="B1" s="483" t="s">
+      <c r="B1" s="465" t="s">
         <v>109</v>
       </c>
       <c r="C1" s="390"/>
-      <c r="D1" s="482" t="str">
+      <c r="D1" s="464" t="str">
         <f>Данные!A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
@@ -8939,17 +8979,17 @@
       <c r="L2" s="391"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="507" t="s">
+      <c r="A3" s="508" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="507"/>
-      <c r="C3" s="507"/>
-      <c r="D3" s="507"/>
-      <c r="E3" s="507"/>
-      <c r="F3" s="507"/>
-      <c r="G3" s="507"/>
-      <c r="H3" s="507"/>
-      <c r="I3" s="507"/>
+      <c r="B3" s="508"/>
+      <c r="C3" s="508"/>
+      <c r="D3" s="508"/>
+      <c r="E3" s="508"/>
+      <c r="F3" s="508"/>
+      <c r="G3" s="508"/>
+      <c r="H3" s="508"/>
+      <c r="I3" s="508"/>
       <c r="K3" s="392"/>
       <c r="L3" s="392"/>
       <c r="M3" s="393"/>
@@ -9262,7 +9302,7 @@
         <f>Данные!$B22</f>
         <v>0</v>
       </c>
-      <c r="E14" s="481">
+      <c r="E14" s="463">
         <v>0</v>
       </c>
       <c r="F14" s="389"/>
@@ -9427,235 +9467,256 @@
       <c r="I20" s="431" t="s">
         <v>127</v>
       </c>
-      <c r="J20" s="401"/>
+      <c r="J20" s="431" t="s">
+        <v>144</v>
+      </c>
       <c r="K20" s="401"/>
       <c r="L20" s="401"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="432">
+      <c r="A21" s="471">
         <f>D6*700000</f>
         <v>15400000</v>
       </c>
-      <c r="B21" s="433">
+      <c r="B21" s="432">
         <v>43788</v>
       </c>
-      <c r="C21" s="434">
+      <c r="C21" s="433">
         <v>43790</v>
       </c>
-      <c r="D21" s="433">
+      <c r="D21" s="432">
         <v>43795</v>
       </c>
-      <c r="E21" s="435">
+      <c r="E21" s="477">
         <v>387072</v>
       </c>
-      <c r="F21" s="435">
+      <c r="F21" s="477">
         <v>432806</v>
       </c>
-      <c r="G21" s="436">
+      <c r="G21" s="434">
         <f>F21/A$21</f>
         <v>2.8104285714285714E-2</v>
       </c>
-      <c r="H21" s="437">
+      <c r="H21" s="435">
         <f>A21-F21</f>
         <v>14967194</v>
       </c>
-      <c r="I21" s="438">
+      <c r="I21" s="472">
         <f>1-G21</f>
         <v>0.97189571428571431</v>
       </c>
-      <c r="J21" s="439"/>
+      <c r="J21" s="483"/>
       <c r="K21" s="413"/>
       <c r="L21" s="413"/>
     </row>
     <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="440"/>
-      <c r="B22" s="441">
+      <c r="A22" s="408"/>
+      <c r="B22" s="437">
         <v>43815</v>
       </c>
-      <c r="C22" s="441">
+      <c r="C22" s="437">
         <v>43819</v>
       </c>
-      <c r="D22" s="441">
+      <c r="D22" s="437">
         <v>43833</v>
       </c>
-      <c r="E22" s="442">
+      <c r="E22" s="478">
         <v>661548</v>
       </c>
-      <c r="F22" s="442">
+      <c r="F22" s="478">
         <v>719672</v>
       </c>
-      <c r="G22" s="436">
+      <c r="G22" s="434">
         <f>F22/A$21</f>
         <v>4.6731948051948052E-2</v>
       </c>
-      <c r="H22" s="443">
+      <c r="H22" s="438">
         <f>H21-F22</f>
         <v>14247522</v>
       </c>
-      <c r="I22" s="444">
+      <c r="I22" s="473">
         <f>I21-G22</f>
         <v>0.92516376623376628</v>
       </c>
-      <c r="J22" s="393"/>
+      <c r="J22" s="484"/>
       <c r="K22" s="393"/>
       <c r="L22" s="393"/>
     </row>
     <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="445"/>
-      <c r="B23" s="446"/>
-      <c r="C23" s="446"/>
-      <c r="D23" s="446"/>
-      <c r="E23" s="447"/>
-      <c r="F23" s="447"/>
-      <c r="G23" s="448"/>
-      <c r="H23" s="449"/>
-      <c r="I23" s="450"/>
-      <c r="J23" s="439"/>
+      <c r="A23" s="474"/>
+      <c r="B23" s="439">
+        <v>43882</v>
+      </c>
+      <c r="C23" s="439">
+        <v>43886</v>
+      </c>
+      <c r="D23" s="439">
+        <v>43887</v>
+      </c>
+      <c r="E23" s="479">
+        <v>691488</v>
+      </c>
+      <c r="F23" s="479">
+        <v>726785</v>
+      </c>
+      <c r="G23" s="434">
+        <f>F23/A$21</f>
+        <v>4.719383116883117E-2</v>
+      </c>
+      <c r="H23" s="438">
+        <f>H22-F23</f>
+        <v>13520737</v>
+      </c>
+      <c r="I23" s="473">
+        <f>I22-G23</f>
+        <v>0.87796993506493515</v>
+      </c>
+      <c r="J23" s="485"/>
       <c r="K23" s="413"/>
       <c r="L23" s="413"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="445"/>
-      <c r="B24" s="385"/>
-      <c r="C24" s="385"/>
-      <c r="D24" s="385"/>
-      <c r="E24" s="385"/>
-      <c r="F24" s="385"/>
-      <c r="G24" s="385"/>
-      <c r="H24" s="385"/>
-      <c r="I24" s="451"/>
-      <c r="J24" s="439"/>
-      <c r="K24" s="439"/>
+      <c r="A24" s="474"/>
+      <c r="B24" s="466"/>
+      <c r="C24" s="466"/>
+      <c r="D24" s="466"/>
+      <c r="E24" s="480"/>
+      <c r="F24" s="480"/>
+      <c r="G24" s="466"/>
+      <c r="H24" s="466"/>
+      <c r="I24" s="467"/>
+      <c r="J24" s="485"/>
+      <c r="K24" s="436"/>
       <c r="L24" s="393"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="445"/>
-      <c r="B25" s="446"/>
-      <c r="C25" s="446"/>
-      <c r="D25" s="446"/>
-      <c r="E25" s="447"/>
-      <c r="F25" s="447"/>
-      <c r="G25" s="452"/>
-      <c r="H25" s="449"/>
-      <c r="I25" s="450"/>
-      <c r="J25" s="439"/>
-      <c r="K25" s="453"/>
+      <c r="A25" s="474"/>
+      <c r="B25" s="439"/>
+      <c r="C25" s="439"/>
+      <c r="D25" s="439"/>
+      <c r="E25" s="479"/>
+      <c r="F25" s="479"/>
+      <c r="G25" s="441"/>
+      <c r="H25" s="440"/>
+      <c r="I25" s="475"/>
+      <c r="J25" s="485"/>
+      <c r="K25" s="442"/>
       <c r="L25" s="393"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="445"/>
-      <c r="B26" s="446"/>
-      <c r="C26" s="446"/>
-      <c r="D26" s="446"/>
-      <c r="E26" s="447"/>
-      <c r="F26" s="447"/>
-      <c r="G26" s="452"/>
-      <c r="H26" s="449"/>
-      <c r="I26" s="450"/>
-      <c r="J26" s="439"/>
-      <c r="K26" s="439"/>
+      <c r="A26" s="474"/>
+      <c r="B26" s="439"/>
+      <c r="C26" s="439"/>
+      <c r="D26" s="439"/>
+      <c r="E26" s="479"/>
+      <c r="F26" s="479"/>
+      <c r="G26" s="441"/>
+      <c r="H26" s="440"/>
+      <c r="I26" s="475"/>
+      <c r="J26" s="485"/>
+      <c r="K26" s="436"/>
       <c r="L26" s="393"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="445"/>
-      <c r="B27" s="446"/>
-      <c r="C27" s="446"/>
-      <c r="D27" s="446"/>
-      <c r="E27" s="449"/>
-      <c r="F27" s="447"/>
-      <c r="G27" s="452"/>
-      <c r="H27" s="449"/>
-      <c r="I27" s="450"/>
-      <c r="J27" s="439"/>
-      <c r="K27" s="439"/>
+      <c r="A27" s="474"/>
+      <c r="B27" s="439"/>
+      <c r="C27" s="439"/>
+      <c r="D27" s="439"/>
+      <c r="E27" s="479"/>
+      <c r="F27" s="479"/>
+      <c r="G27" s="441"/>
+      <c r="H27" s="440"/>
+      <c r="I27" s="475"/>
+      <c r="J27" s="485"/>
+      <c r="K27" s="436"/>
       <c r="L27" s="393"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="445"/>
-      <c r="B28" s="446"/>
-      <c r="C28" s="446"/>
-      <c r="D28" s="446"/>
-      <c r="E28" s="449"/>
-      <c r="F28" s="447"/>
-      <c r="G28" s="452"/>
-      <c r="H28" s="449"/>
-      <c r="I28" s="450"/>
-      <c r="J28" s="439"/>
-      <c r="K28" s="439"/>
+      <c r="A28" s="474"/>
+      <c r="B28" s="439"/>
+      <c r="C28" s="439"/>
+      <c r="D28" s="439"/>
+      <c r="E28" s="479"/>
+      <c r="F28" s="479"/>
+      <c r="G28" s="441"/>
+      <c r="H28" s="440"/>
+      <c r="I28" s="475"/>
+      <c r="J28" s="485"/>
+      <c r="K28" s="436"/>
       <c r="L28" s="393"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="445"/>
-      <c r="B29" s="446"/>
-      <c r="C29" s="446"/>
-      <c r="D29" s="385"/>
-      <c r="E29" s="385"/>
-      <c r="F29" s="447"/>
-      <c r="G29" s="454"/>
-      <c r="H29" s="449"/>
-      <c r="I29" s="455"/>
-      <c r="J29" s="439"/>
-      <c r="K29" s="439"/>
+      <c r="A29" s="474"/>
+      <c r="B29" s="439"/>
+      <c r="C29" s="439"/>
+      <c r="D29" s="466"/>
+      <c r="E29" s="480"/>
+      <c r="F29" s="479"/>
+      <c r="G29" s="443"/>
+      <c r="H29" s="440"/>
+      <c r="I29" s="468"/>
+      <c r="J29" s="485"/>
+      <c r="K29" s="436"/>
       <c r="L29" s="393"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="445"/>
-      <c r="B30" s="446"/>
-      <c r="C30" s="446"/>
-      <c r="D30" s="385"/>
-      <c r="E30" s="385"/>
-      <c r="F30" s="447"/>
-      <c r="G30" s="452"/>
-      <c r="H30" s="449"/>
-      <c r="I30" s="455"/>
-      <c r="J30" s="439"/>
-      <c r="K30" s="439"/>
+      <c r="A30" s="474"/>
+      <c r="B30" s="439"/>
+      <c r="C30" s="439"/>
+      <c r="D30" s="466"/>
+      <c r="E30" s="480"/>
+      <c r="F30" s="479"/>
+      <c r="G30" s="441"/>
+      <c r="H30" s="440"/>
+      <c r="I30" s="468"/>
+      <c r="J30" s="485"/>
+      <c r="K30" s="436"/>
       <c r="L30" s="393"/>
     </row>
     <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="456"/>
-      <c r="B31" s="457"/>
-      <c r="C31" s="457"/>
-      <c r="D31" s="458"/>
-      <c r="E31" s="458"/>
-      <c r="F31" s="459"/>
-      <c r="G31" s="460"/>
-      <c r="H31" s="461"/>
-      <c r="I31" s="462"/>
-      <c r="J31" s="393"/>
+      <c r="A31" s="476"/>
+      <c r="B31" s="444"/>
+      <c r="C31" s="444"/>
+      <c r="D31" s="469"/>
+      <c r="E31" s="481"/>
+      <c r="F31" s="482"/>
+      <c r="G31" s="445"/>
+      <c r="H31" s="446"/>
+      <c r="I31" s="470"/>
+      <c r="J31" s="485"/>
       <c r="K31" s="393"/>
       <c r="L31" s="393"/>
     </row>
     <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="463" t="s">
+      <c r="A32" s="447" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="464"/>
-      <c r="C32" s="464"/>
-      <c r="D32" s="465"/>
-      <c r="E32" s="466">
+      <c r="B32" s="448"/>
+      <c r="C32" s="448"/>
+      <c r="D32" s="449"/>
+      <c r="E32" s="486">
         <f>SUM(E21:E31)</f>
-        <v>1048620</v>
-      </c>
-      <c r="F32" s="467">
+        <v>1740108</v>
+      </c>
+      <c r="F32" s="487">
         <f>SUM(F21:F31)</f>
-        <v>1152478</v>
-      </c>
-      <c r="G32" s="468">
+        <v>1879263</v>
+      </c>
+      <c r="G32" s="450">
         <f>SUM(G21:G31)</f>
-        <v>7.4836233766233773E-2</v>
-      </c>
-      <c r="H32" s="469">
+        <v>0.12203006493506494</v>
+      </c>
+      <c r="H32" s="451">
         <f>A21-F32</f>
-        <v>14247522</v>
-      </c>
-      <c r="I32" s="470">
+        <v>13520737</v>
+      </c>
+      <c r="I32" s="452">
         <f>1-G32</f>
-        <v>0.92516376623376617</v>
-      </c>
-      <c r="J32" s="471"/>
-      <c r="K32" s="471"/>
-      <c r="L32" s="471"/>
+        <v>0.87796993506493504</v>
+      </c>
+      <c r="J32" s="452"/>
+      <c r="K32" s="453"/>
+      <c r="L32" s="453"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="393"/>
@@ -9670,12 +9731,12 @@
       <c r="J35" s="393"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="508" t="s">
+      <c r="A36" s="509" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="508"/>
-      <c r="C36" s="508"/>
-      <c r="D36" s="508"/>
+      <c r="B36" s="509"/>
+      <c r="C36" s="509"/>
+      <c r="D36" s="509"/>
       <c r="E36" s="393"/>
       <c r="F36" s="393"/>
       <c r="G36" s="393"/>
@@ -9684,14 +9745,14 @@
       <c r="J36" s="393"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="509" t="s">
+      <c r="A37" s="510" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="509"/>
-      <c r="C37" s="472" t="s">
+      <c r="B37" s="510"/>
+      <c r="C37" s="454" t="s">
         <v>131</v>
       </c>
-      <c r="D37" s="472" t="s">
+      <c r="D37" s="454" t="s">
         <v>132</v>
       </c>
       <c r="E37" s="393"/>
@@ -9702,27 +9763,27 @@
       <c r="J37" s="393"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="510">
+      <c r="A38" s="511">
         <f>A21-F32</f>
-        <v>14247522</v>
-      </c>
-      <c r="B38" s="511"/>
-      <c r="C38" s="473">
+        <v>13520737</v>
+      </c>
+      <c r="B38" s="512"/>
+      <c r="C38" s="455">
         <f>1-G32</f>
-        <v>0.92516376623376617</v>
-      </c>
-      <c r="D38" s="474">
+        <v>0.87796993506493504</v>
+      </c>
+      <c r="D38" s="456">
         <f>(C38/0.8)*100</f>
-        <v>115.64547077922076</v>
-      </c>
-      <c r="E38" s="475" t="s">
+        <v>109.74624188311688</v>
+      </c>
+      <c r="E38" s="457" t="s">
         <v>133</v>
       </c>
-      <c r="F38" s="475"/>
-      <c r="G38" s="475"/>
-      <c r="H38" s="475"/>
-      <c r="I38" s="475"/>
-      <c r="J38" s="475"/>
+      <c r="F38" s="457"/>
+      <c r="G38" s="457"/>
+      <c r="H38" s="457"/>
+      <c r="I38" s="457"/>
+      <c r="J38" s="457"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="393"/>
@@ -9749,8 +9810,8 @@
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="393"/>
-      <c r="B41" s="476"/>
-      <c r="C41" s="476"/>
+      <c r="B41" s="458"/>
+      <c r="C41" s="458"/>
       <c r="D41" s="393"/>
       <c r="E41" s="393"/>
       <c r="F41" s="393"/>
@@ -9760,113 +9821,113 @@
       <c r="J41" s="393"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="477"/>
-      <c r="B42" s="477"/>
-      <c r="C42" s="477"/>
-      <c r="D42" s="477"/>
-      <c r="E42" s="477"/>
-      <c r="F42" s="477"/>
-      <c r="G42" s="477"/>
-      <c r="H42" s="477"/>
-      <c r="I42" s="502"/>
-      <c r="J42" s="503"/>
+      <c r="A42" s="459"/>
+      <c r="B42" s="459"/>
+      <c r="C42" s="459"/>
+      <c r="D42" s="459"/>
+      <c r="E42" s="459"/>
+      <c r="F42" s="459"/>
+      <c r="G42" s="459"/>
+      <c r="H42" s="459"/>
+      <c r="I42" s="513"/>
+      <c r="J42" s="514"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="478"/>
-      <c r="B43" s="479"/>
-      <c r="C43" s="479"/>
+      <c r="A43" s="460"/>
+      <c r="B43" s="461"/>
+      <c r="C43" s="461"/>
       <c r="D43" s="393"/>
       <c r="E43" s="393"/>
-      <c r="F43" s="479"/>
+      <c r="F43" s="461"/>
       <c r="G43" s="423"/>
-      <c r="H43" s="479"/>
+      <c r="H43" s="461"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="478"/>
-      <c r="B44" s="479"/>
-      <c r="C44" s="479"/>
-      <c r="D44" s="479"/>
-      <c r="E44" s="479"/>
-      <c r="F44" s="479"/>
+      <c r="A44" s="460"/>
+      <c r="B44" s="461"/>
+      <c r="C44" s="461"/>
+      <c r="D44" s="461"/>
+      <c r="E44" s="461"/>
+      <c r="F44" s="461"/>
       <c r="G44" s="423"/>
-      <c r="H44" s="479"/>
+      <c r="H44" s="461"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="478"/>
-      <c r="B45" s="479"/>
-      <c r="C45" s="479"/>
+      <c r="A45" s="460"/>
+      <c r="B45" s="461"/>
+      <c r="C45" s="461"/>
       <c r="D45" s="393"/>
       <c r="E45" s="393"/>
-      <c r="F45" s="479"/>
+      <c r="F45" s="461"/>
       <c r="G45" s="423"/>
-      <c r="H45" s="479"/>
+      <c r="H45" s="461"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="478"/>
-      <c r="B46" s="479"/>
-      <c r="C46" s="479"/>
-      <c r="D46" s="479"/>
-      <c r="E46" s="479"/>
-      <c r="F46" s="479"/>
+      <c r="A46" s="460"/>
+      <c r="B46" s="461"/>
+      <c r="C46" s="461"/>
+      <c r="D46" s="461"/>
+      <c r="E46" s="461"/>
+      <c r="F46" s="461"/>
       <c r="G46" s="423"/>
-      <c r="H46" s="479"/>
+      <c r="H46" s="461"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="478"/>
-      <c r="B47" s="479"/>
-      <c r="C47" s="479"/>
+      <c r="A47" s="460"/>
+      <c r="B47" s="461"/>
+      <c r="C47" s="461"/>
       <c r="D47" s="393"/>
       <c r="E47" s="393"/>
-      <c r="F47" s="479"/>
+      <c r="F47" s="461"/>
       <c r="G47" s="423"/>
-      <c r="H47" s="479"/>
+      <c r="H47" s="461"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="478"/>
-      <c r="B48" s="479"/>
+      <c r="A48" s="460"/>
+      <c r="B48" s="461"/>
       <c r="C48" s="413"/>
-      <c r="D48" s="480"/>
-      <c r="E48" s="480"/>
+      <c r="D48" s="462"/>
+      <c r="E48" s="462"/>
       <c r="F48" s="413"/>
       <c r="G48" s="413"/>
       <c r="H48" s="413"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="478"/>
-      <c r="B49" s="479"/>
-      <c r="C49" s="479"/>
-      <c r="D49" s="479"/>
-      <c r="E49" s="479"/>
-      <c r="F49" s="479"/>
+      <c r="A49" s="460"/>
+      <c r="B49" s="461"/>
+      <c r="C49" s="461"/>
+      <c r="D49" s="461"/>
+      <c r="E49" s="461"/>
+      <c r="F49" s="461"/>
       <c r="G49" s="423"/>
-      <c r="H49" s="479"/>
+      <c r="H49" s="461"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="478"/>
-      <c r="B50" s="479"/>
-      <c r="C50" s="479"/>
-      <c r="D50" s="479"/>
-      <c r="E50" s="479"/>
-      <c r="F50" s="479"/>
+      <c r="A50" s="460"/>
+      <c r="B50" s="461"/>
+      <c r="C50" s="461"/>
+      <c r="D50" s="461"/>
+      <c r="E50" s="461"/>
+      <c r="F50" s="461"/>
       <c r="G50" s="423"/>
-      <c r="H50" s="479"/>
+      <c r="H50" s="461"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="478"/>
-      <c r="B51" s="479"/>
-      <c r="C51" s="479"/>
+      <c r="A51" s="460"/>
+      <c r="B51" s="461"/>
+      <c r="C51" s="461"/>
       <c r="D51" s="393"/>
       <c r="E51" s="393"/>
-      <c r="F51" s="479"/>
+      <c r="F51" s="461"/>
       <c r="G51" s="423"/>
-      <c r="H51" s="479"/>
+      <c r="H51" s="461"/>
     </row>
     <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="393"/>
-      <c r="B52" s="505"/>
-      <c r="C52" s="505"/>
-      <c r="D52" s="506"/>
-      <c r="E52" s="475"/>
+      <c r="B52" s="506"/>
+      <c r="C52" s="506"/>
+      <c r="D52" s="507"/>
+      <c r="E52" s="457"/>
       <c r="F52" s="393"/>
       <c r="G52" s="393"/>
       <c r="H52" s="393"/>
@@ -9874,31 +9935,31 @@
       <c r="J52" s="393"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="477"/>
-      <c r="B53" s="477"/>
-      <c r="C53" s="477"/>
-      <c r="D53" s="477"/>
-      <c r="E53" s="477"/>
-      <c r="F53" s="477"/>
-      <c r="G53" s="477"/>
-      <c r="H53" s="477"/>
-      <c r="I53" s="502"/>
-      <c r="J53" s="503"/>
+      <c r="A53" s="459"/>
+      <c r="B53" s="459"/>
+      <c r="C53" s="459"/>
+      <c r="D53" s="459"/>
+      <c r="E53" s="459"/>
+      <c r="F53" s="459"/>
+      <c r="G53" s="459"/>
+      <c r="H53" s="459"/>
+      <c r="I53" s="513"/>
+      <c r="J53" s="514"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="478"/>
+      <c r="A54" s="460"/>
       <c r="B54" s="393"/>
       <c r="C54" s="393"/>
       <c r="D54" s="393"/>
       <c r="E54" s="393"/>
       <c r="F54" s="423"/>
       <c r="G54" s="423"/>
-      <c r="H54" s="479"/>
-      <c r="I54" s="504"/>
-      <c r="J54" s="504"/>
+      <c r="H54" s="461"/>
+      <c r="I54" s="515"/>
+      <c r="J54" s="515"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="478"/>
+      <c r="A55" s="460"/>
       <c r="B55" s="393"/>
       <c r="C55" s="393"/>
       <c r="D55" s="413"/>
@@ -9906,8 +9967,8 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="504"/>
-      <c r="J55" s="504"/>
+      <c r="I55" s="515"/>
+      <c r="J55" s="515"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="393"/>
@@ -9920,26 +9981,26 @@
       <c r="H56" s="393"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="502"/>
-      <c r="C61" s="503"/>
+      <c r="B61" s="513"/>
+      <c r="C61" s="514"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="502"/>
-      <c r="C68" s="503"/>
+      <c r="B68" s="513"/>
+      <c r="C68" s="514"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10022,47 +10083,47 @@
       <c r="J8" s="317"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="537" t="s">
+      <c r="A11" s="517" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="537"/>
-      <c r="C11" s="537"/>
-      <c r="D11" s="537"/>
-      <c r="E11" s="537"/>
-      <c r="F11" s="537"/>
-      <c r="G11" s="537"/>
-      <c r="H11" s="537"/>
-      <c r="I11" s="537"/>
-      <c r="J11" s="537"/>
+      <c r="B11" s="517"/>
+      <c r="C11" s="517"/>
+      <c r="D11" s="517"/>
+      <c r="E11" s="517"/>
+      <c r="F11" s="517"/>
+      <c r="G11" s="517"/>
+      <c r="H11" s="517"/>
+      <c r="I11" s="517"/>
+      <c r="J11" s="517"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="536" t="s">
+      <c r="A12" s="516" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="536"/>
-      <c r="C12" s="536"/>
-      <c r="D12" s="536"/>
-      <c r="E12" s="536"/>
-      <c r="F12" s="536"/>
-      <c r="G12" s="536"/>
-      <c r="H12" s="536"/>
-      <c r="I12" s="536"/>
-      <c r="J12" s="536"/>
+      <c r="B12" s="516"/>
+      <c r="C12" s="516"/>
+      <c r="D12" s="516"/>
+      <c r="E12" s="516"/>
+      <c r="F12" s="516"/>
+      <c r="G12" s="516"/>
+      <c r="H12" s="516"/>
+      <c r="I12" s="516"/>
+      <c r="J12" s="516"/>
     </row>
     <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="538" t="str">
+      <c r="A13" s="518" t="str">
         <f>Данные!A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="B13" s="537"/>
-      <c r="C13" s="537"/>
-      <c r="D13" s="537"/>
-      <c r="E13" s="537"/>
-      <c r="F13" s="537"/>
-      <c r="G13" s="537"/>
-      <c r="H13" s="537"/>
-      <c r="I13" s="537"/>
-      <c r="J13" s="537"/>
+      <c r="B13" s="517"/>
+      <c r="C13" s="517"/>
+      <c r="D13" s="517"/>
+      <c r="E13" s="517"/>
+      <c r="F13" s="517"/>
+      <c r="G13" s="517"/>
+      <c r="H13" s="517"/>
+      <c r="I13" s="517"/>
+      <c r="J13" s="517"/>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="311" t="s">
@@ -10187,482 +10248,482 @@
       <c r="J21" s="312"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="534" t="s">
+      <c r="A22" s="522" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="534" t="s">
+      <c r="B22" s="522" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="534"/>
-      <c r="D22" s="534"/>
-      <c r="E22" s="534" t="s">
+      <c r="C22" s="522"/>
+      <c r="D22" s="522"/>
+      <c r="E22" s="522" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="534"/>
-      <c r="G22" s="535" t="s">
+      <c r="F22" s="522"/>
+      <c r="G22" s="540" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="534" t="s">
+      <c r="H22" s="522" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="534"/>
-      <c r="J22" s="534"/>
+      <c r="I22" s="522"/>
+      <c r="J22" s="522"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="534"/>
-      <c r="B23" s="534"/>
-      <c r="C23" s="534"/>
-      <c r="D23" s="534"/>
-      <c r="E23" s="534"/>
-      <c r="F23" s="534"/>
-      <c r="G23" s="535"/>
-      <c r="H23" s="534"/>
-      <c r="I23" s="534"/>
-      <c r="J23" s="534"/>
+      <c r="A23" s="522"/>
+      <c r="B23" s="522"/>
+      <c r="C23" s="522"/>
+      <c r="D23" s="522"/>
+      <c r="E23" s="522"/>
+      <c r="F23" s="522"/>
+      <c r="G23" s="540"/>
+      <c r="H23" s="522"/>
+      <c r="I23" s="522"/>
+      <c r="J23" s="522"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="512">
+      <c r="A24" s="523">
         <v>1</v>
       </c>
-      <c r="B24" s="539" t="s">
+      <c r="B24" s="537" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="540"/>
-      <c r="D24" s="541"/>
-      <c r="E24" s="517" t="str">
+      <c r="C24" s="538"/>
+      <c r="D24" s="539"/>
+      <c r="E24" s="525" t="str">
         <f>Данные!C14</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F24" s="518"/>
-      <c r="G24" s="521">
+      <c r="F24" s="526"/>
+      <c r="G24" s="529">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="H24" s="523"/>
-      <c r="I24" s="524"/>
-      <c r="J24" s="525"/>
+      <c r="H24" s="531"/>
+      <c r="I24" s="532"/>
+      <c r="J24" s="533"/>
     </row>
     <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="532"/>
-      <c r="B25" s="529" t="str">
+      <c r="A25" s="524"/>
+      <c r="B25" s="519" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C25" s="530"/>
-      <c r="D25" s="531"/>
-      <c r="E25" s="533"/>
-      <c r="F25" s="520"/>
-      <c r="G25" s="522"/>
-      <c r="H25" s="526"/>
-      <c r="I25" s="527"/>
-      <c r="J25" s="528"/>
+      <c r="C25" s="520"/>
+      <c r="D25" s="521"/>
+      <c r="E25" s="527"/>
+      <c r="F25" s="528"/>
+      <c r="G25" s="530"/>
+      <c r="H25" s="534"/>
+      <c r="I25" s="535"/>
+      <c r="J25" s="536"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="512">
+      <c r="A26" s="523">
         <v>1</v>
       </c>
-      <c r="B26" s="514" t="s">
+      <c r="B26" s="541" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="515"/>
-      <c r="D26" s="516"/>
-      <c r="E26" s="517" t="str">
+      <c r="C26" s="542"/>
+      <c r="D26" s="543"/>
+      <c r="E26" s="525" t="str">
         <f>Данные!C15</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F26" s="518"/>
-      <c r="G26" s="521">
+      <c r="F26" s="526"/>
+      <c r="G26" s="529">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="H26" s="523"/>
-      <c r="I26" s="524"/>
-      <c r="J26" s="525"/>
+      <c r="H26" s="531"/>
+      <c r="I26" s="532"/>
+      <c r="J26" s="533"/>
     </row>
     <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="532"/>
-      <c r="B27" s="529" t="str">
+      <c r="A27" s="524"/>
+      <c r="B27" s="519" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C27" s="530"/>
-      <c r="D27" s="531"/>
-      <c r="E27" s="533"/>
-      <c r="F27" s="520"/>
-      <c r="G27" s="522"/>
-      <c r="H27" s="526"/>
-      <c r="I27" s="527"/>
-      <c r="J27" s="528"/>
+      <c r="C27" s="520"/>
+      <c r="D27" s="521"/>
+      <c r="E27" s="527"/>
+      <c r="F27" s="528"/>
+      <c r="G27" s="530"/>
+      <c r="H27" s="534"/>
+      <c r="I27" s="535"/>
+      <c r="J27" s="536"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="512">
+      <c r="A28" s="523">
         <v>1</v>
       </c>
-      <c r="B28" s="514" t="s">
+      <c r="B28" s="541" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="515"/>
-      <c r="D28" s="516"/>
-      <c r="E28" s="517" t="str">
+      <c r="C28" s="542"/>
+      <c r="D28" s="543"/>
+      <c r="E28" s="525" t="str">
         <f>Данные!C16</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F28" s="518"/>
-      <c r="G28" s="521">
+      <c r="F28" s="526"/>
+      <c r="G28" s="529">
         <f>Данные!B16</f>
         <v>24</v>
       </c>
-      <c r="H28" s="523"/>
-      <c r="I28" s="524"/>
-      <c r="J28" s="525"/>
+      <c r="H28" s="531"/>
+      <c r="I28" s="532"/>
+      <c r="J28" s="533"/>
     </row>
     <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="532"/>
-      <c r="B29" s="529" t="str">
+      <c r="A29" s="524"/>
+      <c r="B29" s="519" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C29" s="530"/>
-      <c r="D29" s="531"/>
-      <c r="E29" s="533"/>
-      <c r="F29" s="520"/>
-      <c r="G29" s="522"/>
-      <c r="H29" s="526"/>
-      <c r="I29" s="527"/>
-      <c r="J29" s="528"/>
+      <c r="C29" s="520"/>
+      <c r="D29" s="521"/>
+      <c r="E29" s="527"/>
+      <c r="F29" s="528"/>
+      <c r="G29" s="530"/>
+      <c r="H29" s="534"/>
+      <c r="I29" s="535"/>
+      <c r="J29" s="536"/>
     </row>
     <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="512">
+      <c r="A30" s="523">
         <v>1</v>
       </c>
-      <c r="B30" s="514" t="s">
+      <c r="B30" s="541" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="515"/>
-      <c r="D30" s="516"/>
-      <c r="E30" s="517" t="str">
+      <c r="C30" s="542"/>
+      <c r="D30" s="543"/>
+      <c r="E30" s="525" t="str">
         <f>Данные!C17</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F30" s="518"/>
-      <c r="G30" s="521">
+      <c r="F30" s="526"/>
+      <c r="G30" s="529">
         <f>Данные!B17</f>
         <v>24</v>
       </c>
-      <c r="H30" s="523"/>
-      <c r="I30" s="524"/>
-      <c r="J30" s="525"/>
+      <c r="H30" s="531"/>
+      <c r="I30" s="532"/>
+      <c r="J30" s="533"/>
     </row>
     <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="513"/>
-      <c r="B31" s="529" t="str">
+      <c r="A31" s="544"/>
+      <c r="B31" s="519" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C31" s="530"/>
-      <c r="D31" s="531"/>
-      <c r="E31" s="519"/>
-      <c r="F31" s="520"/>
-      <c r="G31" s="522"/>
-      <c r="H31" s="526"/>
-      <c r="I31" s="527"/>
-      <c r="J31" s="528"/>
+      <c r="C31" s="520"/>
+      <c r="D31" s="521"/>
+      <c r="E31" s="545"/>
+      <c r="F31" s="528"/>
+      <c r="G31" s="530"/>
+      <c r="H31" s="534"/>
+      <c r="I31" s="535"/>
+      <c r="J31" s="536"/>
     </row>
     <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="512">
+      <c r="A32" s="523">
         <v>1</v>
       </c>
-      <c r="B32" s="514" t="s">
+      <c r="B32" s="541" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="515"/>
-      <c r="D32" s="516"/>
-      <c r="E32" s="517" t="str">
+      <c r="C32" s="542"/>
+      <c r="D32" s="543"/>
+      <c r="E32" s="525" t="str">
         <f>Данные!C18</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F32" s="518"/>
-      <c r="G32" s="521">
+      <c r="F32" s="526"/>
+      <c r="G32" s="529">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="H32" s="523"/>
-      <c r="I32" s="524"/>
-      <c r="J32" s="525"/>
+      <c r="H32" s="531"/>
+      <c r="I32" s="532"/>
+      <c r="J32" s="533"/>
     </row>
     <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="513"/>
-      <c r="B33" s="529" t="str">
+      <c r="A33" s="544"/>
+      <c r="B33" s="519" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C33" s="530"/>
-      <c r="D33" s="531"/>
-      <c r="E33" s="519"/>
-      <c r="F33" s="520"/>
-      <c r="G33" s="522"/>
-      <c r="H33" s="526"/>
-      <c r="I33" s="527"/>
-      <c r="J33" s="528"/>
+      <c r="C33" s="520"/>
+      <c r="D33" s="521"/>
+      <c r="E33" s="545"/>
+      <c r="F33" s="528"/>
+      <c r="G33" s="530"/>
+      <c r="H33" s="534"/>
+      <c r="I33" s="535"/>
+      <c r="J33" s="536"/>
     </row>
     <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="512">
+      <c r="A34" s="523">
         <v>1</v>
       </c>
-      <c r="B34" s="514" t="s">
+      <c r="B34" s="541" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="515"/>
-      <c r="D34" s="516"/>
-      <c r="E34" s="517" t="str">
+      <c r="C34" s="542"/>
+      <c r="D34" s="543"/>
+      <c r="E34" s="525" t="str">
         <f>Данные!C19</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F34" s="518"/>
-      <c r="G34" s="521">
+      <c r="F34" s="526"/>
+      <c r="G34" s="529">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="H34" s="523"/>
-      <c r="I34" s="524"/>
-      <c r="J34" s="525"/>
+      <c r="H34" s="531"/>
+      <c r="I34" s="532"/>
+      <c r="J34" s="533"/>
     </row>
     <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="513"/>
-      <c r="B35" s="529" t="str">
+      <c r="A35" s="544"/>
+      <c r="B35" s="519" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C35" s="530"/>
-      <c r="D35" s="531"/>
-      <c r="E35" s="519"/>
-      <c r="F35" s="520"/>
-      <c r="G35" s="522"/>
-      <c r="H35" s="526"/>
-      <c r="I35" s="527"/>
-      <c r="J35" s="528"/>
+      <c r="C35" s="520"/>
+      <c r="D35" s="521"/>
+      <c r="E35" s="545"/>
+      <c r="F35" s="528"/>
+      <c r="G35" s="530"/>
+      <c r="H35" s="534"/>
+      <c r="I35" s="535"/>
+      <c r="J35" s="536"/>
     </row>
     <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="512">
+      <c r="A36" s="523">
         <v>1</v>
       </c>
-      <c r="B36" s="514" t="s">
+      <c r="B36" s="541" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="515"/>
-      <c r="D36" s="516"/>
-      <c r="E36" s="517" t="str">
+      <c r="C36" s="542"/>
+      <c r="D36" s="543"/>
+      <c r="E36" s="525" t="str">
         <f>Данные!C20</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F36" s="518"/>
-      <c r="G36" s="521">
+      <c r="F36" s="526"/>
+      <c r="G36" s="529">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="523"/>
-      <c r="I36" s="524"/>
-      <c r="J36" s="525"/>
+      <c r="H36" s="531"/>
+      <c r="I36" s="532"/>
+      <c r="J36" s="533"/>
     </row>
     <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="513"/>
-      <c r="B37" s="529" t="str">
+      <c r="A37" s="544"/>
+      <c r="B37" s="519" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C37" s="530"/>
-      <c r="D37" s="531"/>
-      <c r="E37" s="519"/>
-      <c r="F37" s="520"/>
-      <c r="G37" s="522"/>
-      <c r="H37" s="526"/>
-      <c r="I37" s="527"/>
-      <c r="J37" s="528"/>
+      <c r="C37" s="520"/>
+      <c r="D37" s="521"/>
+      <c r="E37" s="545"/>
+      <c r="F37" s="528"/>
+      <c r="G37" s="530"/>
+      <c r="H37" s="534"/>
+      <c r="I37" s="535"/>
+      <c r="J37" s="536"/>
     </row>
     <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="512">
+      <c r="A38" s="523">
         <v>1</v>
       </c>
-      <c r="B38" s="514" t="s">
+      <c r="B38" s="541" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="515"/>
-      <c r="D38" s="516"/>
-      <c r="E38" s="517" t="str">
+      <c r="C38" s="542"/>
+      <c r="D38" s="543"/>
+      <c r="E38" s="525" t="str">
         <f>Данные!C21</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F38" s="518"/>
-      <c r="G38" s="521">
+      <c r="F38" s="526"/>
+      <c r="G38" s="529">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="523"/>
-      <c r="I38" s="524"/>
-      <c r="J38" s="525"/>
+      <c r="H38" s="531"/>
+      <c r="I38" s="532"/>
+      <c r="J38" s="533"/>
     </row>
     <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="513"/>
-      <c r="B39" s="529" t="str">
+      <c r="A39" s="544"/>
+      <c r="B39" s="519" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C39" s="530"/>
-      <c r="D39" s="531"/>
-      <c r="E39" s="519"/>
-      <c r="F39" s="520"/>
-      <c r="G39" s="522"/>
-      <c r="H39" s="526"/>
-      <c r="I39" s="527"/>
-      <c r="J39" s="528"/>
+      <c r="C39" s="520"/>
+      <c r="D39" s="521"/>
+      <c r="E39" s="545"/>
+      <c r="F39" s="528"/>
+      <c r="G39" s="530"/>
+      <c r="H39" s="534"/>
+      <c r="I39" s="535"/>
+      <c r="J39" s="536"/>
     </row>
     <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="512">
+      <c r="A40" s="523">
         <v>1</v>
       </c>
-      <c r="B40" s="514" t="s">
+      <c r="B40" s="541" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="515"/>
-      <c r="D40" s="516"/>
-      <c r="E40" s="517" t="str">
+      <c r="C40" s="542"/>
+      <c r="D40" s="543"/>
+      <c r="E40" s="525" t="str">
         <f>Данные!C23</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F40" s="518"/>
-      <c r="G40" s="521">
+      <c r="F40" s="526"/>
+      <c r="G40" s="529">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H40" s="523"/>
-      <c r="I40" s="524"/>
-      <c r="J40" s="525"/>
+      <c r="H40" s="531"/>
+      <c r="I40" s="532"/>
+      <c r="J40" s="533"/>
     </row>
     <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="513"/>
-      <c r="B41" s="529" t="str">
+      <c r="A41" s="544"/>
+      <c r="B41" s="519" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C41" s="530"/>
-      <c r="D41" s="531"/>
-      <c r="E41" s="519"/>
-      <c r="F41" s="520"/>
-      <c r="G41" s="522"/>
-      <c r="H41" s="526"/>
-      <c r="I41" s="527"/>
-      <c r="J41" s="528"/>
+      <c r="C41" s="520"/>
+      <c r="D41" s="521"/>
+      <c r="E41" s="545"/>
+      <c r="F41" s="528"/>
+      <c r="G41" s="530"/>
+      <c r="H41" s="534"/>
+      <c r="I41" s="535"/>
+      <c r="J41" s="536"/>
     </row>
     <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="512">
+      <c r="A42" s="523">
         <v>1</v>
       </c>
-      <c r="B42" s="514" t="s">
+      <c r="B42" s="541" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="515"/>
-      <c r="D42" s="516"/>
-      <c r="E42" s="517" t="str">
+      <c r="C42" s="542"/>
+      <c r="D42" s="543"/>
+      <c r="E42" s="525" t="str">
         <f>Данные!C26</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F42" s="518"/>
-      <c r="G42" s="521">
+      <c r="F42" s="526"/>
+      <c r="G42" s="529">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H42" s="523"/>
-      <c r="I42" s="524"/>
-      <c r="J42" s="525"/>
+      <c r="H42" s="531"/>
+      <c r="I42" s="532"/>
+      <c r="J42" s="533"/>
     </row>
     <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="513"/>
-      <c r="B43" s="529" t="str">
+      <c r="A43" s="544"/>
+      <c r="B43" s="519" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C43" s="530"/>
-      <c r="D43" s="531"/>
-      <c r="E43" s="519"/>
-      <c r="F43" s="520"/>
-      <c r="G43" s="522"/>
-      <c r="H43" s="526"/>
-      <c r="I43" s="527"/>
-      <c r="J43" s="528"/>
+      <c r="C43" s="520"/>
+      <c r="D43" s="521"/>
+      <c r="E43" s="545"/>
+      <c r="F43" s="528"/>
+      <c r="G43" s="530"/>
+      <c r="H43" s="534"/>
+      <c r="I43" s="535"/>
+      <c r="J43" s="536"/>
     </row>
     <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="512">
+      <c r="A44" s="523">
         <v>1</v>
       </c>
-      <c r="B44" s="514" t="s">
+      <c r="B44" s="541" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="515"/>
-      <c r="D44" s="516"/>
-      <c r="E44" s="517">
+      <c r="C44" s="542"/>
+      <c r="D44" s="543"/>
+      <c r="E44" s="525">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="518"/>
-      <c r="G44" s="521">
+      <c r="F44" s="526"/>
+      <c r="G44" s="529">
         <f>Данные!B27</f>
         <v>18</v>
       </c>
-      <c r="H44" s="523"/>
-      <c r="I44" s="524"/>
-      <c r="J44" s="525"/>
+      <c r="H44" s="531"/>
+      <c r="I44" s="532"/>
+      <c r="J44" s="533"/>
     </row>
     <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="513"/>
-      <c r="B45" s="529" t="str">
+      <c r="A45" s="544"/>
+      <c r="B45" s="519" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C45" s="530"/>
-      <c r="D45" s="531"/>
-      <c r="E45" s="519"/>
-      <c r="F45" s="520"/>
-      <c r="G45" s="522"/>
-      <c r="H45" s="526"/>
-      <c r="I45" s="527"/>
-      <c r="J45" s="528"/>
+      <c r="C45" s="520"/>
+      <c r="D45" s="521"/>
+      <c r="E45" s="545"/>
+      <c r="F45" s="528"/>
+      <c r="G45" s="530"/>
+      <c r="H45" s="534"/>
+      <c r="I45" s="535"/>
+      <c r="J45" s="536"/>
     </row>
     <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="512">
+      <c r="A46" s="523">
         <v>1</v>
       </c>
-      <c r="B46" s="514" t="s">
+      <c r="B46" s="541" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="515"/>
-      <c r="D46" s="516"/>
-      <c r="E46" s="517" t="str">
+      <c r="C46" s="542"/>
+      <c r="D46" s="543"/>
+      <c r="E46" s="525" t="str">
         <f>Данные!C24</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F46" s="518"/>
-      <c r="G46" s="521">
+      <c r="F46" s="526"/>
+      <c r="G46" s="529">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="523"/>
-      <c r="I46" s="524"/>
-      <c r="J46" s="525"/>
+      <c r="H46" s="531"/>
+      <c r="I46" s="532"/>
+      <c r="J46" s="533"/>
     </row>
     <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="513"/>
-      <c r="B47" s="529" t="str">
+      <c r="A47" s="544"/>
+      <c r="B47" s="519" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C47" s="530"/>
-      <c r="D47" s="531"/>
-      <c r="E47" s="519"/>
-      <c r="F47" s="520"/>
-      <c r="G47" s="522"/>
-      <c r="H47" s="526"/>
-      <c r="I47" s="527"/>
-      <c r="J47" s="528"/>
+      <c r="C47" s="520"/>
+      <c r="D47" s="521"/>
+      <c r="E47" s="545"/>
+      <c r="F47" s="528"/>
+      <c r="G47" s="530"/>
+      <c r="H47" s="534"/>
+      <c r="I47" s="535"/>
+      <c r="J47" s="536"/>
     </row>
     <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="311"/>
@@ -10791,6 +10852,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -10807,70 +10932,6 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10925,47 +10986,47 @@
     </row>
     <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="542"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="544"/>
-      <c r="E2" s="551" t="s">
+      <c r="B2" s="564"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="566"/>
+      <c r="E2" s="573" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="553"/>
-      <c r="I2" s="558" t="s">
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="575"/>
+      <c r="I2" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="559"/>
-      <c r="K2" s="562">
+      <c r="J2" s="581"/>
+      <c r="K2" s="584">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="L2" s="563"/>
+      <c r="L2" s="585"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="554"/>
-      <c r="Q2" s="554"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="576"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="545"/>
-      <c r="C3" s="546"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="555" t="s">
+      <c r="B3" s="567"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="577" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="556"/>
-      <c r="G3" s="556"/>
-      <c r="H3" s="557"/>
-      <c r="I3" s="560"/>
-      <c r="J3" s="561"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="565"/>
+      <c r="F3" s="578"/>
+      <c r="G3" s="578"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="586"/>
+      <c r="L3" s="587"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -10976,9 +11037,9 @@
     </row>
     <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="548"/>
-      <c r="C4" s="549"/>
-      <c r="D4" s="550"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -10997,22 +11058,22 @@
     </row>
     <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="549" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="550"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="571"/>
-      <c r="J5" s="572"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="551"/>
+      <c r="J5" s="552"/>
+      <c r="K5" s="499"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11023,22 +11084,22 @@
     </row>
     <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="549" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="573"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="553"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="571"/>
-      <c r="J6" s="572"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="554"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="551"/>
+      <c r="J6" s="552"/>
+      <c r="K6" s="499"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11049,27 +11110,27 @@
     </row>
     <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="577"/>
-      <c r="D7" s="499">
+      <c r="C7" s="557"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="576" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="580"/>
-      <c r="K7" s="487">
+      <c r="J7" s="560"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11563,12 +11624,12 @@
     </row>
     <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A23" s="78"/>
-      <c r="B23" s="581" t="s">
+      <c r="B23" s="561" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="582"/>
-      <c r="D23" s="582"/>
-      <c r="E23" s="583"/>
+      <c r="C23" s="562"/>
+      <c r="D23" s="562"/>
+      <c r="E23" s="563"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
@@ -11590,12 +11651,12 @@
     </row>
     <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="78"/>
-      <c r="B24" s="566" t="s">
+      <c r="B24" s="546" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="567"/>
-      <c r="D24" s="567"/>
-      <c r="E24" s="568"/>
+      <c r="C24" s="547"/>
+      <c r="D24" s="547"/>
+      <c r="E24" s="548"/>
       <c r="F24" s="116" t="s">
         <v>16</v>
       </c>
@@ -11639,6 +11700,12 @@
     <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11653,12 +11720,6 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11724,50 +11785,50 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="584">
+      <c r="B2" s="595">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="554"/>
-      <c r="Q2" s="554"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="576"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11778,9 +11839,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -11799,22 +11860,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="549" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11825,22 +11886,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="549" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="554"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="591"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11851,27 +11912,27 @@
     </row>
     <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="592"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="592"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -12068,13 +12129,13 @@
     </row>
     <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="78"/>
-      <c r="B14" s="581" t="s">
+      <c r="B14" s="561" t="s">
         <v>142</v>
       </c>
-      <c r="C14" s="582"/>
-      <c r="D14" s="582"/>
-      <c r="E14" s="582"/>
-      <c r="F14" s="613"/>
+      <c r="C14" s="562"/>
+      <c r="D14" s="562"/>
+      <c r="E14" s="562"/>
+      <c r="F14" s="594"/>
       <c r="G14" s="56" t="s">
         <v>77</v>
       </c>
@@ -12093,12 +12154,12 @@
     </row>
     <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="78"/>
-      <c r="B15" s="566" t="s">
+      <c r="B15" s="546" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="567"/>
-      <c r="D15" s="567"/>
-      <c r="E15" s="568"/>
+      <c r="C15" s="547"/>
+      <c r="D15" s="547"/>
+      <c r="E15" s="548"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -12149,6 +12210,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12163,12 +12230,6 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12242,47 +12303,47 @@
     </row>
     <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="542"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="544"/>
-      <c r="E2" s="551" t="s">
+      <c r="B2" s="564"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="566"/>
+      <c r="E2" s="573" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="553"/>
-      <c r="I2" s="558" t="s">
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="575"/>
+      <c r="I2" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="559"/>
-      <c r="K2" s="562">
+      <c r="J2" s="581"/>
+      <c r="K2" s="584">
         <f>Данные!B16</f>
         <v>24</v>
       </c>
-      <c r="L2" s="563"/>
+      <c r="L2" s="585"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="554"/>
-      <c r="Q2" s="554"/>
+      <c r="P2" s="576"/>
+      <c r="Q2" s="576"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="545"/>
-      <c r="C3" s="546"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="555" t="s">
+      <c r="B3" s="567"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="577" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="556"/>
-      <c r="G3" s="556"/>
-      <c r="H3" s="557"/>
-      <c r="I3" s="560"/>
-      <c r="J3" s="561"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="565"/>
+      <c r="F3" s="578"/>
+      <c r="G3" s="578"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="586"/>
+      <c r="L3" s="587"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12293,9 +12354,9 @@
     </row>
     <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="548"/>
-      <c r="C4" s="549"/>
-      <c r="D4" s="550"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12314,22 +12375,22 @@
     </row>
     <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="549" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="550"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="571"/>
-      <c r="J5" s="572"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="551"/>
+      <c r="J5" s="552"/>
+      <c r="K5" s="499"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12340,22 +12401,22 @@
     </row>
     <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="549" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="573"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="553"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="571"/>
-      <c r="J6" s="572"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="554"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="551"/>
+      <c r="J6" s="552"/>
+      <c r="K6" s="499"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12366,27 +12427,27 @@
     </row>
     <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="577"/>
-      <c r="D7" s="499">
+      <c r="C7" s="557"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="576" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="580"/>
-      <c r="K7" s="487">
+      <c r="J7" s="560"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12869,7 +12930,6 @@
     <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="K6:L6"/>
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="E2:H2"/>
@@ -12887,6 +12947,7 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -12954,47 +13015,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="542"/>
-      <c r="C2" s="543"/>
-      <c r="D2" s="544"/>
-      <c r="E2" s="551" t="s">
+      <c r="B2" s="564"/>
+      <c r="C2" s="565"/>
+      <c r="D2" s="566"/>
+      <c r="E2" s="573" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="552"/>
-      <c r="G2" s="552"/>
-      <c r="H2" s="553"/>
-      <c r="I2" s="558" t="s">
+      <c r="F2" s="574"/>
+      <c r="G2" s="574"/>
+      <c r="H2" s="575"/>
+      <c r="I2" s="580" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="559"/>
-      <c r="K2" s="562">
+      <c r="J2" s="581"/>
+      <c r="K2" s="584">
         <f>Данные!B17</f>
         <v>24</v>
       </c>
-      <c r="L2" s="563"/>
+      <c r="L2" s="585"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
-      <c r="P2" s="614"/>
-      <c r="Q2" s="614"/>
+      <c r="P2" s="618"/>
+      <c r="Q2" s="618"/>
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
-      <c r="B3" s="545"/>
-      <c r="C3" s="546"/>
-      <c r="D3" s="547"/>
-      <c r="E3" s="555" t="s">
+      <c r="B3" s="567"/>
+      <c r="C3" s="568"/>
+      <c r="D3" s="569"/>
+      <c r="E3" s="577" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="556"/>
-      <c r="G3" s="556"/>
-      <c r="H3" s="557"/>
-      <c r="I3" s="560"/>
-      <c r="J3" s="561"/>
-      <c r="K3" s="564"/>
-      <c r="L3" s="565"/>
+      <c r="F3" s="578"/>
+      <c r="G3" s="578"/>
+      <c r="H3" s="579"/>
+      <c r="I3" s="582"/>
+      <c r="J3" s="583"/>
+      <c r="K3" s="586"/>
+      <c r="L3" s="587"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13005,9 +13066,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
-      <c r="B4" s="548"/>
-      <c r="C4" s="549"/>
-      <c r="D4" s="550"/>
+      <c r="B4" s="570"/>
+      <c r="C4" s="571"/>
+      <c r="D4" s="572"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13026,22 +13087,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="549" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="570"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="550"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="571"/>
-      <c r="J5" s="572"/>
-      <c r="K5" s="497"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="551"/>
+      <c r="J5" s="552"/>
+      <c r="K5" s="499"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13052,22 +13113,22 @@
     </row>
     <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="549" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="573"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="553"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="571"/>
-      <c r="J6" s="572"/>
-      <c r="K6" s="497"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="554"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="551"/>
+      <c r="J6" s="552"/>
+      <c r="K6" s="499"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13078,27 +13139,27 @@
     </row>
     <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="577"/>
-      <c r="D7" s="499">
+      <c r="C7" s="557"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="576" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="556" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="580"/>
-      <c r="K7" s="487">
+      <c r="J7" s="560"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13383,6 +13444,17 @@
     <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13390,17 +13462,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13472,60 +13533,60 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="L2" s="604"/>
-      <c r="M2" s="615"/>
-      <c r="N2" s="616"/>
-      <c r="O2" s="616"/>
-      <c r="P2" s="616"/>
-      <c r="Q2" s="616"/>
-      <c r="R2" s="617"/>
+      <c r="L2" s="615"/>
+      <c r="M2" s="619"/>
+      <c r="N2" s="620"/>
+      <c r="O2" s="620"/>
+      <c r="P2" s="620"/>
+      <c r="Q2" s="620"/>
+      <c r="R2" s="621"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
-      <c r="M3" s="618"/>
-      <c r="N3" s="619"/>
-      <c r="O3" s="619"/>
-      <c r="P3" s="619"/>
-      <c r="Q3" s="619"/>
-      <c r="R3" s="620"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
+      <c r="M3" s="622"/>
+      <c r="N3" s="623"/>
+      <c r="O3" s="623"/>
+      <c r="P3" s="623"/>
+      <c r="Q3" s="623"/>
+      <c r="R3" s="624"/>
       <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -13534,95 +13595,95 @@
       <c r="J4" s="249"/>
       <c r="K4" s="252"/>
       <c r="L4" s="253"/>
-      <c r="M4" s="618"/>
-      <c r="N4" s="619"/>
-      <c r="O4" s="619"/>
-      <c r="P4" s="619"/>
-      <c r="Q4" s="619"/>
-      <c r="R4" s="620"/>
+      <c r="M4" s="622"/>
+      <c r="N4" s="623"/>
+      <c r="O4" s="623"/>
+      <c r="P4" s="623"/>
+      <c r="Q4" s="623"/>
+      <c r="R4" s="624"/>
       <c r="S4" s="70"/>
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="549" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
-      <c r="M5" s="618"/>
-      <c r="N5" s="619"/>
-      <c r="O5" s="619"/>
-      <c r="P5" s="619"/>
-      <c r="Q5" s="619"/>
-      <c r="R5" s="620"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="500"/>
+      <c r="M5" s="622"/>
+      <c r="N5" s="623"/>
+      <c r="O5" s="623"/>
+      <c r="P5" s="623"/>
+      <c r="Q5" s="623"/>
+      <c r="R5" s="624"/>
       <c r="S5" s="70"/>
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="549" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
-      <c r="M6" s="618"/>
-      <c r="N6" s="619"/>
-      <c r="O6" s="619"/>
-      <c r="P6" s="619"/>
-      <c r="Q6" s="619"/>
-      <c r="R6" s="620"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="554"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="591"/>
+      <c r="L6" s="500"/>
+      <c r="M6" s="622"/>
+      <c r="N6" s="623"/>
+      <c r="O6" s="623"/>
+      <c r="P6" s="623"/>
+      <c r="Q6" s="623"/>
+      <c r="R6" s="624"/>
       <c r="S6" s="70"/>
     </row>
     <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="592"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="592"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
-      <c r="M7" s="618"/>
-      <c r="N7" s="619"/>
-      <c r="O7" s="619"/>
-      <c r="P7" s="619"/>
-      <c r="Q7" s="619"/>
-      <c r="R7" s="620"/>
+      <c r="L7" s="490"/>
+      <c r="M7" s="622"/>
+      <c r="N7" s="623"/>
+      <c r="O7" s="623"/>
+      <c r="P7" s="623"/>
+      <c r="Q7" s="623"/>
+      <c r="R7" s="624"/>
       <c r="S7" s="70"/>
     </row>
     <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14011,12 +14072,12 @@
     </row>
     <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="78"/>
-      <c r="B20" s="566" t="s">
+      <c r="B20" s="546" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="567"/>
-      <c r="D20" s="567"/>
-      <c r="E20" s="568"/>
+      <c r="C20" s="547"/>
+      <c r="D20" s="547"/>
+      <c r="E20" s="548"/>
       <c r="F20" s="116" t="s">
         <v>16</v>
       </c>
@@ -14062,13 +14123,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14081,6 +14135,13 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14145,47 +14206,47 @@
     </row>
     <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
-      <c r="B2" s="584"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="586"/>
-      <c r="E2" s="593" t="s">
+      <c r="B2" s="595"/>
+      <c r="C2" s="596"/>
+      <c r="D2" s="597"/>
+      <c r="E2" s="604" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="594"/>
-      <c r="G2" s="594"/>
-      <c r="H2" s="595"/>
-      <c r="I2" s="599" t="s">
+      <c r="F2" s="605"/>
+      <c r="G2" s="605"/>
+      <c r="H2" s="606"/>
+      <c r="I2" s="610" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="600"/>
-      <c r="K2" s="603">
+      <c r="J2" s="611"/>
+      <c r="K2" s="614">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="L2" s="604"/>
+      <c r="L2" s="615"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="621"/>
-      <c r="Q2" s="621"/>
+      <c r="P2" s="625"/>
+      <c r="Q2" s="625"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
     <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65"/>
-      <c r="B3" s="587"/>
-      <c r="C3" s="588"/>
-      <c r="D3" s="589"/>
-      <c r="E3" s="596" t="s">
+      <c r="B3" s="598"/>
+      <c r="C3" s="599"/>
+      <c r="D3" s="600"/>
+      <c r="E3" s="607" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="597"/>
-      <c r="G3" s="597"/>
-      <c r="H3" s="598"/>
-      <c r="I3" s="601"/>
-      <c r="J3" s="602"/>
-      <c r="K3" s="605"/>
-      <c r="L3" s="606"/>
+      <c r="F3" s="608"/>
+      <c r="G3" s="608"/>
+      <c r="H3" s="609"/>
+      <c r="I3" s="612"/>
+      <c r="J3" s="613"/>
+      <c r="K3" s="616"/>
+      <c r="L3" s="617"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14196,9 +14257,9 @@
     </row>
     <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65"/>
-      <c r="B4" s="590"/>
-      <c r="C4" s="591"/>
-      <c r="D4" s="592"/>
+      <c r="B4" s="601"/>
+      <c r="C4" s="602"/>
+      <c r="D4" s="603"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -14217,22 +14278,22 @@
     </row>
     <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65"/>
-      <c r="B5" s="569" t="s">
+      <c r="B5" s="549" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="607"/>
-      <c r="D5" s="496" t="str">
+      <c r="C5" s="588"/>
+      <c r="D5" s="498" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="497"/>
-      <c r="F5" s="497"/>
-      <c r="G5" s="497"/>
-      <c r="H5" s="498"/>
-      <c r="I5" s="608"/>
-      <c r="J5" s="609"/>
-      <c r="K5" s="610"/>
-      <c r="L5" s="498"/>
+      <c r="E5" s="499"/>
+      <c r="F5" s="499"/>
+      <c r="G5" s="499"/>
+      <c r="H5" s="500"/>
+      <c r="I5" s="589"/>
+      <c r="J5" s="590"/>
+      <c r="K5" s="591"/>
+      <c r="L5" s="500"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14243,22 +14304,22 @@
     </row>
     <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="65"/>
-      <c r="B6" s="569" t="s">
+      <c r="B6" s="549" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="607"/>
-      <c r="D6" s="490" t="str">
+      <c r="C6" s="588"/>
+      <c r="D6" s="492" t="str">
         <f>Данные!$A2</f>
         <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
       </c>
-      <c r="E6" s="574"/>
-      <c r="F6" s="574"/>
-      <c r="G6" s="574"/>
-      <c r="H6" s="575"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="K6" s="610"/>
-      <c r="L6" s="498"/>
+      <c r="E6" s="554"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="554"/>
+      <c r="H6" s="555"/>
+      <c r="I6" s="589"/>
+      <c r="J6" s="590"/>
+      <c r="K6" s="591"/>
+      <c r="L6" s="500"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14269,27 +14330,27 @@
     </row>
     <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65"/>
-      <c r="B7" s="576" t="s">
+      <c r="B7" s="556" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="611"/>
-      <c r="D7" s="499">
+      <c r="C7" s="592"/>
+      <c r="D7" s="501">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="578"/>
-      <c r="F7" s="578"/>
-      <c r="G7" s="578"/>
-      <c r="H7" s="579"/>
-      <c r="I7" s="612" t="s">
+      <c r="E7" s="558"/>
+      <c r="F7" s="558"/>
+      <c r="G7" s="558"/>
+      <c r="H7" s="559"/>
+      <c r="I7" s="593" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="611"/>
-      <c r="K7" s="487">
+      <c r="J7" s="592"/>
+      <c r="K7" s="489">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="488"/>
+      <c r="L7" s="490"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14552,12 +14613,12 @@
     </row>
     <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78"/>
-      <c r="B16" s="566" t="s">
+      <c r="B16" s="546" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="567"/>
-      <c r="D16" s="567"/>
-      <c r="E16" s="568"/>
+      <c r="C16" s="547"/>
+      <c r="D16" s="547"/>
+      <c r="E16" s="548"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -14603,15 +14664,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -14622,6 +14674,15 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">

--- a/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/9. XXI-КПМ-30-1-500-9 (Штоф)/Штофф от 18.11.2019.xlsx
+++ b/Участок ремонта форм/Формокомплекты/Карты замеров/Бутылка/9. XXI-КПМ-30-1-500-9 (Штоф)/Штофф от 18.11.2019.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Гавриленко А.Д\Работа\Участок ремонта форм\Формокомплекты\Карты замеров\Бутылка\9. XXI-КПМ-30-1-500-9 (Штоф)\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E39F77-D752-4550-B924-DD55AF7CF253}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-12" windowWidth="14448" windowHeight="12432" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="15" r:id="rId1"/>
@@ -36,7 +37,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Чист.  поддон'!$A$1:$S$16</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Чист. форма'!$A$1:$S$25</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -445,9 +453,6 @@
     <t>Начальник УРФ                                             А.Д. Гавриленко</t>
   </si>
   <si>
-    <t>XXI-КПМ-30-1-500-9 (Штофф)</t>
-  </si>
-  <si>
     <t>ХXI-КПМ-30-1-500-9</t>
   </si>
   <si>
@@ -477,19 +482,22 @@
   <si>
     <t>Вес, гр. (ном. 465 гр.)</t>
   </si>
+  <si>
+    <t>XXI-КПМ-30-1-500-9 (Штофф Земляк)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0_ ;\-#,##0\ "/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_р_._-;\-* #,##0_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="59" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -890,6 +898,11 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -2164,7 +2177,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="41" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="637">
@@ -3367,7 +3380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3382,7 +3395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3444,28 +3457,28 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="91" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="35" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="26" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="96" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3477,7 +3490,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="89" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3486,13 +3499,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="98" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3505,7 +3518,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3524,9 +3537,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3585,6 +3595,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="46" fillId="12" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="58" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3631,11 +3650,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -3648,16 +3666,83 @@
     <xf numFmtId="0" fontId="47" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="47" fillId="12" borderId="96" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="12" borderId="54" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3668,60 +3753,6 @@
     <xf numFmtId="49" fontId="37" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="92" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="78" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="60" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -3731,23 +3762,77 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="89" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="92" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="90" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="91" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -3799,76 +3884,73 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3892,75 +3974,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -3987,6 +4000,9 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3995,9 +4011,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="66" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4021,8 +4034,8 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Процентный" xfId="4" builtinId="5"/>
     <cellStyle name="Финансовый" xfId="3" builtinId="3"/>
   </cellStyles>
@@ -4312,7 +4325,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4358,7 +4377,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4403,7 +4428,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Прямая соединительная линия 9"/>
+        <xdr:cNvPr id="10" name="Прямая соединительная линия 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4447,7 +4478,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4496,7 +4533,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1"/>
+        <xdr:cNvPr id="2" name="Picture 8" descr="Fun_1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4542,7 +4585,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4586,7 +4635,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4630,7 +4685,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4679,7 +4740,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="BOT-1_HR.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4725,7 +4792,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4769,7 +4842,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4813,7 +4892,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4862,7 +4947,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4908,7 +4999,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4952,7 +5049,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4996,7 +5099,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5045,7 +5154,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG"/>
+        <xdr:cNvPr id="1078" name="Picture 4" descr="BAF-2_HR.JPG">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5091,7 +5206,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Прямая соединительная линия 6"/>
+        <xdr:cNvPr id="7" name="Прямая соединительная линия 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5135,7 +5256,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Прямая соединительная линия 8"/>
+        <xdr:cNvPr id="9" name="Прямая соединительная линия 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5179,7 +5306,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5228,7 +5361,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF"/>
+        <xdr:cNvPr id="3" name="Picture 4" descr="NR-02.TIF">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0">
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5274,7 +5413,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5323,7 +5468,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)"/>
+        <xdr:cNvPr id="2" name="Picture 4" descr="Iso0418(FGP)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5369,7 +5520,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5418,7 +5575,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif"/>
+        <xdr:cNvPr id="3" name="Picture 5" descr="pbb.tif">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks/>
         </xdr:cNvPicPr>
@@ -5464,7 +5627,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5508,7 +5677,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5552,7 +5727,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5601,7 +5782,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE"/>
+        <xdr:cNvPr id="2" name="Picture 9" descr="THIMBLE">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5647,7 +5834,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5691,7 +5884,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5735,7 +5934,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5784,7 +5989,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD"/>
+        <xdr:cNvPr id="2" name="Picture 6" descr="BLOWHEAD">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5830,7 +6041,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Прямая соединительная линия 5"/>
+        <xdr:cNvPr id="6" name="Прямая соединительная линия 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5874,7 +6091,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая соединительная линия 7"/>
+        <xdr:cNvPr id="8" name="Прямая соединительная линия 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -5918,7 +6141,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6026,6 +6255,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6061,6 +6307,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -6236,90 +6499,90 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="491" t="s">
+    <row r="1" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="493" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="495"/>
-      <c r="C1" s="495"/>
-      <c r="D1" s="495"/>
-      <c r="E1" s="495"/>
+      <c r="B1" s="497"/>
+      <c r="C1" s="497"/>
+      <c r="D1" s="497"/>
+      <c r="E1" s="497"/>
       <c r="G1" s="371" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="492" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="493"/>
-      <c r="C2" s="493"/>
-      <c r="D2" s="493"/>
-      <c r="E2" s="494"/>
+    <row r="2" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="494" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="495"/>
+      <c r="C2" s="495"/>
+      <c r="D2" s="495"/>
+      <c r="E2" s="496"/>
       <c r="G2" s="370" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="G3" s="370" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="496" t="s">
+    <row r="4" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="498" t="s">
         <v>83</v>
       </c>
-      <c r="B4" s="497"/>
-      <c r="C4" s="497"/>
-      <c r="D4" s="497"/>
-      <c r="E4" s="497"/>
-    </row>
-    <row r="5" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="498" t="s">
+      <c r="B4" s="499"/>
+      <c r="C4" s="499"/>
+      <c r="D4" s="499"/>
+      <c r="E4" s="499"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="500" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="499"/>
-      <c r="C5" s="499"/>
-      <c r="D5" s="499"/>
-      <c r="E5" s="500"/>
-    </row>
-    <row r="6" spans="1:11" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="491" t="s">
+      <c r="B5" s="501"/>
+      <c r="C5" s="501"/>
+      <c r="D5" s="501"/>
+      <c r="E5" s="502"/>
+    </row>
+    <row r="6" spans="1:11" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="493" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="495"/>
-      <c r="C7" s="495"/>
-      <c r="D7" s="495"/>
-      <c r="E7" s="495"/>
-    </row>
-    <row r="8" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="501"/>
-      <c r="B8" s="502"/>
-      <c r="C8" s="502"/>
-      <c r="D8" s="502"/>
-      <c r="E8" s="503"/>
-    </row>
-    <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="491" t="s">
+      <c r="B7" s="497"/>
+      <c r="C7" s="497"/>
+      <c r="D7" s="497"/>
+      <c r="E7" s="497"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="503"/>
+      <c r="B8" s="504"/>
+      <c r="C8" s="504"/>
+      <c r="D8" s="504"/>
+      <c r="E8" s="505"/>
+    </row>
+    <row r="10" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="493" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="491"/>
+      <c r="B10" s="493"/>
       <c r="C10" s="372"/>
       <c r="D10" s="380" t="s">
         <v>93</v>
@@ -6329,36 +6592,36 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="489"/>
-      <c r="B11" s="490"/>
+    <row r="11" spans="1:11" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="491"/>
+      <c r="B11" s="492"/>
       <c r="D11" s="379">
         <v>43787</v>
       </c>
-      <c r="F11" s="504" t="s">
+      <c r="F11" s="488" t="s">
         <v>96</v>
       </c>
-      <c r="G11" s="504"/>
-      <c r="H11" s="504"/>
-      <c r="I11" s="504"/>
-      <c r="J11" s="505" t="s">
+      <c r="G11" s="488"/>
+      <c r="H11" s="488"/>
+      <c r="I11" s="488"/>
+      <c r="J11" s="489" t="s">
         <v>98</v>
       </c>
-      <c r="K11" s="505"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="504" t="s">
+      <c r="K11" s="489"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F12" s="488" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="504"/>
-      <c r="H12" s="504"/>
-      <c r="I12" s="504"/>
-      <c r="J12" s="505" t="s">
+      <c r="G12" s="488"/>
+      <c r="H12" s="488"/>
+      <c r="I12" s="488"/>
+      <c r="J12" s="489" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="505"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="489"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="373" t="s">
         <v>88</v>
       </c>
@@ -6368,18 +6631,18 @@
       <c r="C13" s="384" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="504" t="s">
+      <c r="F13" s="488" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="504"/>
-      <c r="H13" s="504"/>
-      <c r="I13" s="504"/>
-      <c r="J13" s="505" t="s">
+      <c r="G13" s="488"/>
+      <c r="H13" s="488"/>
+      <c r="I13" s="488"/>
+      <c r="J13" s="489" t="s">
         <v>100</v>
       </c>
-      <c r="K13" s="505"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="489"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="375" t="s">
         <v>43</v>
       </c>
@@ -6387,10 +6650,10 @@
         <v>22</v>
       </c>
       <c r="C14" s="382" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="375" t="s">
         <v>44</v>
       </c>
@@ -6398,10 +6661,10 @@
         <v>22</v>
       </c>
       <c r="C15" s="382" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="375" t="s">
         <v>38</v>
       </c>
@@ -6409,10 +6672,10 @@
         <v>24</v>
       </c>
       <c r="C16" s="382" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="375" t="s">
         <v>23</v>
       </c>
@@ -6420,10 +6683,10 @@
         <v>24</v>
       </c>
       <c r="C17" s="382" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="375" t="s">
         <v>47</v>
       </c>
@@ -6431,10 +6694,10 @@
         <v>50</v>
       </c>
       <c r="C18" s="382" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="375" t="s">
         <v>90</v>
       </c>
@@ -6442,10 +6705,10 @@
         <v>50</v>
       </c>
       <c r="C19" s="382" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="375" t="s">
         <v>51</v>
       </c>
@@ -6453,10 +6716,10 @@
         <v>40</v>
       </c>
       <c r="C20" s="382" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="375" t="s">
         <v>53</v>
       </c>
@@ -6464,10 +6727,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="382" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="375" t="s">
         <v>91</v>
       </c>
@@ -6476,7 +6739,7 @@
       </c>
       <c r="C22" s="382"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="375" t="s">
         <v>56</v>
       </c>
@@ -6484,10 +6747,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="382" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="375" t="s">
         <v>70</v>
       </c>
@@ -6495,17 +6758,17 @@
         <v>8</v>
       </c>
       <c r="C24" s="382" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="375" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="382"/>
       <c r="C25" s="382"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="377" t="s">
         <v>55</v>
       </c>
@@ -6513,10 +6776,10 @@
         <v>18</v>
       </c>
       <c r="C26" s="382" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="377" t="s">
         <v>105</v>
       </c>
@@ -6525,29 +6788,23 @@
       </c>
       <c r="C27" s="385"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="381"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="488" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="490" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="488"/>
-      <c r="C29" s="488"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="490"/>
+      <c r="C29" s="490"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="371" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A10:B10"/>
@@ -6557,6 +6814,12 @@
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -6564,7 +6827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -6574,20 +6837,20 @@
       <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="169" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="169" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="169" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="169" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="169" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="169" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="169" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="169" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="169" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="169" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="169" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="169" customWidth="1"/>
     <col min="8" max="18" width="9" style="169" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="169" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="169"/>
+    <col min="19" max="19" width="1.42578125" style="169" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="169"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="165"/>
       <c r="B1" s="166"/>
       <c r="C1" s="167"/>
@@ -6608,26 +6871,26 @@
       <c r="R1" s="167"/>
       <c r="S1" s="168"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="170"/>
-      <c r="B2" s="595"/>
-      <c r="C2" s="596"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="604" t="s">
+      <c r="B2" s="588"/>
+      <c r="C2" s="589"/>
+      <c r="D2" s="590"/>
+      <c r="E2" s="597" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="610" t="s">
+      <c r="F2" s="598"/>
+      <c r="G2" s="598"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="611"/>
-      <c r="K2" s="614">
+      <c r="J2" s="604"/>
+      <c r="K2" s="607">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="L2" s="615"/>
+      <c r="L2" s="608"/>
       <c r="M2" s="171"/>
       <c r="N2" s="172"/>
       <c r="O2" s="173"/>
@@ -6636,21 +6899,21 @@
       <c r="R2" s="174"/>
       <c r="S2" s="175"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="170"/>
-      <c r="B3" s="598"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="607" t="s">
+      <c r="B3" s="591"/>
+      <c r="C3" s="592"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="600" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="612"/>
-      <c r="J3" s="613"/>
-      <c r="K3" s="616"/>
-      <c r="L3" s="617"/>
+      <c r="F3" s="601"/>
+      <c r="G3" s="601"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="606"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="610"/>
       <c r="M3" s="176"/>
       <c r="N3" s="177"/>
       <c r="O3" s="177"/>
@@ -6659,11 +6922,11 @@
       <c r="R3" s="178"/>
       <c r="S3" s="175"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="170"/>
-      <c r="B4" s="601"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
+      <c r="B4" s="594"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -6680,24 +6943,24 @@
       <c r="R4" s="178"/>
       <c r="S4" s="175"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="170"/>
-      <c r="B5" s="549" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="498" t="str">
+      <c r="C5" s="611"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="591"/>
-      <c r="L5" s="500"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="612"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="179"/>
       <c r="N5" s="177"/>
       <c r="O5" s="177"/>
@@ -6706,24 +6969,24 @@
       <c r="R5" s="178"/>
       <c r="S5" s="175"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="170"/>
-      <c r="B6" s="549" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="492" t="str">
+      <c r="C6" s="611"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
-      </c>
-      <c r="E6" s="554"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="554"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="591"/>
-      <c r="L6" s="500"/>
+        <v>XXI-КПМ-30-1-500-9 (Штофф Земляк)</v>
+      </c>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="612"/>
+      <c r="J6" s="613"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="176"/>
       <c r="N6" s="177"/>
       <c r="O6" s="177"/>
@@ -6732,29 +6995,29 @@
       <c r="R6" s="178"/>
       <c r="S6" s="175"/>
     </row>
-    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="66" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="170"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="592"/>
-      <c r="D7" s="501">
+      <c r="C7" s="615"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="593" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="616" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="592"/>
-      <c r="K7" s="489">
+      <c r="J7" s="615"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="490"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="179"/>
       <c r="N7" s="177"/>
       <c r="O7" s="177"/>
@@ -6763,7 +7026,7 @@
       <c r="R7" s="178"/>
       <c r="S7" s="175"/>
     </row>
-    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="180"/>
       <c r="B8" s="181"/>
       <c r="C8" s="182"/>
@@ -6784,7 +7047,7 @@
       <c r="R8" s="185"/>
       <c r="S8" s="186"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="187"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -6817,7 +7080,7 @@
       <c r="R9" s="346"/>
       <c r="S9" s="202"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="180"/>
       <c r="B10" s="189" t="s">
         <v>25</v>
@@ -6852,7 +7115,7 @@
       <c r="R10" s="348"/>
       <c r="S10" s="186"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="180"/>
       <c r="B11" s="191" t="s">
         <v>26</v>
@@ -6885,7 +7148,7 @@
       <c r="R11" s="350"/>
       <c r="S11" s="186"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="180"/>
       <c r="B12" s="191" t="s">
         <v>2</v>
@@ -6918,7 +7181,7 @@
       <c r="R12" s="350"/>
       <c r="S12" s="186"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="180"/>
       <c r="B13" s="191" t="s">
         <v>3</v>
@@ -6951,7 +7214,7 @@
       <c r="R13" s="350"/>
       <c r="S13" s="186"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="180"/>
       <c r="B14" s="191" t="s">
         <v>27</v>
@@ -6984,7 +7247,7 @@
       <c r="R14" s="350"/>
       <c r="S14" s="186"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="180"/>
       <c r="B15" s="191" t="s">
         <v>28</v>
@@ -7017,7 +7280,7 @@
       <c r="R15" s="350"/>
       <c r="S15" s="186"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="180"/>
       <c r="B16" s="191" t="s">
         <v>4</v>
@@ -7050,7 +7313,7 @@
       <c r="R16" s="350"/>
       <c r="S16" s="186"/>
     </row>
-    <row r="17" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A17" s="180"/>
       <c r="B17" s="191" t="s">
         <v>9</v>
@@ -7083,7 +7346,7 @@
       <c r="R17" s="350"/>
       <c r="S17" s="186"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="180"/>
       <c r="B18" s="191" t="s">
         <v>5</v>
@@ -7116,7 +7379,7 @@
       <c r="R18" s="350"/>
       <c r="S18" s="186"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="193"/>
       <c r="B19" s="194"/>
       <c r="C19" s="194"/>
@@ -7137,9 +7400,20 @@
       <c r="R19" s="194"/>
       <c r="S19" s="196"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -7147,17 +7421,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="R14:R15">
     <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
@@ -7177,7 +7440,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7187,20 +7450,20 @@
       <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="208" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="208" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="208" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="208" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="208" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="208" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="208" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="208" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="208" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="208" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="208" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="208" customWidth="1"/>
     <col min="8" max="18" width="9" style="208" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="208" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="208"/>
+    <col min="19" max="19" width="1.42578125" style="208" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="208"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="204"/>
       <c r="B1" s="205"/>
       <c r="C1" s="206"/>
@@ -7221,49 +7484,49 @@
       <c r="R1" s="206"/>
       <c r="S1" s="207"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="209"/>
-      <c r="B2" s="595"/>
-      <c r="C2" s="596"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="604" t="s">
+      <c r="B2" s="588"/>
+      <c r="C2" s="589"/>
+      <c r="D2" s="590"/>
+      <c r="E2" s="597" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="610" t="s">
+      <c r="F2" s="598"/>
+      <c r="G2" s="598"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="611"/>
-      <c r="K2" s="614">
+      <c r="J2" s="604"/>
+      <c r="K2" s="607">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="L2" s="615"/>
+      <c r="L2" s="608"/>
       <c r="M2" s="210"/>
       <c r="N2" s="211"/>
       <c r="O2" s="212"/>
-      <c r="P2" s="630"/>
-      <c r="Q2" s="630"/>
+      <c r="P2" s="627"/>
+      <c r="Q2" s="627"/>
       <c r="R2" s="213"/>
       <c r="S2" s="214"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="209"/>
-      <c r="B3" s="598"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="607" t="s">
+      <c r="B3" s="591"/>
+      <c r="C3" s="592"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="600" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="612"/>
-      <c r="J3" s="613"/>
-      <c r="K3" s="616"/>
-      <c r="L3" s="617"/>
+      <c r="F3" s="601"/>
+      <c r="G3" s="601"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="606"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="610"/>
       <c r="M3" s="215"/>
       <c r="N3" s="216"/>
       <c r="O3" s="216"/>
@@ -7272,11 +7535,11 @@
       <c r="R3" s="217"/>
       <c r="S3" s="214"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="209"/>
-      <c r="B4" s="601"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
+      <c r="B4" s="594"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7293,24 +7556,24 @@
       <c r="R4" s="217"/>
       <c r="S4" s="214"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="209"/>
-      <c r="B5" s="549" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="498" t="str">
+      <c r="C5" s="611"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="591"/>
-      <c r="L5" s="500"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="612"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="218"/>
       <c r="N5" s="216"/>
       <c r="O5" s="216"/>
@@ -7319,24 +7582,24 @@
       <c r="R5" s="217"/>
       <c r="S5" s="214"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="209"/>
-      <c r="B6" s="549" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="492" t="str">
+      <c r="C6" s="611"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
-      </c>
-      <c r="E6" s="554"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="554"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="591"/>
-      <c r="L6" s="500"/>
+        <v>XXI-КПМ-30-1-500-9 (Штофф Земляк)</v>
+      </c>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="612"/>
+      <c r="J6" s="613"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="215"/>
       <c r="N6" s="216"/>
       <c r="O6" s="216"/>
@@ -7345,29 +7608,29 @@
       <c r="R6" s="217"/>
       <c r="S6" s="214"/>
     </row>
-    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="209"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="592"/>
-      <c r="D7" s="501">
+      <c r="C7" s="615"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="593" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="616" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="592"/>
-      <c r="K7" s="489">
+      <c r="J7" s="615"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="490"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="218"/>
       <c r="N7" s="216"/>
       <c r="O7" s="216"/>
@@ -7376,7 +7639,7 @@
       <c r="R7" s="217"/>
       <c r="S7" s="214"/>
     </row>
-    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="219"/>
       <c r="B8" s="220"/>
       <c r="C8" s="221"/>
@@ -7397,7 +7660,7 @@
       <c r="R8" s="224"/>
       <c r="S8" s="225"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="226"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -7430,7 +7693,7 @@
       <c r="R9" s="228"/>
       <c r="S9" s="229"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="219"/>
       <c r="B10" s="230" t="s">
         <v>25</v>
@@ -7463,7 +7726,7 @@
       <c r="R10" s="234"/>
       <c r="S10" s="225"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="219"/>
       <c r="B11" s="235" t="s">
         <v>26</v>
@@ -7496,7 +7759,7 @@
       <c r="R11" s="239"/>
       <c r="S11" s="225"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="219"/>
       <c r="B12" s="235" t="s">
         <v>2</v>
@@ -7529,7 +7792,7 @@
       <c r="R12" s="239"/>
       <c r="S12" s="225"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="219"/>
       <c r="B13" s="235" t="s">
         <v>3</v>
@@ -7562,7 +7825,7 @@
       <c r="R13" s="239"/>
       <c r="S13" s="225"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="219"/>
       <c r="B14" s="235" t="s">
         <v>27</v>
@@ -7595,7 +7858,7 @@
       <c r="R14" s="239"/>
       <c r="S14" s="225"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="219"/>
       <c r="B15" s="235" t="s">
         <v>28</v>
@@ -7628,7 +7891,7 @@
       <c r="R15" s="239"/>
       <c r="S15" s="225"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="219"/>
       <c r="B16" s="235" t="s">
         <v>9</v>
@@ -7661,7 +7924,7 @@
       <c r="R16" s="239"/>
       <c r="S16" s="225"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="219"/>
       <c r="B17" s="235" t="s">
         <v>5</v>
@@ -7694,14 +7957,14 @@
       <c r="R17" s="239"/>
       <c r="S17" s="225"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="219"/>
-      <c r="B18" s="627" t="s">
+      <c r="B18" s="628" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="628"/>
-      <c r="D18" s="628"/>
-      <c r="E18" s="629"/>
+      <c r="C18" s="629"/>
+      <c r="D18" s="629"/>
+      <c r="E18" s="630"/>
       <c r="F18" s="116" t="s">
         <v>16</v>
       </c>
@@ -7721,7 +7984,7 @@
       <c r="R18" s="243"/>
       <c r="S18" s="225"/>
     </row>
-    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="244"/>
       <c r="B19" s="245"/>
       <c r="C19" s="245"/>
@@ -7742,17 +8005,9 @@
       <c r="R19" s="245"/>
       <c r="S19" s="247"/>
     </row>
-    <row r="20" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
@@ -7764,6 +8019,14 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:H6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7803,7 +8066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -7813,20 +8076,20 @@
       <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -7847,26 +8110,26 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="133"/>
-      <c r="B2" s="595"/>
-      <c r="C2" s="596"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="604" t="s">
+      <c r="B2" s="588"/>
+      <c r="C2" s="589"/>
+      <c r="D2" s="590"/>
+      <c r="E2" s="597" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="610" t="s">
+      <c r="F2" s="598"/>
+      <c r="G2" s="598"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="611"/>
-      <c r="K2" s="614">
+      <c r="J2" s="604"/>
+      <c r="K2" s="607">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="L2" s="615"/>
+      <c r="L2" s="608"/>
       <c r="M2" s="134"/>
       <c r="N2" s="135"/>
       <c r="O2" s="136"/>
@@ -7875,21 +8138,21 @@
       <c r="R2" s="137"/>
       <c r="S2" s="138"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="133"/>
-      <c r="B3" s="598"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="607" t="s">
+      <c r="B3" s="591"/>
+      <c r="C3" s="592"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="600" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="612"/>
-      <c r="J3" s="613"/>
-      <c r="K3" s="616"/>
-      <c r="L3" s="617"/>
+      <c r="F3" s="601"/>
+      <c r="G3" s="601"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="606"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="610"/>
       <c r="M3" s="139"/>
       <c r="N3" s="140"/>
       <c r="O3" s="140"/>
@@ -7898,11 +8161,11 @@
       <c r="R3" s="141"/>
       <c r="S3" s="138"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="133"/>
-      <c r="B4" s="601"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
+      <c r="B4" s="594"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -7919,24 +8182,24 @@
       <c r="R4" s="141"/>
       <c r="S4" s="138"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="133"/>
-      <c r="B5" s="549" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="498" t="str">
+      <c r="C5" s="611"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="591"/>
-      <c r="L5" s="500"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="612"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="142"/>
       <c r="N5" s="140"/>
       <c r="O5" s="140"/>
@@ -7945,24 +8208,24 @@
       <c r="R5" s="141"/>
       <c r="S5" s="138"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="133"/>
-      <c r="B6" s="549" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="492" t="str">
+      <c r="C6" s="611"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
-      </c>
-      <c r="E6" s="554"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="554"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="591"/>
-      <c r="L6" s="500"/>
+        <v>XXI-КПМ-30-1-500-9 (Штофф Земляк)</v>
+      </c>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="612"/>
+      <c r="J6" s="613"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="139"/>
       <c r="N6" s="140"/>
       <c r="O6" s="140"/>
@@ -7971,29 +8234,29 @@
       <c r="R6" s="141"/>
       <c r="S6" s="138"/>
     </row>
-    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="65.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="133"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="592"/>
-      <c r="D7" s="501">
+      <c r="C7" s="615"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="593" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="616" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="592"/>
-      <c r="K7" s="489">
+      <c r="J7" s="615"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="490"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="142"/>
       <c r="N7" s="140"/>
       <c r="O7" s="140"/>
@@ -8002,7 +8265,7 @@
       <c r="R7" s="141"/>
       <c r="S7" s="138"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="143"/>
       <c r="C8" s="144"/>
@@ -8023,7 +8286,7 @@
       <c r="R8" s="147"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="148"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -8056,7 +8319,7 @@
       <c r="R9" s="151"/>
       <c r="S9" s="152"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="153"/>
       <c r="B10" s="154" t="s">
         <v>25</v>
@@ -8089,7 +8352,7 @@
       <c r="R10" s="156"/>
       <c r="S10" s="157"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="153"/>
       <c r="B11" s="154" t="s">
         <v>26</v>
@@ -8122,7 +8385,7 @@
       <c r="R11" s="156"/>
       <c r="S11" s="157"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="153"/>
       <c r="B12" s="154" t="s">
         <v>2</v>
@@ -8155,7 +8418,7 @@
       <c r="R12" s="156"/>
       <c r="S12" s="157"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="153"/>
       <c r="B13" s="154" t="s">
         <v>3</v>
@@ -8188,7 +8451,7 @@
       <c r="R13" s="156"/>
       <c r="S13" s="157"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="153"/>
       <c r="B14" s="154" t="s">
         <v>27</v>
@@ -8221,7 +8484,7 @@
       <c r="R14" s="156"/>
       <c r="S14" s="157"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="153"/>
       <c r="B15" s="154" t="s">
         <v>28</v>
@@ -8254,7 +8517,7 @@
       <c r="R15" s="156"/>
       <c r="S15" s="157"/>
     </row>
-    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="153"/>
       <c r="B16" s="154" t="s">
         <v>4</v>
@@ -8287,7 +8550,7 @@
       <c r="R16" s="156"/>
       <c r="S16" s="157"/>
     </row>
-    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97"/>
       <c r="C17" s="98"/>
@@ -8308,7 +8571,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="97"/>
       <c r="C18" s="98"/>
@@ -8329,7 +8592,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78"/>
       <c r="B19" s="104"/>
       <c r="C19" s="105"/>
@@ -8350,7 +8613,7 @@
       <c r="R19" s="109"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="110"/>
       <c r="B20" s="111"/>
       <c r="C20" s="111"/>
@@ -8371,9 +8634,20 @@
       <c r="R20" s="113"/>
       <c r="S20" s="114"/>
     </row>
-    <row r="21" spans="1:19" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:19" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -8381,17 +8655,6 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H17:R19">
     <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
@@ -8411,7 +8674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -8421,20 +8684,20 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="265" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="265" customWidth="1"/>
     <col min="2" max="2" width="5" style="265" customWidth="1"/>
     <col min="3" max="3" width="11" style="265" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="265" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="265" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="265" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="265" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="265" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="265" customWidth="1"/>
     <col min="8" max="18" width="9" style="265" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="265" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="265"/>
+    <col min="19" max="19" width="1.42578125" style="265" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="265"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="261"/>
       <c r="B1" s="262"/>
       <c r="C1" s="263"/>
@@ -8455,21 +8718,21 @@
       <c r="R1" s="263"/>
       <c r="S1" s="264"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="266"/>
-      <c r="B2" s="595"/>
-      <c r="C2" s="596"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="604" t="s">
+      <c r="B2" s="588"/>
+      <c r="C2" s="589"/>
+      <c r="D2" s="590"/>
+      <c r="E2" s="597" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="610" t="s">
+      <c r="F2" s="598"/>
+      <c r="G2" s="598"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="611"/>
+      <c r="J2" s="604"/>
       <c r="K2" s="633">
         <f>Данные!B23</f>
         <v>18</v>
@@ -8483,19 +8746,19 @@
       <c r="R2" s="270"/>
       <c r="S2" s="271"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="266"/>
-      <c r="B3" s="598"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="607" t="s">
+      <c r="B3" s="591"/>
+      <c r="C3" s="592"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="600" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="612"/>
-      <c r="J3" s="613"/>
+      <c r="F3" s="601"/>
+      <c r="G3" s="601"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="606"/>
       <c r="K3" s="635"/>
       <c r="L3" s="636"/>
       <c r="M3" s="272"/>
@@ -8506,11 +8769,11 @@
       <c r="R3" s="274"/>
       <c r="S3" s="271"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="266"/>
-      <c r="B4" s="601"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
+      <c r="B4" s="594"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -8527,24 +8790,24 @@
       <c r="R4" s="274"/>
       <c r="S4" s="271"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="266"/>
-      <c r="B5" s="549" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="498" t="str">
+      <c r="C5" s="611"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="591"/>
-      <c r="L5" s="500"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="612"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="275"/>
       <c r="N5" s="273"/>
       <c r="O5" s="273"/>
@@ -8553,24 +8816,24 @@
       <c r="R5" s="274"/>
       <c r="S5" s="271"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="266"/>
-      <c r="B6" s="549" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="492" t="str">
+      <c r="C6" s="611"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
-      </c>
-      <c r="E6" s="554"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="554"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="591"/>
-      <c r="L6" s="500"/>
+        <v>XXI-КПМ-30-1-500-9 (Штофф Земляк)</v>
+      </c>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="612"/>
+      <c r="J6" s="613"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="272"/>
       <c r="N6" s="273"/>
       <c r="O6" s="273"/>
@@ -8579,29 +8842,29 @@
       <c r="R6" s="274"/>
       <c r="S6" s="271"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="266"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="592"/>
-      <c r="D7" s="501">
+      <c r="C7" s="615"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="593" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="616" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="592"/>
-      <c r="K7" s="489">
+      <c r="J7" s="615"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="490"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="275"/>
       <c r="N7" s="273"/>
       <c r="O7" s="273"/>
@@ -8610,7 +8873,7 @@
       <c r="R7" s="274"/>
       <c r="S7" s="271"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="276"/>
       <c r="B8" s="277"/>
       <c r="C8" s="278"/>
@@ -8631,7 +8894,7 @@
       <c r="R8" s="281"/>
       <c r="S8" s="282"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="283"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -8664,7 +8927,7 @@
       <c r="R9" s="352"/>
       <c r="S9" s="285"/>
     </row>
-    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="276"/>
       <c r="B10" s="286" t="s">
         <v>25</v>
@@ -8697,7 +8960,7 @@
       <c r="R10" s="354"/>
       <c r="S10" s="282"/>
     </row>
-    <row r="11" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A11" s="276"/>
       <c r="B11" s="290" t="s">
         <v>26</v>
@@ -8730,7 +8993,7 @@
       <c r="R11" s="355"/>
       <c r="S11" s="282"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="276"/>
       <c r="B12" s="290" t="s">
         <v>2</v>
@@ -8763,7 +9026,7 @@
       <c r="R12" s="357"/>
       <c r="S12" s="282"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="276"/>
       <c r="B13" s="290" t="s">
         <v>28</v>
@@ -8796,7 +9059,7 @@
       <c r="R13" s="357"/>
       <c r="S13" s="282"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="276"/>
       <c r="B14" s="290" t="s">
         <v>4</v>
@@ -8829,7 +9092,7 @@
       <c r="R14" s="357"/>
       <c r="S14" s="282"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="276"/>
       <c r="B15" s="296"/>
       <c r="C15" s="297"/>
@@ -8850,7 +9113,7 @@
       <c r="R15" s="339"/>
       <c r="S15" s="282"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="299"/>
       <c r="B16" s="300"/>
       <c r="C16" s="300"/>
@@ -8871,13 +9134,9 @@
       <c r="R16" s="300"/>
       <c r="S16" s="302"/>
     </row>
-    <row r="17" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="I7:J7"/>
@@ -8892,6 +9151,10 @@
     <mergeCell ref="I2:J3"/>
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="D5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="notBetween">
@@ -8917,33 +9180,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32:F32"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A5" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="390"/>
       <c r="B1" s="465" t="s">
         <v>109</v>
@@ -8951,7 +9214,7 @@
       <c r="C1" s="390"/>
       <c r="D1" s="464" t="str">
         <f>Данные!A2</f>
-        <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
+        <v>XXI-КПМ-30-1-500-9 (Штофф Земляк)</v>
       </c>
       <c r="E1" s="390"/>
       <c r="F1" s="390"/>
@@ -8962,10 +9225,10 @@
       <c r="K1" s="390"/>
       <c r="L1" s="390"/>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="390"/>
       <c r="B2" s="390" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2" s="390"/>
       <c r="D2" s="390"/>
@@ -8978,23 +9241,23 @@
       <c r="K2" s="391"/>
       <c r="L2" s="391"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="508" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="511" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="508"/>
-      <c r="C3" s="508"/>
-      <c r="D3" s="508"/>
-      <c r="E3" s="508"/>
-      <c r="F3" s="508"/>
-      <c r="G3" s="508"/>
-      <c r="H3" s="508"/>
-      <c r="I3" s="508"/>
+      <c r="B3" s="511"/>
+      <c r="C3" s="511"/>
+      <c r="D3" s="511"/>
+      <c r="E3" s="511"/>
+      <c r="F3" s="511"/>
+      <c r="G3" s="511"/>
+      <c r="H3" s="511"/>
+      <c r="I3" s="511"/>
       <c r="K3" s="392"/>
       <c r="L3" s="392"/>
       <c r="M3" s="393"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="393"/>
       <c r="B4" s="394"/>
       <c r="C4" s="394"/>
@@ -9006,7 +9269,7 @@
       <c r="K4" s="392"/>
       <c r="M4" s="372"/>
     </row>
-    <row r="5" spans="1:13" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="397" t="s">
         <v>111</v>
       </c>
@@ -9036,7 +9299,7 @@
       <c r="K5" s="401"/>
       <c r="L5" s="401"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="402">
         <v>1</v>
       </c>
@@ -9066,7 +9329,7 @@
       <c r="K6" s="393"/>
       <c r="L6" s="407"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="408">
         <f>A6+1</f>
         <v>2</v>
@@ -9097,7 +9360,7 @@
       <c r="K7" s="393"/>
       <c r="L7" s="407"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="408">
         <f t="shared" ref="A8:A17" si="1">A7+1</f>
         <v>3</v>
@@ -9128,7 +9391,7 @@
       <c r="K8" s="393"/>
       <c r="L8" s="407"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="408">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -9159,7 +9422,7 @@
       <c r="K9" s="393"/>
       <c r="L9" s="407"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="408">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -9190,7 +9453,7 @@
       <c r="K10" s="413"/>
       <c r="L10" s="407"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="408">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -9221,7 +9484,7 @@
       <c r="K11" s="393"/>
       <c r="L11" s="407"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="408">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -9253,7 +9516,7 @@
       <c r="L12" s="407"/>
       <c r="M12" s="415"/>
     </row>
-    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="408">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -9285,7 +9548,7 @@
       <c r="L13" s="407"/>
       <c r="M13" s="415"/>
     </row>
-    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="408">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -9318,7 +9581,7 @@
       <c r="K14" s="413"/>
       <c r="L14" s="407"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="408">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -9349,7 +9612,7 @@
       <c r="K15" s="413"/>
       <c r="L15" s="407"/>
     </row>
-    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="408">
         <f t="shared" si="1"/>
         <v>11</v>
@@ -9380,7 +9643,7 @@
       <c r="K16" s="413"/>
       <c r="L16" s="407"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="417">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -9411,7 +9674,7 @@
       <c r="K17" s="413"/>
       <c r="L17" s="407"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="424"/>
       <c r="B18" s="425"/>
       <c r="C18" s="393"/>
@@ -9423,7 +9686,7 @@
       <c r="I18" s="393"/>
       <c r="J18" s="393"/>
     </row>
-    <row r="19" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="393"/>
       <c r="B19" s="427" t="s">
         <v>118</v>
@@ -9439,7 +9702,7 @@
       <c r="K19" s="428"/>
       <c r="L19" s="428"/>
     </row>
-    <row r="20" spans="1:12" ht="66.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="397" t="s">
         <v>119</v>
       </c>
@@ -9468,13 +9731,13 @@
         <v>127</v>
       </c>
       <c r="J20" s="431" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K20" s="401"/>
       <c r="L20" s="401"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="471">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="470">
         <f>D6*700000</f>
         <v>15400000</v>
       </c>
@@ -9487,10 +9750,10 @@
       <c r="D21" s="432">
         <v>43795</v>
       </c>
-      <c r="E21" s="477">
+      <c r="E21" s="476">
         <v>387072</v>
       </c>
-      <c r="F21" s="477">
+      <c r="F21" s="476">
         <v>432806</v>
       </c>
       <c r="G21" s="434">
@@ -9501,15 +9764,15 @@
         <f>A21-F21</f>
         <v>14967194</v>
       </c>
-      <c r="I21" s="472">
+      <c r="I21" s="471">
         <f>1-G21</f>
         <v>0.97189571428571431</v>
       </c>
-      <c r="J21" s="483"/>
+      <c r="J21" s="482"/>
       <c r="K21" s="413"/>
       <c r="L21" s="413"/>
     </row>
-    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="408"/>
       <c r="B22" s="437">
         <v>43815</v>
@@ -9520,10 +9783,10 @@
       <c r="D22" s="437">
         <v>43833</v>
       </c>
-      <c r="E22" s="478">
+      <c r="E22" s="477">
         <v>661548</v>
       </c>
-      <c r="F22" s="478">
+      <c r="F22" s="477">
         <v>719672</v>
       </c>
       <c r="G22" s="434">
@@ -9531,19 +9794,19 @@
         <v>4.6731948051948052E-2</v>
       </c>
       <c r="H22" s="438">
-        <f>H21-F22</f>
+        <f t="shared" ref="H22:I24" si="2">H21-F22</f>
         <v>14247522</v>
       </c>
-      <c r="I22" s="473">
-        <f>I21-G22</f>
+      <c r="I22" s="472">
+        <f t="shared" si="2"/>
         <v>0.92516376623376628</v>
       </c>
-      <c r="J22" s="484"/>
+      <c r="J22" s="483"/>
       <c r="K22" s="393"/>
       <c r="L22" s="393"/>
     </row>
-    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="474"/>
+    <row r="23" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="473"/>
       <c r="B23" s="439">
         <v>43882</v>
       </c>
@@ -9553,10 +9816,10 @@
       <c r="D23" s="439">
         <v>43887</v>
       </c>
-      <c r="E23" s="479">
+      <c r="E23" s="478">
         <v>691488</v>
       </c>
-      <c r="F23" s="479">
+      <c r="F23" s="478">
         <v>726785</v>
       </c>
       <c r="G23" s="434">
@@ -9564,161 +9827,224 @@
         <v>4.719383116883117E-2</v>
       </c>
       <c r="H23" s="438">
-        <f>H22-F23</f>
+        <f t="shared" si="2"/>
         <v>13520737</v>
       </c>
-      <c r="I23" s="473">
-        <f>I22-G23</f>
+      <c r="I23" s="472">
+        <f t="shared" si="2"/>
         <v>0.87796993506493515</v>
       </c>
-      <c r="J23" s="485"/>
+      <c r="J23" s="484"/>
       <c r="K23" s="413"/>
       <c r="L23" s="413"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="474"/>
-      <c r="B24" s="466"/>
-      <c r="C24" s="466"/>
-      <c r="D24" s="466"/>
-      <c r="E24" s="480"/>
-      <c r="F24" s="480"/>
-      <c r="G24" s="466"/>
-      <c r="H24" s="466"/>
-      <c r="I24" s="467"/>
-      <c r="J24" s="485"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="473"/>
+      <c r="B24" s="439">
+        <v>44036</v>
+      </c>
+      <c r="C24" s="439">
+        <v>44039</v>
+      </c>
+      <c r="D24" s="439">
+        <v>44041</v>
+      </c>
+      <c r="E24" s="479">
+        <v>548352</v>
+      </c>
+      <c r="F24" s="479">
+        <v>580694</v>
+      </c>
+      <c r="G24" s="434">
+        <f>F24/A$21</f>
+        <v>3.7707402597402601E-2</v>
+      </c>
+      <c r="H24" s="438">
+        <f t="shared" si="2"/>
+        <v>12940043</v>
+      </c>
+      <c r="I24" s="472">
+        <f t="shared" si="2"/>
+        <v>0.84026253246753257</v>
+      </c>
+      <c r="J24" s="484">
+        <v>436</v>
+      </c>
       <c r="K24" s="436"/>
       <c r="L24" s="393"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="474"/>
-      <c r="B25" s="439"/>
-      <c r="C25" s="439"/>
-      <c r="D25" s="439"/>
-      <c r="E25" s="479"/>
-      <c r="F25" s="479"/>
-      <c r="G25" s="441"/>
-      <c r="H25" s="440"/>
-      <c r="I25" s="475"/>
-      <c r="J25" s="485"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="473"/>
+      <c r="B25" s="439">
+        <v>44184</v>
+      </c>
+      <c r="C25" s="439">
+        <v>44187</v>
+      </c>
+      <c r="D25" s="487">
+        <v>44200</v>
+      </c>
+      <c r="E25" s="478">
+        <v>552376</v>
+      </c>
+      <c r="F25" s="478">
+        <v>584289</v>
+      </c>
+      <c r="G25" s="441">
+        <f>F25/A$21</f>
+        <v>3.7940844155844158E-2</v>
+      </c>
+      <c r="H25" s="438">
+        <f t="shared" ref="H25" si="3">H24-F25</f>
+        <v>12355754</v>
+      </c>
+      <c r="I25" s="472">
+        <f t="shared" ref="I25" si="4">I24-G25</f>
+        <v>0.80232168831168837</v>
+      </c>
+      <c r="J25" s="484">
+        <v>437</v>
+      </c>
       <c r="K25" s="442"/>
       <c r="L25" s="393"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="474"/>
-      <c r="B26" s="439"/>
-      <c r="C26" s="439"/>
-      <c r="D26" s="439"/>
-      <c r="E26" s="479"/>
-      <c r="F26" s="479"/>
-      <c r="G26" s="441"/>
-      <c r="H26" s="440"/>
-      <c r="I26" s="475"/>
-      <c r="J26" s="485"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="473"/>
+      <c r="B26" s="439">
+        <v>44309</v>
+      </c>
+      <c r="C26" s="439">
+        <v>44312</v>
+      </c>
+      <c r="D26" s="439">
+        <v>44319</v>
+      </c>
+      <c r="E26" s="478">
+        <v>560448</v>
+      </c>
+      <c r="F26" s="478">
+        <v>583315</v>
+      </c>
+      <c r="G26" s="441">
+        <f>F26/A$21</f>
+        <v>3.7877597402597406E-2</v>
+      </c>
+      <c r="H26" s="438">
+        <f t="shared" ref="H26" si="5">H25-F26</f>
+        <v>11772439</v>
+      </c>
+      <c r="I26" s="472">
+        <f t="shared" ref="I26" si="6">I25-G26</f>
+        <v>0.76444409090909093</v>
+      </c>
+      <c r="J26" s="484">
+        <v>437</v>
+      </c>
       <c r="K26" s="436"/>
       <c r="L26" s="393"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="474"/>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="473"/>
       <c r="B27" s="439"/>
       <c r="C27" s="439"/>
       <c r="D27" s="439"/>
-      <c r="E27" s="479"/>
-      <c r="F27" s="479"/>
+      <c r="E27" s="478"/>
+      <c r="F27" s="478"/>
       <c r="G27" s="441"/>
       <c r="H27" s="440"/>
-      <c r="I27" s="475"/>
-      <c r="J27" s="485"/>
+      <c r="I27" s="474"/>
+      <c r="J27" s="484"/>
       <c r="K27" s="436"/>
       <c r="L27" s="393"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="474"/>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="473"/>
       <c r="B28" s="439"/>
       <c r="C28" s="439"/>
       <c r="D28" s="439"/>
-      <c r="E28" s="479"/>
-      <c r="F28" s="479"/>
+      <c r="E28" s="478"/>
+      <c r="F28" s="478"/>
       <c r="G28" s="441"/>
       <c r="H28" s="440"/>
-      <c r="I28" s="475"/>
-      <c r="J28" s="485"/>
+      <c r="I28" s="474"/>
+      <c r="J28" s="484"/>
       <c r="K28" s="436"/>
       <c r="L28" s="393"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="474"/>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="473"/>
       <c r="B29" s="439"/>
       <c r="C29" s="439"/>
       <c r="D29" s="466"/>
-      <c r="E29" s="480"/>
-      <c r="F29" s="479"/>
+      <c r="E29" s="479"/>
+      <c r="F29" s="478"/>
       <c r="G29" s="443"/>
       <c r="H29" s="440"/>
-      <c r="I29" s="468"/>
-      <c r="J29" s="485"/>
+      <c r="I29" s="467"/>
+      <c r="J29" s="484"/>
       <c r="K29" s="436"/>
       <c r="L29" s="393"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="474"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="473"/>
       <c r="B30" s="439"/>
       <c r="C30" s="439"/>
       <c r="D30" s="466"/>
-      <c r="E30" s="480"/>
-      <c r="F30" s="479"/>
+      <c r="E30" s="479"/>
+      <c r="F30" s="478"/>
       <c r="G30" s="441"/>
       <c r="H30" s="440"/>
-      <c r="I30" s="468"/>
-      <c r="J30" s="485"/>
+      <c r="I30" s="467"/>
+      <c r="J30" s="484"/>
       <c r="K30" s="436"/>
       <c r="L30" s="393"/>
     </row>
-    <row r="31" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="476"/>
+    <row r="31" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="475"/>
       <c r="B31" s="444"/>
       <c r="C31" s="444"/>
-      <c r="D31" s="469"/>
-      <c r="E31" s="481"/>
-      <c r="F31" s="482"/>
+      <c r="D31" s="468"/>
+      <c r="E31" s="480"/>
+      <c r="F31" s="481"/>
       <c r="G31" s="445"/>
       <c r="H31" s="446"/>
-      <c r="I31" s="470"/>
-      <c r="J31" s="485"/>
+      <c r="I31" s="469"/>
+      <c r="J31" s="484"/>
       <c r="K31" s="393"/>
       <c r="L31" s="393"/>
     </row>
-    <row r="32" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="447" t="s">
         <v>128</v>
       </c>
       <c r="B32" s="448"/>
       <c r="C32" s="448"/>
       <c r="D32" s="449"/>
-      <c r="E32" s="486">
+      <c r="E32" s="485">
         <f>SUM(E21:E31)</f>
-        <v>1740108</v>
-      </c>
-      <c r="F32" s="487">
+        <v>3401284</v>
+      </c>
+      <c r="F32" s="486">
         <f>SUM(F21:F31)</f>
-        <v>1879263</v>
+        <v>3627561</v>
       </c>
       <c r="G32" s="450">
         <f>SUM(G21:G31)</f>
-        <v>0.12203006493506494</v>
+        <v>0.23555590909090909</v>
       </c>
       <c r="H32" s="451">
         <f>A21-F32</f>
-        <v>13520737</v>
+        <v>11772439</v>
       </c>
       <c r="I32" s="452">
         <f>1-G32</f>
-        <v>0.87796993506493504</v>
+        <v>0.76444409090909093</v>
       </c>
       <c r="J32" s="452"/>
       <c r="K32" s="453"/>
       <c r="L32" s="453"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="393"/>
       <c r="B35" s="393"/>
       <c r="C35" s="393"/>
@@ -9730,13 +10056,13 @@
       <c r="I35" s="393"/>
       <c r="J35" s="393"/>
     </row>
-    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="509" t="s">
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="512" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="509"/>
-      <c r="C36" s="509"/>
-      <c r="D36" s="509"/>
+      <c r="B36" s="512"/>
+      <c r="C36" s="512"/>
+      <c r="D36" s="512"/>
       <c r="E36" s="393"/>
       <c r="F36" s="393"/>
       <c r="G36" s="393"/>
@@ -9744,11 +10070,11 @@
       <c r="I36" s="393"/>
       <c r="J36" s="393"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="510" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="513" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="510"/>
+      <c r="B37" s="513"/>
       <c r="C37" s="454" t="s">
         <v>131</v>
       </c>
@@ -9762,19 +10088,19 @@
       <c r="I37" s="393"/>
       <c r="J37" s="393"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="511">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="514">
         <f>A21-F32</f>
-        <v>13520737</v>
-      </c>
-      <c r="B38" s="512"/>
+        <v>11772439</v>
+      </c>
+      <c r="B38" s="515"/>
       <c r="C38" s="455">
         <f>1-G32</f>
-        <v>0.87796993506493504</v>
+        <v>0.76444409090909093</v>
       </c>
       <c r="D38" s="456">
         <f>(C38/0.8)*100</f>
-        <v>109.74624188311688</v>
+        <v>95.555511363636356</v>
       </c>
       <c r="E38" s="457" t="s">
         <v>133</v>
@@ -9785,7 +10111,7 @@
       <c r="I38" s="457"/>
       <c r="J38" s="457"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="393"/>
       <c r="B39" s="393"/>
       <c r="C39" s="393"/>
@@ -9793,7 +10119,7 @@
       <c r="E39" s="393"/>
       <c r="F39" s="393"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="393"/>
       <c r="B40" s="393"/>
       <c r="C40" s="393"/>
@@ -9808,7 +10134,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="393"/>
       <c r="B41" s="458"/>
       <c r="C41" s="458"/>
@@ -9820,7 +10146,7 @@
       <c r="I41" s="393"/>
       <c r="J41" s="393"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="459"/>
       <c r="B42" s="459"/>
       <c r="C42" s="459"/>
@@ -9829,10 +10155,10 @@
       <c r="F42" s="459"/>
       <c r="G42" s="459"/>
       <c r="H42" s="459"/>
-      <c r="I42" s="513"/>
-      <c r="J42" s="514"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I42" s="506"/>
+      <c r="J42" s="507"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="460"/>
       <c r="B43" s="461"/>
       <c r="C43" s="461"/>
@@ -9842,7 +10168,7 @@
       <c r="G43" s="423"/>
       <c r="H43" s="461"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="460"/>
       <c r="B44" s="461"/>
       <c r="C44" s="461"/>
@@ -9852,7 +10178,7 @@
       <c r="G44" s="423"/>
       <c r="H44" s="461"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="460"/>
       <c r="B45" s="461"/>
       <c r="C45" s="461"/>
@@ -9862,7 +10188,7 @@
       <c r="G45" s="423"/>
       <c r="H45" s="461"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="460"/>
       <c r="B46" s="461"/>
       <c r="C46" s="461"/>
@@ -9872,7 +10198,7 @@
       <c r="G46" s="423"/>
       <c r="H46" s="461"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="460"/>
       <c r="B47" s="461"/>
       <c r="C47" s="461"/>
@@ -9882,7 +10208,7 @@
       <c r="G47" s="423"/>
       <c r="H47" s="461"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="460"/>
       <c r="B48" s="461"/>
       <c r="C48" s="413"/>
@@ -9892,7 +10218,7 @@
       <c r="G48" s="413"/>
       <c r="H48" s="413"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" s="460"/>
       <c r="B49" s="461"/>
       <c r="C49" s="461"/>
@@ -9902,7 +10228,7 @@
       <c r="G49" s="423"/>
       <c r="H49" s="461"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" s="460"/>
       <c r="B50" s="461"/>
       <c r="C50" s="461"/>
@@ -9912,7 +10238,7 @@
       <c r="G50" s="423"/>
       <c r="H50" s="461"/>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" s="460"/>
       <c r="B51" s="461"/>
       <c r="C51" s="461"/>
@@ -9922,11 +10248,11 @@
       <c r="G51" s="423"/>
       <c r="H51" s="461"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="393"/>
-      <c r="B52" s="506"/>
-      <c r="C52" s="506"/>
-      <c r="D52" s="507"/>
+      <c r="B52" s="509"/>
+      <c r="C52" s="509"/>
+      <c r="D52" s="510"/>
       <c r="E52" s="457"/>
       <c r="F52" s="393"/>
       <c r="G52" s="393"/>
@@ -9934,7 +10260,7 @@
       <c r="I52" s="393"/>
       <c r="J52" s="393"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="459"/>
       <c r="B53" s="459"/>
       <c r="C53" s="459"/>
@@ -9943,10 +10269,10 @@
       <c r="F53" s="459"/>
       <c r="G53" s="459"/>
       <c r="H53" s="459"/>
-      <c r="I53" s="513"/>
-      <c r="J53" s="514"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I53" s="506"/>
+      <c r="J53" s="507"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="460"/>
       <c r="B54" s="393"/>
       <c r="C54" s="393"/>
@@ -9955,10 +10281,10 @@
       <c r="F54" s="423"/>
       <c r="G54" s="423"/>
       <c r="H54" s="461"/>
-      <c r="I54" s="515"/>
-      <c r="J54" s="515"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I54" s="508"/>
+      <c r="J54" s="508"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="460"/>
       <c r="B55" s="393"/>
       <c r="C55" s="393"/>
@@ -9967,10 +10293,10 @@
       <c r="F55" s="413"/>
       <c r="G55" s="413"/>
       <c r="H55" s="413"/>
-      <c r="I55" s="515"/>
-      <c r="J55" s="515"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I55" s="508"/>
+      <c r="J55" s="508"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="393"/>
       <c r="B56" s="393"/>
       <c r="C56" s="393"/>
@@ -9980,31 +10306,31 @@
       <c r="G56" s="393"/>
       <c r="H56" s="393"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B61" s="513"/>
-      <c r="C61" s="514"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="513"/>
-      <c r="C68" s="514"/>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="506"/>
+      <c r="C61" s="507"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68" s="506"/>
+      <c r="C68" s="507"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B68:C68"/>
     <mergeCell ref="B52:D52"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B68:C68"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="38" max="16383" man="1"/>
   </rowBreaks>
@@ -10012,26 +10338,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:K57"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B31" sqref="B31:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="307"/>
+    <col min="1" max="3" width="9.140625" style="307"/>
     <col min="4" max="4" width="8" style="307" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="307"/>
-    <col min="6" max="6" width="9.77734375" style="307" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="307" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" style="307" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="307" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="307"/>
+    <col min="5" max="5" width="9.140625" style="307"/>
+    <col min="6" max="6" width="9.7109375" style="307" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="307" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="307" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="307" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="307"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G2" s="316" t="s">
         <v>58</v>
       </c>
@@ -10040,7 +10366,7 @@
       <c r="J2" s="317"/>
       <c r="K2" s="317"/>
     </row>
-    <row r="3" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G3" s="316" t="s">
         <v>101</v>
       </c>
@@ -10049,7 +10375,7 @@
       <c r="J3" s="317"/>
       <c r="K3" s="317"/>
     </row>
-    <row r="4" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G4" s="316" t="s">
         <v>104</v>
       </c>
@@ -10058,8 +10384,8 @@
       <c r="J4" s="317"/>
       <c r="K4" s="317"/>
     </row>
-    <row r="5" spans="1:11" s="367" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" s="367" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="G6" s="368"/>
       <c r="H6" s="316" t="s">
         <v>102</v>
@@ -10067,12 +10393,12 @@
       <c r="I6" s="317"/>
       <c r="J6" s="317"/>
     </row>
-    <row r="7" spans="1:11" s="367" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" s="367" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="H7" s="317"/>
       <c r="I7" s="317"/>
       <c r="J7" s="317"/>
     </row>
-    <row r="8" spans="1:11" s="367" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" s="367" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="G8" s="310" t="s">
         <v>59</v>
       </c>
@@ -10082,50 +10408,50 @@
       </c>
       <c r="J8" s="317"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="517" t="s">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="541" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="517"/>
-      <c r="C11" s="517"/>
-      <c r="D11" s="517"/>
-      <c r="E11" s="517"/>
-      <c r="F11" s="517"/>
-      <c r="G11" s="517"/>
-      <c r="H11" s="517"/>
-      <c r="I11" s="517"/>
-      <c r="J11" s="517"/>
-    </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="516" t="s">
+      <c r="B11" s="541"/>
+      <c r="C11" s="541"/>
+      <c r="D11" s="541"/>
+      <c r="E11" s="541"/>
+      <c r="F11" s="541"/>
+      <c r="G11" s="541"/>
+      <c r="H11" s="541"/>
+      <c r="I11" s="541"/>
+      <c r="J11" s="541"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="540" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="516"/>
-      <c r="C12" s="516"/>
-      <c r="D12" s="516"/>
-      <c r="E12" s="516"/>
-      <c r="F12" s="516"/>
-      <c r="G12" s="516"/>
-      <c r="H12" s="516"/>
-      <c r="I12" s="516"/>
-      <c r="J12" s="516"/>
-    </row>
-    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="518" t="str">
+      <c r="B12" s="540"/>
+      <c r="C12" s="540"/>
+      <c r="D12" s="540"/>
+      <c r="E12" s="540"/>
+      <c r="F12" s="540"/>
+      <c r="G12" s="540"/>
+      <c r="H12" s="540"/>
+      <c r="I12" s="540"/>
+      <c r="J12" s="540"/>
+    </row>
+    <row r="13" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="542" t="str">
         <f>Данные!A2</f>
-        <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
-      </c>
-      <c r="B13" s="517"/>
-      <c r="C13" s="517"/>
-      <c r="D13" s="517"/>
-      <c r="E13" s="517"/>
-      <c r="F13" s="517"/>
-      <c r="G13" s="517"/>
-      <c r="H13" s="517"/>
-      <c r="I13" s="517"/>
-      <c r="J13" s="517"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>XXI-КПМ-30-1-500-9 (Штофф Земляк)</v>
+      </c>
+      <c r="B13" s="541"/>
+      <c r="C13" s="541"/>
+      <c r="D13" s="541"/>
+      <c r="E13" s="541"/>
+      <c r="F13" s="541"/>
+      <c r="G13" s="541"/>
+      <c r="H13" s="541"/>
+      <c r="I13" s="541"/>
+      <c r="J13" s="541"/>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="311" t="s">
         <v>60</v>
       </c>
@@ -10142,7 +10468,7 @@
       <c r="I15" s="311"/>
       <c r="J15" s="312"/>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="311" t="s">
         <v>95</v>
       </c>
@@ -10156,7 +10482,7 @@
       <c r="I16" s="311"/>
       <c r="J16" s="312"/>
     </row>
-    <row r="17" spans="1:10" s="369" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="369" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="319" t="s">
         <v>61</v>
       </c>
@@ -10177,7 +10503,7 @@
       </c>
       <c r="J17" s="312"/>
     </row>
-    <row r="18" spans="1:10" s="369" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="369" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="319" t="s">
         <v>61</v>
       </c>
@@ -10198,7 +10524,7 @@
       </c>
       <c r="J18" s="312"/>
     </row>
-    <row r="19" spans="1:10" s="369" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="369" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="320"/>
       <c r="B19" s="320"/>
       <c r="C19" s="320"/>
@@ -10216,7 +10542,7 @@
       </c>
       <c r="J19" s="312"/>
     </row>
-    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="311" t="s">
         <v>75</v>
       </c>
@@ -10233,7 +10559,7 @@
       </c>
       <c r="J20" s="312"/>
     </row>
-    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="311" t="s">
         <v>76</v>
       </c>
@@ -10247,485 +10573,485 @@
       <c r="I21" s="311"/>
       <c r="J21" s="312"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="522" t="s">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="538" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="522" t="s">
+      <c r="B22" s="538" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="522"/>
-      <c r="D22" s="522"/>
-      <c r="E22" s="522" t="s">
+      <c r="C22" s="538"/>
+      <c r="D22" s="538"/>
+      <c r="E22" s="538" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="522"/>
-      <c r="G22" s="540" t="s">
+      <c r="F22" s="538"/>
+      <c r="G22" s="539" t="s">
         <v>68</v>
       </c>
-      <c r="H22" s="522" t="s">
+      <c r="H22" s="538" t="s">
         <v>69</v>
       </c>
-      <c r="I22" s="522"/>
-      <c r="J22" s="522"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="522"/>
-      <c r="B23" s="522"/>
-      <c r="C23" s="522"/>
-      <c r="D23" s="522"/>
-      <c r="E23" s="522"/>
-      <c r="F23" s="522"/>
-      <c r="G23" s="540"/>
-      <c r="H23" s="522"/>
-      <c r="I23" s="522"/>
-      <c r="J23" s="522"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="523">
+      <c r="I22" s="538"/>
+      <c r="J22" s="538"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="538"/>
+      <c r="B23" s="538"/>
+      <c r="C23" s="538"/>
+      <c r="D23" s="538"/>
+      <c r="E23" s="538"/>
+      <c r="F23" s="538"/>
+      <c r="G23" s="539"/>
+      <c r="H23" s="538"/>
+      <c r="I23" s="538"/>
+      <c r="J23" s="538"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="516">
         <v>1</v>
       </c>
-      <c r="B24" s="537" t="s">
+      <c r="B24" s="543" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="538"/>
-      <c r="D24" s="539"/>
-      <c r="E24" s="525" t="str">
+      <c r="C24" s="544"/>
+      <c r="D24" s="545"/>
+      <c r="E24" s="521" t="str">
         <f>Данные!C14</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F24" s="526"/>
-      <c r="G24" s="529">
+      <c r="F24" s="522"/>
+      <c r="G24" s="525">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="H24" s="531"/>
-      <c r="I24" s="532"/>
-      <c r="J24" s="533"/>
-    </row>
-    <row r="25" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="524"/>
-      <c r="B25" s="519" t="str">
+      <c r="H24" s="527"/>
+      <c r="I24" s="528"/>
+      <c r="J24" s="529"/>
+    </row>
+    <row r="25" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="536"/>
+      <c r="B25" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C25" s="520"/>
-      <c r="D25" s="521"/>
-      <c r="E25" s="527"/>
-      <c r="F25" s="528"/>
-      <c r="G25" s="530"/>
-      <c r="H25" s="534"/>
-      <c r="I25" s="535"/>
-      <c r="J25" s="536"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="523">
+      <c r="C25" s="534"/>
+      <c r="D25" s="535"/>
+      <c r="E25" s="537"/>
+      <c r="F25" s="524"/>
+      <c r="G25" s="526"/>
+      <c r="H25" s="530"/>
+      <c r="I25" s="531"/>
+      <c r="J25" s="532"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="516">
         <v>1</v>
       </c>
-      <c r="B26" s="541" t="s">
+      <c r="B26" s="518" t="s">
         <v>107</v>
       </c>
-      <c r="C26" s="542"/>
-      <c r="D26" s="543"/>
-      <c r="E26" s="525" t="str">
+      <c r="C26" s="519"/>
+      <c r="D26" s="520"/>
+      <c r="E26" s="521" t="str">
         <f>Данные!C15</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F26" s="526"/>
-      <c r="G26" s="529">
+      <c r="F26" s="522"/>
+      <c r="G26" s="525">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="H26" s="531"/>
-      <c r="I26" s="532"/>
-      <c r="J26" s="533"/>
-    </row>
-    <row r="27" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="524"/>
-      <c r="B27" s="519" t="str">
+      <c r="H26" s="527"/>
+      <c r="I26" s="528"/>
+      <c r="J26" s="529"/>
+    </row>
+    <row r="27" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="536"/>
+      <c r="B27" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C27" s="520"/>
-      <c r="D27" s="521"/>
-      <c r="E27" s="527"/>
-      <c r="F27" s="528"/>
-      <c r="G27" s="530"/>
-      <c r="H27" s="534"/>
-      <c r="I27" s="535"/>
-      <c r="J27" s="536"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="523">
+      <c r="C27" s="534"/>
+      <c r="D27" s="535"/>
+      <c r="E27" s="537"/>
+      <c r="F27" s="524"/>
+      <c r="G27" s="526"/>
+      <c r="H27" s="530"/>
+      <c r="I27" s="531"/>
+      <c r="J27" s="532"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="516">
         <v>1</v>
       </c>
-      <c r="B28" s="541" t="s">
+      <c r="B28" s="518" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="542"/>
-      <c r="D28" s="543"/>
-      <c r="E28" s="525" t="str">
+      <c r="C28" s="519"/>
+      <c r="D28" s="520"/>
+      <c r="E28" s="521" t="str">
         <f>Данные!C16</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F28" s="526"/>
-      <c r="G28" s="529">
+      <c r="F28" s="522"/>
+      <c r="G28" s="525">
         <f>Данные!B16</f>
         <v>24</v>
       </c>
-      <c r="H28" s="531"/>
-      <c r="I28" s="532"/>
-      <c r="J28" s="533"/>
-    </row>
-    <row r="29" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="524"/>
-      <c r="B29" s="519" t="str">
+      <c r="H28" s="527"/>
+      <c r="I28" s="528"/>
+      <c r="J28" s="529"/>
+    </row>
+    <row r="29" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="536"/>
+      <c r="B29" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C29" s="520"/>
-      <c r="D29" s="521"/>
-      <c r="E29" s="527"/>
-      <c r="F29" s="528"/>
-      <c r="G29" s="530"/>
-      <c r="H29" s="534"/>
-      <c r="I29" s="535"/>
-      <c r="J29" s="536"/>
-    </row>
-    <row r="30" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="523">
+      <c r="C29" s="534"/>
+      <c r="D29" s="535"/>
+      <c r="E29" s="537"/>
+      <c r="F29" s="524"/>
+      <c r="G29" s="526"/>
+      <c r="H29" s="530"/>
+      <c r="I29" s="531"/>
+      <c r="J29" s="532"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="516">
         <v>1</v>
       </c>
-      <c r="B30" s="541" t="s">
+      <c r="B30" s="518" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="542"/>
-      <c r="D30" s="543"/>
-      <c r="E30" s="525" t="str">
+      <c r="C30" s="519"/>
+      <c r="D30" s="520"/>
+      <c r="E30" s="521" t="str">
         <f>Данные!C17</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F30" s="526"/>
-      <c r="G30" s="529">
+      <c r="F30" s="522"/>
+      <c r="G30" s="525">
         <f>Данные!B17</f>
         <v>24</v>
       </c>
-      <c r="H30" s="531"/>
-      <c r="I30" s="532"/>
-      <c r="J30" s="533"/>
-    </row>
-    <row r="31" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="544"/>
-      <c r="B31" s="519" t="str">
+      <c r="H30" s="527"/>
+      <c r="I30" s="528"/>
+      <c r="J30" s="529"/>
+    </row>
+    <row r="31" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="517"/>
+      <c r="B31" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C31" s="520"/>
-      <c r="D31" s="521"/>
-      <c r="E31" s="545"/>
-      <c r="F31" s="528"/>
-      <c r="G31" s="530"/>
-      <c r="H31" s="534"/>
-      <c r="I31" s="535"/>
-      <c r="J31" s="536"/>
-    </row>
-    <row r="32" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="523">
+      <c r="C31" s="534"/>
+      <c r="D31" s="535"/>
+      <c r="E31" s="523"/>
+      <c r="F31" s="524"/>
+      <c r="G31" s="526"/>
+      <c r="H31" s="530"/>
+      <c r="I31" s="531"/>
+      <c r="J31" s="532"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="516">
         <v>1</v>
       </c>
-      <c r="B32" s="541" t="s">
+      <c r="B32" s="518" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="542"/>
-      <c r="D32" s="543"/>
-      <c r="E32" s="525" t="str">
+      <c r="C32" s="519"/>
+      <c r="D32" s="520"/>
+      <c r="E32" s="521" t="str">
         <f>Данные!C18</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F32" s="526"/>
-      <c r="G32" s="529">
+      <c r="F32" s="522"/>
+      <c r="G32" s="525">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="H32" s="531"/>
-      <c r="I32" s="532"/>
-      <c r="J32" s="533"/>
-    </row>
-    <row r="33" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="544"/>
-      <c r="B33" s="519" t="str">
+      <c r="H32" s="527"/>
+      <c r="I32" s="528"/>
+      <c r="J32" s="529"/>
+    </row>
+    <row r="33" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="517"/>
+      <c r="B33" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C33" s="520"/>
-      <c r="D33" s="521"/>
-      <c r="E33" s="545"/>
-      <c r="F33" s="528"/>
-      <c r="G33" s="530"/>
-      <c r="H33" s="534"/>
-      <c r="I33" s="535"/>
-      <c r="J33" s="536"/>
-    </row>
-    <row r="34" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="523">
+      <c r="C33" s="534"/>
+      <c r="D33" s="535"/>
+      <c r="E33" s="523"/>
+      <c r="F33" s="524"/>
+      <c r="G33" s="526"/>
+      <c r="H33" s="530"/>
+      <c r="I33" s="531"/>
+      <c r="J33" s="532"/>
+    </row>
+    <row r="34" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="516">
         <v>1</v>
       </c>
-      <c r="B34" s="541" t="s">
+      <c r="B34" s="518" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="542"/>
-      <c r="D34" s="543"/>
-      <c r="E34" s="525" t="str">
+      <c r="C34" s="519"/>
+      <c r="D34" s="520"/>
+      <c r="E34" s="521" t="str">
         <f>Данные!C19</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F34" s="526"/>
-      <c r="G34" s="529">
+      <c r="F34" s="522"/>
+      <c r="G34" s="525">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="H34" s="531"/>
-      <c r="I34" s="532"/>
-      <c r="J34" s="533"/>
-    </row>
-    <row r="35" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="544"/>
-      <c r="B35" s="519" t="str">
+      <c r="H34" s="527"/>
+      <c r="I34" s="528"/>
+      <c r="J34" s="529"/>
+    </row>
+    <row r="35" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="517"/>
+      <c r="B35" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C35" s="520"/>
-      <c r="D35" s="521"/>
-      <c r="E35" s="545"/>
-      <c r="F35" s="528"/>
-      <c r="G35" s="530"/>
-      <c r="H35" s="534"/>
-      <c r="I35" s="535"/>
-      <c r="J35" s="536"/>
-    </row>
-    <row r="36" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="523">
+      <c r="C35" s="534"/>
+      <c r="D35" s="535"/>
+      <c r="E35" s="523"/>
+      <c r="F35" s="524"/>
+      <c r="G35" s="526"/>
+      <c r="H35" s="530"/>
+      <c r="I35" s="531"/>
+      <c r="J35" s="532"/>
+    </row>
+    <row r="36" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="516">
         <v>1</v>
       </c>
-      <c r="B36" s="541" t="s">
+      <c r="B36" s="518" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="542"/>
-      <c r="D36" s="543"/>
-      <c r="E36" s="525" t="str">
+      <c r="C36" s="519"/>
+      <c r="D36" s="520"/>
+      <c r="E36" s="521" t="str">
         <f>Данные!C20</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F36" s="526"/>
-      <c r="G36" s="529">
+      <c r="F36" s="522"/>
+      <c r="G36" s="525">
         <f>Данные!B20</f>
         <v>40</v>
       </c>
-      <c r="H36" s="531"/>
-      <c r="I36" s="532"/>
-      <c r="J36" s="533"/>
-    </row>
-    <row r="37" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="544"/>
-      <c r="B37" s="519" t="str">
+      <c r="H36" s="527"/>
+      <c r="I36" s="528"/>
+      <c r="J36" s="529"/>
+    </row>
+    <row r="37" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="517"/>
+      <c r="B37" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C37" s="520"/>
-      <c r="D37" s="521"/>
-      <c r="E37" s="545"/>
-      <c r="F37" s="528"/>
-      <c r="G37" s="530"/>
-      <c r="H37" s="534"/>
-      <c r="I37" s="535"/>
-      <c r="J37" s="536"/>
-    </row>
-    <row r="38" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="523">
+      <c r="C37" s="534"/>
+      <c r="D37" s="535"/>
+      <c r="E37" s="523"/>
+      <c r="F37" s="524"/>
+      <c r="G37" s="526"/>
+      <c r="H37" s="530"/>
+      <c r="I37" s="531"/>
+      <c r="J37" s="532"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="516">
         <v>1</v>
       </c>
-      <c r="B38" s="541" t="s">
+      <c r="B38" s="518" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="542"/>
-      <c r="D38" s="543"/>
-      <c r="E38" s="525" t="str">
+      <c r="C38" s="519"/>
+      <c r="D38" s="520"/>
+      <c r="E38" s="521" t="str">
         <f>Данные!C21</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F38" s="526"/>
-      <c r="G38" s="529">
+      <c r="F38" s="522"/>
+      <c r="G38" s="525">
         <f>Данные!B21</f>
         <v>20</v>
       </c>
-      <c r="H38" s="531"/>
-      <c r="I38" s="532"/>
-      <c r="J38" s="533"/>
-    </row>
-    <row r="39" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="544"/>
-      <c r="B39" s="519" t="str">
+      <c r="H38" s="527"/>
+      <c r="I38" s="528"/>
+      <c r="J38" s="529"/>
+    </row>
+    <row r="39" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="517"/>
+      <c r="B39" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C39" s="520"/>
-      <c r="D39" s="521"/>
-      <c r="E39" s="545"/>
-      <c r="F39" s="528"/>
-      <c r="G39" s="530"/>
-      <c r="H39" s="534"/>
-      <c r="I39" s="535"/>
-      <c r="J39" s="536"/>
-    </row>
-    <row r="40" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="523">
+      <c r="C39" s="534"/>
+      <c r="D39" s="535"/>
+      <c r="E39" s="523"/>
+      <c r="F39" s="524"/>
+      <c r="G39" s="526"/>
+      <c r="H39" s="530"/>
+      <c r="I39" s="531"/>
+      <c r="J39" s="532"/>
+    </row>
+    <row r="40" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="516">
         <v>1</v>
       </c>
-      <c r="B40" s="541" t="s">
+      <c r="B40" s="518" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="542"/>
-      <c r="D40" s="543"/>
-      <c r="E40" s="525" t="str">
+      <c r="C40" s="519"/>
+      <c r="D40" s="520"/>
+      <c r="E40" s="521" t="str">
         <f>Данные!C23</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F40" s="526"/>
-      <c r="G40" s="529">
+      <c r="F40" s="522"/>
+      <c r="G40" s="525">
         <f>Данные!B23</f>
         <v>18</v>
       </c>
-      <c r="H40" s="531"/>
-      <c r="I40" s="532"/>
-      <c r="J40" s="533"/>
-    </row>
-    <row r="41" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="544"/>
-      <c r="B41" s="519" t="str">
+      <c r="H40" s="527"/>
+      <c r="I40" s="528"/>
+      <c r="J40" s="529"/>
+    </row>
+    <row r="41" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="517"/>
+      <c r="B41" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C41" s="520"/>
-      <c r="D41" s="521"/>
-      <c r="E41" s="545"/>
-      <c r="F41" s="528"/>
-      <c r="G41" s="530"/>
-      <c r="H41" s="534"/>
-      <c r="I41" s="535"/>
-      <c r="J41" s="536"/>
-    </row>
-    <row r="42" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="523">
+      <c r="C41" s="534"/>
+      <c r="D41" s="535"/>
+      <c r="E41" s="523"/>
+      <c r="F41" s="524"/>
+      <c r="G41" s="526"/>
+      <c r="H41" s="530"/>
+      <c r="I41" s="531"/>
+      <c r="J41" s="532"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="516">
         <v>1</v>
       </c>
-      <c r="B42" s="541" t="s">
+      <c r="B42" s="518" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="542"/>
-      <c r="D42" s="543"/>
-      <c r="E42" s="525" t="str">
+      <c r="C42" s="519"/>
+      <c r="D42" s="520"/>
+      <c r="E42" s="521" t="str">
         <f>Данные!C26</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F42" s="526"/>
-      <c r="G42" s="529">
+      <c r="F42" s="522"/>
+      <c r="G42" s="525">
         <f>Данные!B26</f>
         <v>18</v>
       </c>
-      <c r="H42" s="531"/>
-      <c r="I42" s="532"/>
-      <c r="J42" s="533"/>
-    </row>
-    <row r="43" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="544"/>
-      <c r="B43" s="519" t="str">
+      <c r="H42" s="527"/>
+      <c r="I42" s="528"/>
+      <c r="J42" s="529"/>
+    </row>
+    <row r="43" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="517"/>
+      <c r="B43" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C43" s="520"/>
-      <c r="D43" s="521"/>
-      <c r="E43" s="545"/>
-      <c r="F43" s="528"/>
-      <c r="G43" s="530"/>
-      <c r="H43" s="534"/>
-      <c r="I43" s="535"/>
-      <c r="J43" s="536"/>
-    </row>
-    <row r="44" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="523">
+      <c r="C43" s="534"/>
+      <c r="D43" s="535"/>
+      <c r="E43" s="523"/>
+      <c r="F43" s="524"/>
+      <c r="G43" s="526"/>
+      <c r="H43" s="530"/>
+      <c r="I43" s="531"/>
+      <c r="J43" s="532"/>
+    </row>
+    <row r="44" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="516">
         <v>1</v>
       </c>
-      <c r="B44" s="541" t="s">
+      <c r="B44" s="518" t="s">
         <v>105</v>
       </c>
-      <c r="C44" s="542"/>
-      <c r="D44" s="543"/>
-      <c r="E44" s="525">
+      <c r="C44" s="519"/>
+      <c r="D44" s="520"/>
+      <c r="E44" s="521">
         <f>Данные!C27</f>
         <v>0</v>
       </c>
-      <c r="F44" s="526"/>
-      <c r="G44" s="529">
+      <c r="F44" s="522"/>
+      <c r="G44" s="525">
         <f>Данные!B27</f>
         <v>18</v>
       </c>
-      <c r="H44" s="531"/>
-      <c r="I44" s="532"/>
-      <c r="J44" s="533"/>
-    </row>
-    <row r="45" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="544"/>
-      <c r="B45" s="519" t="str">
+      <c r="H44" s="527"/>
+      <c r="I44" s="528"/>
+      <c r="J44" s="529"/>
+    </row>
+    <row r="45" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="517"/>
+      <c r="B45" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C45" s="520"/>
-      <c r="D45" s="521"/>
-      <c r="E45" s="545"/>
-      <c r="F45" s="528"/>
-      <c r="G45" s="530"/>
-      <c r="H45" s="534"/>
-      <c r="I45" s="535"/>
-      <c r="J45" s="536"/>
-    </row>
-    <row r="46" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="523">
+      <c r="C45" s="534"/>
+      <c r="D45" s="535"/>
+      <c r="E45" s="523"/>
+      <c r="F45" s="524"/>
+      <c r="G45" s="526"/>
+      <c r="H45" s="530"/>
+      <c r="I45" s="531"/>
+      <c r="J45" s="532"/>
+    </row>
+    <row r="46" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="516">
         <v>1</v>
       </c>
-      <c r="B46" s="541" t="s">
+      <c r="B46" s="518" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="542"/>
-      <c r="D46" s="543"/>
-      <c r="E46" s="525" t="str">
+      <c r="C46" s="519"/>
+      <c r="D46" s="520"/>
+      <c r="E46" s="521" t="str">
         <f>Данные!C24</f>
         <v>ХXI-КПМ-30-1-500-9</v>
       </c>
-      <c r="F46" s="526"/>
-      <c r="G46" s="529">
+      <c r="F46" s="522"/>
+      <c r="G46" s="525">
         <f>Данные!B24</f>
         <v>8</v>
       </c>
-      <c r="H46" s="531"/>
-      <c r="I46" s="532"/>
-      <c r="J46" s="533"/>
-    </row>
-    <row r="47" spans="1:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="544"/>
-      <c r="B47" s="519" t="str">
+      <c r="H46" s="527"/>
+      <c r="I46" s="528"/>
+      <c r="J46" s="529"/>
+    </row>
+    <row r="47" spans="1:10" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="517"/>
+      <c r="B47" s="533" t="str">
         <f>Данные!$A$30</f>
         <v>(к серийному формокомплекту ХXI-КПМ-30-1-500-9 Штофф)</v>
       </c>
-      <c r="C47" s="520"/>
-      <c r="D47" s="521"/>
-      <c r="E47" s="545"/>
-      <c r="F47" s="528"/>
-      <c r="G47" s="530"/>
-      <c r="H47" s="534"/>
-      <c r="I47" s="535"/>
-      <c r="J47" s="536"/>
-    </row>
-    <row r="48" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C47" s="534"/>
+      <c r="D47" s="535"/>
+      <c r="E47" s="523"/>
+      <c r="F47" s="524"/>
+      <c r="G47" s="526"/>
+      <c r="H47" s="530"/>
+      <c r="I47" s="531"/>
+      <c r="J47" s="532"/>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="311"/>
       <c r="B48" s="311"/>
       <c r="C48" s="311"/>
@@ -10737,7 +11063,7 @@
       <c r="I48" s="311"/>
       <c r="J48" s="312"/>
     </row>
-    <row r="49" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="311" t="s">
         <v>71</v>
       </c>
@@ -10751,7 +11077,7 @@
       <c r="I49" s="311"/>
       <c r="J49" s="312"/>
     </row>
-    <row r="50" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="311"/>
       <c r="B50" s="311"/>
       <c r="C50" s="311"/>
@@ -10763,7 +11089,7 @@
       <c r="I50" s="311"/>
       <c r="J50" s="312"/>
     </row>
-    <row r="51" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="311"/>
       <c r="B51" s="314" t="s">
         <v>72</v>
@@ -10779,7 +11105,7 @@
       <c r="I51" s="311"/>
       <c r="J51" s="312"/>
     </row>
-    <row r="52" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="311"/>
       <c r="B52" s="311"/>
       <c r="C52" s="311"/>
@@ -10791,7 +11117,7 @@
       <c r="I52" s="311"/>
       <c r="J52" s="312"/>
     </row>
-    <row r="53" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="311"/>
       <c r="B53" s="311"/>
       <c r="C53" s="311"/>
@@ -10805,7 +11131,7 @@
       </c>
       <c r="J53" s="311"/>
     </row>
-    <row r="54" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="311"/>
       <c r="B54" s="311"/>
       <c r="C54" s="311"/>
@@ -10816,7 +11142,7 @@
       <c r="I54" s="311"/>
       <c r="J54" s="311"/>
     </row>
-    <row r="55" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="311"/>
       <c r="B55" s="311"/>
       <c r="C55" s="311"/>
@@ -10829,14 +11155,14 @@
         <v>Д.Е. Серков</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="308"/>
       <c r="B56" s="308"/>
       <c r="C56" s="308"/>
       <c r="D56" s="308"/>
       <c r="E56" s="308"/>
     </row>
-    <row r="57" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="308"/>
       <c r="B57" s="308"/>
       <c r="C57" s="308"/>
@@ -10852,70 +11178,6 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:F47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="H46:J47"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="H44:J45"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:J43"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:J41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:J39"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:J37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:J35"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="H32:J33"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="H30:J31"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="H26:J27"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="H28:J29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B22:D23"/>
-    <mergeCell ref="E22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:F27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="A12:J12"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A13:J13"/>
@@ -10932,6 +11194,70 @@
     <mergeCell ref="H24:J25"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:D23"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="E26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:J27"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="H28:J29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:J31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="H32:J33"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:J35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="H38:J39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:J41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:J43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:J45"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:F47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:J47"/>
+    <mergeCell ref="B47:D47"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10940,7 +11266,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -10950,20 +11276,20 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
     <col min="2" max="2" width="5" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.85546875" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="3" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -10984,49 +11310,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="23.25" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="564"/>
-      <c r="C2" s="565"/>
-      <c r="D2" s="566"/>
-      <c r="E2" s="573" t="s">
+      <c r="B2" s="546"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="548"/>
+      <c r="E2" s="555" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="574"/>
-      <c r="G2" s="574"/>
-      <c r="H2" s="575"/>
-      <c r="I2" s="580" t="s">
+      <c r="F2" s="556"/>
+      <c r="G2" s="556"/>
+      <c r="H2" s="557"/>
+      <c r="I2" s="562" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="581"/>
-      <c r="K2" s="584">
+      <c r="J2" s="563"/>
+      <c r="K2" s="566">
         <f>Данные!B14</f>
         <v>22</v>
       </c>
-      <c r="L2" s="585"/>
+      <c r="L2" s="567"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="576"/>
-      <c r="Q2" s="576"/>
+      <c r="P2" s="558"/>
+      <c r="Q2" s="558"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="567"/>
-      <c r="C3" s="568"/>
-      <c r="D3" s="569"/>
-      <c r="E3" s="577" t="s">
+      <c r="B3" s="549"/>
+      <c r="C3" s="550"/>
+      <c r="D3" s="551"/>
+      <c r="E3" s="559" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="578"/>
-      <c r="G3" s="578"/>
-      <c r="H3" s="579"/>
-      <c r="I3" s="582"/>
-      <c r="J3" s="583"/>
-      <c r="K3" s="586"/>
-      <c r="L3" s="587"/>
+      <c r="F3" s="560"/>
+      <c r="G3" s="560"/>
+      <c r="H3" s="561"/>
+      <c r="I3" s="564"/>
+      <c r="J3" s="565"/>
+      <c r="K3" s="568"/>
+      <c r="L3" s="569"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11035,11 +11361,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="23.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="24" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="570"/>
-      <c r="C4" s="571"/>
-      <c r="D4" s="572"/>
+      <c r="B4" s="552"/>
+      <c r="C4" s="553"/>
+      <c r="D4" s="554"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -11056,24 +11382,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="549" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="550"/>
-      <c r="D5" s="498" t="str">
+      <c r="C5" s="574"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="551"/>
-      <c r="J5" s="552"/>
-      <c r="K5" s="499"/>
-      <c r="L5" s="500"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="575"/>
+      <c r="J5" s="576"/>
+      <c r="K5" s="501"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11082,24 +11408,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="549" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="553"/>
-      <c r="D6" s="492" t="str">
+      <c r="C6" s="577"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
-      </c>
-      <c r="E6" s="554"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="554"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="551"/>
-      <c r="J6" s="552"/>
-      <c r="K6" s="499"/>
-      <c r="L6" s="500"/>
+        <v>XXI-КПМ-30-1-500-9 (Штофф Земляк)</v>
+      </c>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="575"/>
+      <c r="J6" s="576"/>
+      <c r="K6" s="501"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11108,29 +11434,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="78.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="557"/>
-      <c r="D7" s="501">
+      <c r="C7" s="581"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="556" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="580" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="560"/>
-      <c r="K7" s="489">
+      <c r="J7" s="584"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="490"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -11139,7 +11465,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11160,7 +11486,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -11193,13 +11519,13 @@
       <c r="R9" s="325"/>
       <c r="S9" s="197"/>
     </row>
-    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="93" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" s="93">
         <v>0.08</v>
@@ -11226,7 +11552,7 @@
       <c r="R10" s="327"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>26</v>
@@ -11259,7 +11585,7 @@
       <c r="R11" s="329"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>2</v>
@@ -11292,7 +11618,7 @@
       <c r="R12" s="329"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>3</v>
@@ -11325,7 +11651,7 @@
       <c r="R13" s="329"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -11358,7 +11684,7 @@
       <c r="R14" s="329"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>9</v>
@@ -11391,7 +11717,7 @@
       <c r="R15" s="329"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>5</v>
@@ -11424,7 +11750,7 @@
       <c r="R16" s="329"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97" t="s">
         <v>30</v>
@@ -11457,13 +11783,13 @@
       <c r="R17" s="329"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="104" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D18" s="105">
         <v>0.05</v>
@@ -11490,7 +11816,7 @@
       <c r="R18" s="331"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="104" t="s">
         <v>33</v>
@@ -11523,13 +11849,13 @@
       <c r="R19" s="331"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78"/>
       <c r="B20" s="104" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="105" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D20" s="105">
         <v>0.05</v>
@@ -11556,7 +11882,7 @@
       <c r="R20" s="331"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="78"/>
       <c r="B21" s="104" t="s">
         <v>40</v>
@@ -11589,7 +11915,7 @@
       <c r="R21" s="331"/>
       <c r="S21" s="86"/>
     </row>
-    <row r="22" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="78"/>
       <c r="B22" s="104" t="s">
         <v>41</v>
@@ -11622,14 +11948,14 @@
       <c r="R22" s="331"/>
       <c r="S22" s="86"/>
     </row>
-    <row r="23" spans="1:19" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="78"/>
-      <c r="B23" s="561" t="s">
+      <c r="B23" s="585" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="562"/>
-      <c r="D23" s="562"/>
-      <c r="E23" s="563"/>
+      <c r="C23" s="586"/>
+      <c r="D23" s="586"/>
+      <c r="E23" s="587"/>
       <c r="F23" s="116" t="s">
         <v>16</v>
       </c>
@@ -11649,14 +11975,14 @@
       <c r="R23" s="331"/>
       <c r="S23" s="86"/>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
-      <c r="B24" s="546" t="s">
+      <c r="B24" s="570" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="547"/>
-      <c r="D24" s="547"/>
-      <c r="E24" s="548"/>
+      <c r="C24" s="571"/>
+      <c r="D24" s="571"/>
+      <c r="E24" s="572"/>
       <c r="F24" s="116" t="s">
         <v>16</v>
       </c>
@@ -11676,7 +12002,7 @@
       <c r="R24" s="333"/>
       <c r="S24" s="86"/>
     </row>
-    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="110"/>
       <c r="B25" s="111"/>
       <c r="C25" s="111"/>
@@ -11697,15 +12023,9 @@
       <c r="R25" s="113"/>
       <c r="S25" s="114"/>
     </row>
-    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -11720,6 +12040,12 @@
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R24">
     <cfRule type="cellIs" dxfId="19" priority="1" stopIfTrue="1" operator="equal">
@@ -11739,7 +12065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -11749,20 +12075,20 @@
       <selection pane="bottomRight" activeCell="C10" sqref="C10:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
     <col min="4" max="5" width="6" style="64" customWidth="1"/>
     <col min="6" max="6" width="7" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -11783,52 +12109,52 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="595">
+      <c r="B2" s="588">
         <f>'Чист. форма'!B2:D4</f>
         <v>0</v>
       </c>
-      <c r="C2" s="596"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="604" t="s">
+      <c r="C2" s="589"/>
+      <c r="D2" s="590"/>
+      <c r="E2" s="597" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="610" t="s">
+      <c r="F2" s="598"/>
+      <c r="G2" s="598"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="611"/>
-      <c r="K2" s="614">
+      <c r="J2" s="604"/>
+      <c r="K2" s="607">
         <f>Данные!B15</f>
         <v>22</v>
       </c>
-      <c r="L2" s="615"/>
+      <c r="L2" s="608"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="576"/>
-      <c r="Q2" s="576"/>
+      <c r="P2" s="558"/>
+      <c r="Q2" s="558"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="598"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="607" t="s">
+      <c r="B3" s="591"/>
+      <c r="C3" s="592"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="600" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="612"/>
-      <c r="J3" s="613"/>
-      <c r="K3" s="616"/>
-      <c r="L3" s="617"/>
+      <c r="F3" s="601"/>
+      <c r="G3" s="601"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="606"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="610"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -11837,11 +12163,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="601"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
+      <c r="B4" s="594"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -11858,24 +12184,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="549" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="498" t="str">
+      <c r="C5" s="611"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="591"/>
-      <c r="L5" s="500"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="612"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -11884,24 +12210,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="549" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="492" t="str">
+      <c r="C6" s="611"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
-      </c>
-      <c r="E6" s="554"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="554"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="591"/>
-      <c r="L6" s="500"/>
+        <v>XXI-КПМ-30-1-500-9 (Штофф Земляк)</v>
+      </c>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="612"/>
+      <c r="J6" s="613"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -11910,29 +12236,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="69" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="592"/>
-      <c r="D7" s="501">
+      <c r="C7" s="615"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="593" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="616" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="592"/>
-      <c r="K7" s="489">
+      <c r="J7" s="615"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="490"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -11941,7 +12267,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -11962,7 +12288,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -11995,13 +12321,13 @@
       <c r="R9" s="325"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="93" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D10" s="93">
         <v>0.05</v>
@@ -12028,7 +12354,7 @@
       <c r="R10" s="327"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>28</v>
@@ -12061,7 +12387,7 @@
       <c r="R11" s="329"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>4</v>
@@ -12094,7 +12420,7 @@
       <c r="R12" s="329"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>5</v>
@@ -12127,15 +12453,15 @@
       <c r="R13" s="329"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
-      <c r="B14" s="561" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="562"/>
-      <c r="D14" s="562"/>
-      <c r="E14" s="562"/>
-      <c r="F14" s="594"/>
+      <c r="B14" s="585" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="586"/>
+      <c r="D14" s="586"/>
+      <c r="E14" s="586"/>
+      <c r="F14" s="617"/>
       <c r="G14" s="56" t="s">
         <v>77</v>
       </c>
@@ -12152,14 +12478,14 @@
       <c r="R14" s="331"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78"/>
-      <c r="B15" s="546" t="s">
+      <c r="B15" s="570" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="547"/>
-      <c r="D15" s="547"/>
-      <c r="E15" s="548"/>
+      <c r="C15" s="571"/>
+      <c r="D15" s="571"/>
+      <c r="E15" s="572"/>
       <c r="F15" s="116" t="s">
         <v>16</v>
       </c>
@@ -12179,7 +12505,7 @@
       <c r="R15" s="333"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="110"/>
       <c r="B16" s="111"/>
       <c r="C16" s="111"/>
@@ -12200,22 +12526,16 @@
       <c r="R16" s="113"/>
       <c r="S16" s="114"/>
     </row>
-    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B17" s="123"/>
       <c r="P17" s="124"/>
     </row>
-    <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="123"/>
       <c r="P18" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B2:D4"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -12230,6 +12550,12 @@
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
     <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B2:D4"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="H15:R15">
     <cfRule type="cellIs" dxfId="17" priority="3" stopIfTrue="1" operator="notBetween">
@@ -12257,7 +12583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -12267,20 +12593,20 @@
       <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="64" customWidth="1"/>
-    <col min="4" max="5" width="5.6640625" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.44140625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="0.85546875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="64" customWidth="1"/>
+    <col min="4" max="5" width="5.7109375" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="0.5546875" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="0.5703125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="6.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -12301,49 +12627,49 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="564"/>
-      <c r="C2" s="565"/>
-      <c r="D2" s="566"/>
-      <c r="E2" s="573" t="s">
+      <c r="B2" s="546"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="548"/>
+      <c r="E2" s="555" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="574"/>
-      <c r="G2" s="574"/>
-      <c r="H2" s="575"/>
-      <c r="I2" s="580" t="s">
+      <c r="F2" s="556"/>
+      <c r="G2" s="556"/>
+      <c r="H2" s="557"/>
+      <c r="I2" s="562" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="581"/>
-      <c r="K2" s="584">
+      <c r="J2" s="563"/>
+      <c r="K2" s="566">
         <f>Данные!B16</f>
         <v>24</v>
       </c>
-      <c r="L2" s="585"/>
+      <c r="L2" s="567"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
-      <c r="P2" s="576"/>
-      <c r="Q2" s="576"/>
+      <c r="P2" s="558"/>
+      <c r="Q2" s="558"/>
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="567"/>
-      <c r="C3" s="568"/>
-      <c r="D3" s="569"/>
-      <c r="E3" s="577" t="s">
+      <c r="B3" s="549"/>
+      <c r="C3" s="550"/>
+      <c r="D3" s="551"/>
+      <c r="E3" s="559" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="578"/>
-      <c r="G3" s="578"/>
-      <c r="H3" s="579"/>
-      <c r="I3" s="582"/>
-      <c r="J3" s="583"/>
-      <c r="K3" s="586"/>
-      <c r="L3" s="587"/>
+      <c r="F3" s="560"/>
+      <c r="G3" s="560"/>
+      <c r="H3" s="561"/>
+      <c r="I3" s="564"/>
+      <c r="J3" s="565"/>
+      <c r="K3" s="568"/>
+      <c r="L3" s="569"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -12352,11 +12678,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="570"/>
-      <c r="C4" s="571"/>
-      <c r="D4" s="572"/>
+      <c r="B4" s="552"/>
+      <c r="C4" s="553"/>
+      <c r="D4" s="554"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -12373,24 +12699,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="549" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="550"/>
-      <c r="D5" s="498" t="str">
+      <c r="C5" s="574"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="551"/>
-      <c r="J5" s="552"/>
-      <c r="K5" s="499"/>
-      <c r="L5" s="500"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="575"/>
+      <c r="J5" s="576"/>
+      <c r="K5" s="501"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -12399,24 +12725,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="549" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="553"/>
-      <c r="D6" s="492" t="str">
+      <c r="C6" s="577"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
-      </c>
-      <c r="E6" s="554"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="554"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="551"/>
-      <c r="J6" s="552"/>
-      <c r="K6" s="499"/>
-      <c r="L6" s="500"/>
+        <v>XXI-КПМ-30-1-500-9 (Штофф Земляк)</v>
+      </c>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="575"/>
+      <c r="J6" s="576"/>
+      <c r="K6" s="501"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="74"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -12425,29 +12751,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" ht="130.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="557"/>
-      <c r="D7" s="501">
+      <c r="C7" s="581"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="556" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="580" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="560"/>
-      <c r="K7" s="489">
+      <c r="J7" s="584"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="490"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="75"/>
       <c r="N7" s="76"/>
       <c r="O7" s="76"/>
@@ -12456,7 +12782,7 @@
       <c r="R7" s="77"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -12477,7 +12803,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -12513,7 +12839,7 @@
       <c r="W9" s="91"/>
       <c r="X9" s="91"/>
     </row>
-    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -12549,7 +12875,7 @@
       <c r="W10" s="91"/>
       <c r="X10" s="91"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="97" t="s">
         <v>3</v>
@@ -12585,7 +12911,7 @@
       <c r="W11" s="101"/>
       <c r="X11" s="91"/>
     </row>
-    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="97" t="s">
         <v>27</v>
@@ -12621,7 +12947,7 @@
       <c r="W12" s="102"/>
       <c r="X12" s="91"/>
     </row>
-    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="97" t="s">
         <v>4</v>
@@ -12657,7 +12983,7 @@
       <c r="W13" s="102"/>
       <c r="X13" s="91"/>
     </row>
-    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>5</v>
@@ -12693,7 +13019,7 @@
       <c r="W14" s="102"/>
       <c r="X14" s="91"/>
     </row>
-    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>30</v>
@@ -12729,7 +13055,7 @@
       <c r="W15" s="101"/>
       <c r="X15" s="91"/>
     </row>
-    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>31</v>
@@ -12765,7 +13091,7 @@
       <c r="W16" s="102"/>
       <c r="X16" s="91"/>
     </row>
-    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="104" t="s">
         <v>32</v>
@@ -12801,13 +13127,13 @@
       <c r="W17" s="101"/>
       <c r="X17" s="91"/>
     </row>
-    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="104" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="105" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D18" s="105">
         <v>0.05</v>
@@ -12837,7 +13163,7 @@
       <c r="W18" s="101"/>
       <c r="X18" s="91"/>
     </row>
-    <row r="19" spans="1:24" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="104" t="s">
         <v>34</v>
@@ -12873,7 +13199,7 @@
       <c r="W19" s="101"/>
       <c r="X19" s="91"/>
     </row>
-    <row r="20" spans="1:24" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
       <c r="B20" s="104" t="s">
         <v>35</v>
@@ -12906,7 +13232,7 @@
       <c r="R20" s="333"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:24" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="111"/>
       <c r="C21" s="111"/>
@@ -12927,13 +13253,9 @@
       <c r="R21" s="113"/>
       <c r="S21" s="114"/>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="P2:Q2"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
@@ -12948,6 +13270,10 @@
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="P2:Q2"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
@@ -12969,7 +13295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -12979,20 +13305,20 @@
       <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="5" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="5" customWidth="1"/>
     <col min="8" max="18" width="9" style="5" customWidth="1"/>
-    <col min="19" max="19" width="0.88671875" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="5"/>
+    <col min="19" max="19" width="0.85546875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -13013,26 +13339,26 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
-      <c r="B2" s="564"/>
-      <c r="C2" s="565"/>
-      <c r="D2" s="566"/>
-      <c r="E2" s="573" t="s">
+      <c r="B2" s="546"/>
+      <c r="C2" s="547"/>
+      <c r="D2" s="548"/>
+      <c r="E2" s="555" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="574"/>
-      <c r="G2" s="574"/>
-      <c r="H2" s="575"/>
-      <c r="I2" s="580" t="s">
+      <c r="F2" s="556"/>
+      <c r="G2" s="556"/>
+      <c r="H2" s="557"/>
+      <c r="I2" s="562" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="581"/>
-      <c r="K2" s="584">
+      <c r="J2" s="563"/>
+      <c r="K2" s="566">
         <f>Данные!B17</f>
         <v>24</v>
       </c>
-      <c r="L2" s="585"/>
+      <c r="L2" s="567"/>
       <c r="M2" s="7"/>
       <c r="N2" s="8"/>
       <c r="O2" s="9"/>
@@ -13041,21 +13367,21 @@
       <c r="R2" s="10"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="567"/>
-      <c r="C3" s="568"/>
-      <c r="D3" s="569"/>
-      <c r="E3" s="577" t="s">
+      <c r="B3" s="549"/>
+      <c r="C3" s="550"/>
+      <c r="D3" s="551"/>
+      <c r="E3" s="559" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="578"/>
-      <c r="G3" s="578"/>
-      <c r="H3" s="579"/>
-      <c r="I3" s="582"/>
-      <c r="J3" s="583"/>
-      <c r="K3" s="586"/>
-      <c r="L3" s="587"/>
+      <c r="F3" s="560"/>
+      <c r="G3" s="560"/>
+      <c r="H3" s="561"/>
+      <c r="I3" s="564"/>
+      <c r="J3" s="565"/>
+      <c r="K3" s="568"/>
+      <c r="L3" s="569"/>
       <c r="M3" s="13"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -13064,11 +13390,11 @@
       <c r="R3" s="15"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="570"/>
-      <c r="C4" s="571"/>
-      <c r="D4" s="572"/>
+      <c r="B4" s="552"/>
+      <c r="C4" s="553"/>
+      <c r="D4" s="554"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
@@ -13085,24 +13411,24 @@
       <c r="R4" s="15"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
-      <c r="B5" s="549" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="550"/>
-      <c r="D5" s="498" t="str">
+      <c r="C5" s="574"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="551"/>
-      <c r="J5" s="552"/>
-      <c r="K5" s="499"/>
-      <c r="L5" s="500"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="575"/>
+      <c r="J5" s="576"/>
+      <c r="K5" s="501"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="21"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -13111,24 +13437,24 @@
       <c r="R5" s="15"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="549" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="553"/>
-      <c r="D6" s="492" t="str">
+      <c r="C6" s="577"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
-      </c>
-      <c r="E6" s="554"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="554"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="551"/>
-      <c r="J6" s="552"/>
-      <c r="K6" s="499"/>
-      <c r="L6" s="500"/>
+        <v>XXI-КПМ-30-1-500-9 (Штофф Земляк)</v>
+      </c>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="575"/>
+      <c r="J6" s="576"/>
+      <c r="K6" s="501"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="21"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
@@ -13137,29 +13463,29 @@
       <c r="R6" s="15"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="57" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="557"/>
-      <c r="D7" s="501">
+      <c r="C7" s="581"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="556" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="580" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="560"/>
-      <c r="K7" s="489">
+      <c r="J7" s="584"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="490"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="22"/>
       <c r="N7" s="12"/>
       <c r="O7" s="12"/>
@@ -13168,7 +13494,7 @@
       <c r="R7" s="23"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
@@ -13189,7 +13515,7 @@
       <c r="R8" s="31"/>
       <c r="S8" s="32"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33"/>
       <c r="B9" s="34" t="s">
         <v>17</v>
@@ -13222,13 +13548,13 @@
       <c r="R9" s="335"/>
       <c r="S9" s="38"/>
     </row>
-    <row r="10" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="50" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="387" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="44">
         <v>0.05</v>
@@ -13255,7 +13581,7 @@
       <c r="R10" s="337"/>
       <c r="S10" s="32"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
       <c r="B11" s="50" t="s">
         <v>2</v>
@@ -13288,7 +13614,7 @@
       <c r="R11" s="337"/>
       <c r="S11" s="32"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="24"/>
       <c r="B12" s="50" t="s">
         <v>3</v>
@@ -13321,7 +13647,7 @@
       <c r="R12" s="337"/>
       <c r="S12" s="32"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="24"/>
       <c r="B13" s="50" t="s">
         <v>7</v>
@@ -13354,7 +13680,7 @@
       <c r="R13" s="337"/>
       <c r="S13" s="32"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="24"/>
       <c r="B14" s="50" t="s">
         <v>8</v>
@@ -13387,7 +13713,7 @@
       <c r="R14" s="337"/>
       <c r="S14" s="32"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="57" t="s">
         <v>4</v>
@@ -13420,7 +13746,7 @@
       <c r="R15" s="339"/>
       <c r="S15" s="32"/>
     </row>
-    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="40"/>
       <c r="C16" s="41"/>
@@ -13441,20 +13767,9 @@
       <c r="R16" s="46"/>
       <c r="S16" s="43"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I2:J3"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:H5"/>
@@ -13462,6 +13777,17 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="B2:D4"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="K2:L3"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="H10:R15">
@@ -13484,7 +13810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -13497,20 +13823,20 @@
       <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="64" customWidth="1"/>
-    <col min="4" max="5" width="6.33203125" style="64" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" style="64" customWidth="1"/>
-    <col min="8" max="18" width="8.88671875" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.44140625" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="64" customWidth="1"/>
+    <col min="4" max="5" width="6.28515625" style="64" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="64" customWidth="1"/>
+    <col min="8" max="18" width="8.85546875" style="64" customWidth="1"/>
+    <col min="19" max="19" width="1.42578125" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -13531,26 +13857,26 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="595"/>
-      <c r="C2" s="596"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="604" t="s">
+      <c r="B2" s="588"/>
+      <c r="C2" s="589"/>
+      <c r="D2" s="590"/>
+      <c r="E2" s="597" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="610" t="s">
+      <c r="F2" s="598"/>
+      <c r="G2" s="598"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="611"/>
-      <c r="K2" s="614">
+      <c r="J2" s="604"/>
+      <c r="K2" s="607">
         <f>Данные!B18</f>
         <v>50</v>
       </c>
-      <c r="L2" s="615"/>
+      <c r="L2" s="608"/>
       <c r="M2" s="619"/>
       <c r="N2" s="620"/>
       <c r="O2" s="620"/>
@@ -13559,21 +13885,21 @@
       <c r="R2" s="621"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="598"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="607" t="s">
+      <c r="B3" s="591"/>
+      <c r="C3" s="592"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="600" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="612"/>
-      <c r="J3" s="613"/>
-      <c r="K3" s="616"/>
-      <c r="L3" s="617"/>
+      <c r="F3" s="601"/>
+      <c r="G3" s="601"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="606"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="610"/>
       <c r="M3" s="622"/>
       <c r="N3" s="623"/>
       <c r="O3" s="623"/>
@@ -13582,11 +13908,11 @@
       <c r="R3" s="624"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="601"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
+      <c r="B4" s="594"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -13603,24 +13929,24 @@
       <c r="R4" s="624"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="549" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="498" t="str">
+      <c r="C5" s="611"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="591"/>
-      <c r="L5" s="500"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="612"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="622"/>
       <c r="N5" s="623"/>
       <c r="O5" s="623"/>
@@ -13629,24 +13955,24 @@
       <c r="R5" s="624"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="549" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="492" t="str">
+      <c r="C6" s="611"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
-      </c>
-      <c r="E6" s="554"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="554"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="591"/>
-      <c r="L6" s="500"/>
+        <v>XXI-КПМ-30-1-500-9 (Штофф Земляк)</v>
+      </c>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="612"/>
+      <c r="J6" s="613"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="622"/>
       <c r="N6" s="623"/>
       <c r="O6" s="623"/>
@@ -13655,29 +13981,29 @@
       <c r="R6" s="624"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="90.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="592"/>
-      <c r="D7" s="501">
+      <c r="C7" s="615"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="593" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="616" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="592"/>
-      <c r="K7" s="489">
+      <c r="J7" s="615"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="490"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="622"/>
       <c r="N7" s="623"/>
       <c r="O7" s="623"/>
@@ -13686,7 +14012,7 @@
       <c r="R7" s="624"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -13707,7 +14033,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -13740,7 +14066,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="92" t="s">
         <v>25</v>
@@ -13773,7 +14099,7 @@
       <c r="R10" s="96"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="200" t="s">
         <v>26</v>
@@ -13806,7 +14132,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="200" t="s">
         <v>2</v>
@@ -13839,7 +14165,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="200" t="s">
         <v>3</v>
@@ -13872,7 +14198,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="97" t="s">
         <v>27</v>
@@ -13905,7 +14231,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="97" t="s">
         <v>28</v>
@@ -13938,7 +14264,7 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78"/>
       <c r="B16" s="97" t="s">
         <v>9</v>
@@ -13971,7 +14297,7 @@
       <c r="R16" s="100"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78"/>
       <c r="B17" s="97" t="s">
         <v>29</v>
@@ -14004,7 +14330,7 @@
       <c r="R17" s="100"/>
       <c r="S17" s="86"/>
     </row>
-    <row r="18" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78"/>
       <c r="B18" s="97" t="s">
         <v>30</v>
@@ -14037,7 +14363,7 @@
       <c r="R18" s="100"/>
       <c r="S18" s="86"/>
     </row>
-    <row r="19" spans="1:19" ht="24.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="24.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78"/>
       <c r="B19" s="97" t="s">
         <v>35</v>
@@ -14070,14 +14396,14 @@
       <c r="R19" s="100"/>
       <c r="S19" s="86"/>
     </row>
-    <row r="20" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78"/>
-      <c r="B20" s="546" t="s">
+      <c r="B20" s="570" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="547"/>
-      <c r="D20" s="547"/>
-      <c r="E20" s="548"/>
+      <c r="C20" s="571"/>
+      <c r="D20" s="571"/>
+      <c r="E20" s="572"/>
       <c r="F20" s="116" t="s">
         <v>16</v>
       </c>
@@ -14097,7 +14423,7 @@
       <c r="R20" s="109"/>
       <c r="S20" s="86"/>
     </row>
-    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="110"/>
       <c r="B21" s="111"/>
       <c r="C21" s="111"/>
@@ -14118,11 +14444,18 @@
       <c r="R21" s="113"/>
       <c r="S21" s="114"/>
     </row>
-    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B22" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="M2:R7"/>
     <mergeCell ref="E2:H2"/>
@@ -14135,13 +14468,6 @@
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="K6:L6"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R20">
     <cfRule type="cellIs" dxfId="10" priority="4" stopIfTrue="1" operator="equal">
@@ -14161,7 +14487,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView showZeros="0" view="pageBreakPreview" zoomScale="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
@@ -14171,19 +14497,19 @@
       <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.33203125" style="64" customWidth="1"/>
-    <col min="2" max="2" width="5.88671875" style="64" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="64" customWidth="1"/>
-    <col min="4" max="6" width="5.6640625" style="64" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="1.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="64" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="64" customWidth="1"/>
+    <col min="4" max="6" width="5.7109375" style="64" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="64" customWidth="1"/>
     <col min="8" max="18" width="9" style="64" customWidth="1"/>
-    <col min="19" max="19" width="1.109375" style="64" customWidth="1"/>
-    <col min="20" max="16384" width="9.109375" style="64"/>
+    <col min="19" max="19" width="1.140625" style="64" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="8.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
       <c r="B1" s="61"/>
       <c r="C1" s="62"/>
@@ -14204,26 +14530,26 @@
       <c r="R1" s="62"/>
       <c r="S1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="65"/>
-      <c r="B2" s="595"/>
-      <c r="C2" s="596"/>
-      <c r="D2" s="597"/>
-      <c r="E2" s="604" t="s">
+      <c r="B2" s="588"/>
+      <c r="C2" s="589"/>
+      <c r="D2" s="590"/>
+      <c r="E2" s="597" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="605"/>
-      <c r="G2" s="605"/>
-      <c r="H2" s="606"/>
-      <c r="I2" s="610" t="s">
+      <c r="F2" s="598"/>
+      <c r="G2" s="598"/>
+      <c r="H2" s="599"/>
+      <c r="I2" s="603" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="611"/>
-      <c r="K2" s="614">
+      <c r="J2" s="604"/>
+      <c r="K2" s="607">
         <f>Данные!B19</f>
         <v>50</v>
       </c>
-      <c r="L2" s="615"/>
+      <c r="L2" s="608"/>
       <c r="M2" s="66"/>
       <c r="N2" s="67"/>
       <c r="O2" s="68"/>
@@ -14232,21 +14558,21 @@
       <c r="R2" s="69"/>
       <c r="S2" s="70"/>
     </row>
-    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="65"/>
-      <c r="B3" s="598"/>
-      <c r="C3" s="599"/>
-      <c r="D3" s="600"/>
-      <c r="E3" s="607" t="s">
+      <c r="B3" s="591"/>
+      <c r="C3" s="592"/>
+      <c r="D3" s="593"/>
+      <c r="E3" s="600" t="s">
         <v>90</v>
       </c>
-      <c r="F3" s="608"/>
-      <c r="G3" s="608"/>
-      <c r="H3" s="609"/>
-      <c r="I3" s="612"/>
-      <c r="J3" s="613"/>
-      <c r="K3" s="616"/>
-      <c r="L3" s="617"/>
+      <c r="F3" s="601"/>
+      <c r="G3" s="601"/>
+      <c r="H3" s="602"/>
+      <c r="I3" s="605"/>
+      <c r="J3" s="606"/>
+      <c r="K3" s="609"/>
+      <c r="L3" s="610"/>
       <c r="M3" s="72"/>
       <c r="N3" s="71"/>
       <c r="O3" s="71"/>
@@ -14255,11 +14581,11 @@
       <c r="R3" s="73"/>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="65"/>
-      <c r="B4" s="601"/>
-      <c r="C4" s="602"/>
-      <c r="D4" s="603"/>
+      <c r="B4" s="594"/>
+      <c r="C4" s="595"/>
+      <c r="D4" s="596"/>
       <c r="E4" s="250"/>
       <c r="F4" s="250"/>
       <c r="G4" s="250"/>
@@ -14276,24 +14602,24 @@
       <c r="R4" s="73"/>
       <c r="S4" s="70"/>
     </row>
-    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="65"/>
-      <c r="B5" s="549" t="s">
+      <c r="B5" s="573" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="588"/>
-      <c r="D5" s="498" t="str">
+      <c r="C5" s="611"/>
+      <c r="D5" s="500" t="str">
         <f>Данные!$A5</f>
         <v>PCI</v>
       </c>
-      <c r="E5" s="499"/>
-      <c r="F5" s="499"/>
-      <c r="G5" s="499"/>
-      <c r="H5" s="500"/>
-      <c r="I5" s="589"/>
-      <c r="J5" s="590"/>
-      <c r="K5" s="591"/>
-      <c r="L5" s="500"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="501"/>
+      <c r="G5" s="501"/>
+      <c r="H5" s="502"/>
+      <c r="I5" s="612"/>
+      <c r="J5" s="613"/>
+      <c r="K5" s="614"/>
+      <c r="L5" s="502"/>
       <c r="M5" s="74"/>
       <c r="N5" s="71"/>
       <c r="O5" s="71"/>
@@ -14302,24 +14628,24 @@
       <c r="R5" s="73"/>
       <c r="S5" s="70"/>
     </row>
-    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="17.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
-      <c r="B6" s="549" t="s">
+      <c r="B6" s="573" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="588"/>
-      <c r="D6" s="492" t="str">
+      <c r="C6" s="611"/>
+      <c r="D6" s="494" t="str">
         <f>Данные!$A2</f>
-        <v>XXI-КПМ-30-1-500-9 (Штофф)</v>
-      </c>
-      <c r="E6" s="554"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="554"/>
-      <c r="H6" s="555"/>
-      <c r="I6" s="589"/>
-      <c r="J6" s="590"/>
-      <c r="K6" s="591"/>
-      <c r="L6" s="500"/>
+        <v>XXI-КПМ-30-1-500-9 (Штофф Земляк)</v>
+      </c>
+      <c r="E6" s="578"/>
+      <c r="F6" s="578"/>
+      <c r="G6" s="578"/>
+      <c r="H6" s="579"/>
+      <c r="I6" s="612"/>
+      <c r="J6" s="613"/>
+      <c r="K6" s="614"/>
+      <c r="L6" s="502"/>
       <c r="M6" s="72"/>
       <c r="N6" s="71"/>
       <c r="O6" s="71"/>
@@ -14328,29 +14654,29 @@
       <c r="R6" s="73"/>
       <c r="S6" s="70"/>
     </row>
-    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="71.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="65"/>
-      <c r="B7" s="556" t="s">
+      <c r="B7" s="580" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="592"/>
-      <c r="D7" s="501">
+      <c r="C7" s="615"/>
+      <c r="D7" s="503">
         <f>Данные!$A8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="558"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="558"/>
-      <c r="H7" s="559"/>
-      <c r="I7" s="593" t="s">
+      <c r="E7" s="582"/>
+      <c r="F7" s="582"/>
+      <c r="G7" s="582"/>
+      <c r="H7" s="583"/>
+      <c r="I7" s="616" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="592"/>
-      <c r="K7" s="489">
+      <c r="J7" s="615"/>
+      <c r="K7" s="491">
         <f>Данные!$A11</f>
         <v>0</v>
       </c>
-      <c r="L7" s="490"/>
+      <c r="L7" s="492"/>
       <c r="M7" s="74"/>
       <c r="N7" s="71"/>
       <c r="O7" s="71"/>
@@ -14359,7 +14685,7 @@
       <c r="R7" s="73"/>
       <c r="S7" s="70"/>
     </row>
-    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="2.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78"/>
       <c r="B8" s="79"/>
       <c r="C8" s="80"/>
@@ -14380,7 +14706,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="86"/>
     </row>
-    <row r="9" spans="1:19" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="87"/>
       <c r="B9" s="254" t="s">
         <v>17</v>
@@ -14413,7 +14739,7 @@
       <c r="R9" s="89"/>
       <c r="S9" s="90"/>
     </row>
-    <row r="10" spans="1:19" ht="40.799999999999997" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.2">
       <c r="A10" s="78"/>
       <c r="B10" s="129" t="s">
         <v>26</v>
@@ -14446,7 +14772,7 @@
       <c r="R10" s="100"/>
       <c r="S10" s="86"/>
     </row>
-    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="78"/>
       <c r="B11" s="129" t="s">
         <v>2</v>
@@ -14479,7 +14805,7 @@
       <c r="R11" s="100"/>
       <c r="S11" s="86"/>
     </row>
-    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="78"/>
       <c r="B12" s="129" t="s">
         <v>3</v>
@@ -14512,7 +14838,7 @@
       <c r="R12" s="100"/>
       <c r="S12" s="86"/>
     </row>
-    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="78"/>
       <c r="B13" s="129" t="s">
         <v>27</v>
@@ -14545,7 +14871,7 @@
       <c r="R13" s="100"/>
       <c r="S13" s="86"/>
     </row>
-    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78"/>
       <c r="B14" s="129" t="s">
         <v>9</v>
@@ -14578,7 +14904,7 @@
       <c r="R14" s="100"/>
       <c r="S14" s="86"/>
     </row>
-    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78"/>
       <c r="B15" s="129" t="s">
         <v>5</v>
@@ -14611,14 +14937,14 @@
       <c r="R15" s="100"/>
       <c r="S15" s="86"/>
     </row>
-    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78"/>
-      <c r="B16" s="546" t="s">
+      <c r="B16" s="570" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="547"/>
-      <c r="D16" s="547"/>
-      <c r="E16" s="548"/>
+      <c r="C16" s="571"/>
+      <c r="D16" s="571"/>
+      <c r="E16" s="572"/>
       <c r="F16" s="259" t="s">
         <v>16</v>
       </c>
@@ -14638,7 +14964,7 @@
       <c r="R16" s="122"/>
       <c r="S16" s="86"/>
     </row>
-    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="110"/>
       <c r="B17" s="128"/>
       <c r="C17" s="127"/>
@@ -14659,11 +14985,20 @@
       <c r="R17" s="113"/>
       <c r="S17" s="114"/>
     </row>
-    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B18" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="I7:J7"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
@@ -14674,15 +15009,6 @@
     <mergeCell ref="K2:L3"/>
     <mergeCell ref="B2:D4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="I7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:R15">
     <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
